--- a/news_data/2019_07.xlsx
+++ b/news_data/2019_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,76 +22,352 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t xml:space="preserve"> 오라관광단지 사업자, 자본검증 '거부'...제주도 결단 주목 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 성산일출봉맛집 표선 세화해녀의 집, 7월 관광객 함박웃음 짓게 하는 대광어 물회 호평 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치정식에 옥돔구이, 한치 물회 서비스 제공 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제주 관광지 성읍랜드 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 올해 상반기 우수관광사업체 18곳 선정 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식 먹으면 서비스로 한치 물회, 옥돔구이 제공 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 한치 물회, 옥돔구이 서비스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 서비스로 별미 한치 물회, 옥돔구이 제공 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 가볼만한 곳, 중문관광단지 맛집 제주 먹거리의 향연 ‘가람돌솥밥’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 주문하면 서비스로 한치 물회, 옥돔구이 나와 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 한국관광공사가 제주도 야자수를 제거하는 이유는 '태풍'때문 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 무료로 한치 물회, 옥돔구이 제공 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [SR새상품] SKT, "제주도 관광지, T맵 켜고 할인쿠폰 받으세요" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 우수관광사업체 18개소 선정 </t>
-  </si>
-  <si>
-    <t>오라관광단지 사업자, 자본검증 '거부'...제주도 대응 주목 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 오라관광단지 사업자, 자본검증 '거부'...제주도 대응 주목 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 오라관광단지 사업자, 자본검증 '거부'...제주도 대응 주목 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.07.02 12:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 선입금 3천억 예치기한 넘겨...JCC "법적근거 없어" 제주도, 11일까지 자본검증 대안 제시 요구 제주도 개발사(史)에서 최대 규모의 난개발로 인해 중산간 환경훼손이 우려되는 제주오라관광단지 개발사업과 관련, 사업자가 사실상 자본검증을 거부하면서 원희룡 제주도정의 대응이 주목된다.2일 제주특별자치도에 따르면 오라관광단지 사업자인 JCC는 자본검증위원회가 요구한 지난달 말까지 사업비 중 분양수입을 제외한 금액의 10%인 3373억원을 지정 계좌에 입금하지 않았다.10% 선입금 요구는 지난해 12월 열린 오라단지 자본검증위원회 4차 회의에서 사업자의 자본조달 능력이 의심됨에 따라 결정된 것이다.자본검증위는 JCC가 10% 금액을 입금한 것이 확인한 후 회의를 열어 자본검증 결론에 대한 최종 의견서를 작성키로 했다.그러나 JCC측은 자본검증 절차가 법적 근거가 없다는 점을 들며 예치를 거부한 것으로 전해졌다.이에 제주도는 오는 10일까지 자본검증에 대한 대안을 제시할 것을 요구했고, 이를 이행하지 않으면 자본검증을 이행하지 않은 것으로 보고 자본검증위 회의를 개최해 절차를 진행할 계획이다.다만 이달 중순 제주도의회의 대규모개발사업장 행정사무조사 현장방문이 예정돼 있어 자본검증위 회의는 이달 말이나 8월 초에나 열 수 있을 전망이다.오라단지 자본검증과 관련해 원희룡 제주도지사는 지난 4월 열린 제371회 제주도의회 임시회 도정질문에서 자본검증위원회의 자본금 예치조건에 대해 "법적 구속력은 없으나 최종 판단과정에서 참고할 것"이라고 밝힌 바 있다.당시 원 지사는 "명문화된 조항은 없지만, 근거는 있다. 도지사가 투자 적격과 부실 여부 심의하고 책임지도록 돼 있는데, (자본검증은) 그 방식의 하나"라면서 "다만, 명시적 규정이 없어 법적 구속력은 없다. 그런 도지사로서 최종 판단과정에서 이 내용을 참고할 것"이라고 말했다.원 지사는 지난 1일 민선 7기 출범 1주년 기자회견에서도 "중국 내부 정치적 사정으로 투자회사의 경영진이 바뀌는 과정이 있었기 때문에 이 상황이 명확해질 때까지 신중해야 할 필요가 있다"며 "자본검증을 통해 도의회 심의를 받은 후 지사가 최종 평가를 내리겠다"고 밝혔다.한편 오라관광단지 조성사업은 약 6조2800억원을 투자해 제주시 오라2동 산 46-2번지 일대 357만5753㎡ 부지에 휴양콘도와 관광숙박시설, 골프장시설, 상업시설, 휴양문화시설 등을 조성하는 것을 주 내용으로 한다.단일 개발사업으로는 제주도 역대 최대의 투자규모이고, 개발예정지 또한 제주시 핵심 중산간 지역인 한라산국립공원 바로 밑 해발 350~580m에 위치하고 있어 대규모 개발사업으로 인한 막대한 환경피해가 우려되고 있다. 원희룡 도정의 미래비전계획 및 중산간 보전 가이드라인, 제주국립공원 확대 지정 등의 정책기조에 비춰볼 때 '부적절' 사업이란 지적이 많았다. 민선 6기 도정에서 추진된 환경영향평가 과정에서는 숱한 의혹이 제기됐다. 그러나 환경영향평가심의위는 석연치 않은 '재심의' 개최 등으로 조건부 통과를 시키면서 큰 논란을 초래한 바 있다.결국 지난 2017년 6월 제주도정이 제주도의회의 자본검증 제의를 수용하면서, '선(先) 자본검증, 후(後) 인.허가 절차'의 수순을 밟게 됐다.이에 따라 구성된 자본검증위원회는 4차례 걸쳐 회의를 열었으나 사업자가 6조원이 넘는 막대한 자본을 확보해 조달할 수 있는 능력에 대한 검증결과 사실상 '미흡' 판정을 내리고 사업비의 10%인 3373억원을 사전 예치할 것을 요청했다.그러나 사업자가 자본검증을 거부하면서, 이제 제주도정의 결단만 남게 됐다.시민사회는 물론 학계에서도 많은 우려를 표하고 있는 중산간 난개발의 오라관광단지 개발사업에 대해 제주도정이 자본검증 부분에 대해 어떻게 매듭짓고, 후속조치를 이어나갈지가 주목된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 "오라관광단지, 자본검증 자료 미제출시 결과 부정적일 것" 오라관광단지 자본검증, 사업자 제안 '퇴짜'..."그 정도론 안돼" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+    <t>제주도 중문 관광단지 맛집 도톰한 갈치가 가득 들어간 갈치조림 효리의단골집...</t>
+  </si>
+  <si>
+    <t>제주도의회, 야간 관광 활성화 위한 토론회 개최</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치조림정식에 서비스로 한치...</t>
+  </si>
+  <si>
+    <t>제주도체험 '모이소' 이색 쇼핑과 원데이 클래스로 관광객들에게 인기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 옥돔구이, 한...</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 가성비 자랑하는 효리의단골집</t>
+  </si>
+  <si>
+    <t>효리의단골집‘이조은식당’ 갈치조림이 대표적인 제주도 중문 관광단지 맛집</t>
+  </si>
+  <si>
+    <t>제주도, '증강현실' 스마트 교육관광 체험서비스 운영</t>
+  </si>
+  <si>
+    <t>제주도 관광객 타깃 카셰어링 서비스 '끌리면타라' 출시</t>
+  </si>
+  <si>
+    <t>제주도 '2019 지역관광 국제포럼 개최'</t>
+  </si>
+  <si>
+    <t>제주도 “관광지 추락사고 예방…해안가 시설 전수 조사”</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 효리의단골집 '이조은식당' 감칠맛 좋은 갈치조림...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림 먹으면 서비스로...</t>
+  </si>
+  <si>
+    <t>제주도 함덕 해수욕장 ‘상어 주의보’…관광객 100명 대피</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 무료로 한치 ...</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 제주도 중문 관광단지 맛집 여행객들 반응 뜨거워</t>
+  </si>
+  <si>
+    <t>제주도 찾는 일본인 관광객 증가 추세</t>
+  </si>
+  <si>
+    <t>제주도 카지노산업 영향평가 용역 완료…롯데관광개발 ‘촉각’</t>
+  </si>
+  <si>
+    <t>공예공방 방향제 ‘동심’ 제주도 관광기념품 공모전 ‘대상’</t>
+  </si>
+  <si>
+    <t>여행객들이 직접 뽑은 제주도 중문 관광단지 맛집 효리의단골집 ‘이조은식당...</t>
+  </si>
+  <si>
+    <t>“끌리면 타라” 제주도 관광객 ‘기사+차량’ 호출서비스 등장</t>
+  </si>
+  <si>
+    <t>제주도 무장애 관광인프라 구축 나선다</t>
+  </si>
+  <si>
+    <t>제주도 "오라관광단지, 자본검증 납득할 자료 있어야"</t>
+  </si>
+  <si>
+    <t>제주도, '추락 위험 관광지 전수 조사' 실시</t>
+  </si>
+  <si>
+    <t>제주도내 펜션서 투숙 관광객 3명 숨져...1명 위독</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 제주도 중문 관광단지 맛집 中 갈치조림 찾는 사람...</t>
+  </si>
+  <si>
+    <t>제주 흑돼지 거리 맛집 '대돈' 제주도를 찾는 관광객들로 문전성시를 이루어</t>
+  </si>
+  <si>
+    <t>SKT "티맵이 제주도 관광지·식당 할인정보 안내"</t>
+  </si>
+  <si>
+    <t>제주도 선정 '우수관광 사업체' 18곳 어디?</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 서비스로 옥돔...</t>
+  </si>
+  <si>
+    <t>제주도 해수욕장, 상어 출현…'기겁'한 관광객들 대피 소동</t>
+  </si>
+  <si>
+    <t>끌리면타라, 제주도 관광객 한정 유료서비스로 7월 15일 정식 오픈</t>
+  </si>
+  <si>
+    <t>제주도 생물권보전지역 생태관광 활성화 시동</t>
+  </si>
+  <si>
+    <t>외국인 관광객들로 북적이는 제주도</t>
+  </si>
+  <si>
+    <t>제주도 상어 등장, 올여름 관광객 어쩌나? 2m 길이에 꼬리가 세로</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 갈치조림 효리의단골집 대표메뉴</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 한치 물회, 옥...</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 효리의단골집 칼칼하고 고소한 갈치조림 제공하는...</t>
+  </si>
+  <si>
+    <t>제주도의회, 천연염색 활용한 제주관광기념품 산업 육성 위한 토론회 개최</t>
+  </si>
+  <si>
+    <t>다시가고싶은 효리의단골집 제주도 중문 관광단지 맛집 '이조은식당'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 대정도시재생센터와 관광활성화 협약 체결</t>
+  </si>
+  <si>
+    <t>제주도 '오라관광단지·카지노' 일관성·원칙 없는 행정 불신 자초</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 서비스로 한치...</t>
+  </si>
+  <si>
+    <t>제주도·관광공사 제주상품 중국시장 마케팅 주력</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 가성비 좋은 갈치정식은 어디?</t>
+  </si>
+  <si>
+    <t>여름철 제주도 물놀이 명소와 놓치지 말아야 할 관광 10선</t>
+  </si>
+  <si>
+    <t>매콤달콤 갈치조림으로 알려진 효리의단골집 '이조은식당' 제주도 중문 관광단...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치조림에 한치 물회 서비스...</t>
+  </si>
+  <si>
+    <t>휴가철 관광과 휴양을 한 번에! 제주도에서 느끼는 색다른 매력, 이색 생선 카...</t>
+  </si>
+  <si>
+    <t>오라관광단지 사업자, 자본검증 '거부'...제주도 결단 주목</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉맛집 표선 세화해녀의 집, 7월 관광객 함박웃음 짓게 하는 ...</t>
+  </si>
+  <si>
+    <t>제주도, 한류 관광 대표 브랜드 선정</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치정식에 옥돔구이, 한치 물...</t>
+  </si>
+  <si>
+    <t>7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식 먹으면 서비스...</t>
+  </si>
+  <si>
+    <t>제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스]</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 서비스로 별미...</t>
+  </si>
+  <si>
+    <t>제주도 가볼만한 곳, 중문관광단지 맛집 제주 먹거리의 향연 ‘가람돌솥밥’</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 주문하면 서비...</t>
+  </si>
+  <si>
+    <t>제주도, 우수관광사업체 18개소 선정</t>
+  </si>
+  <si>
+    <t>한국관광공사가 제주도 야자수를 제거하는 이유는 '태풍'때문</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 무료로 한치...</t>
+  </si>
+  <si>
+    <t>[SR새상품] SKT, "제주도 관광지, T맵 켜고 할인쿠폰 받으세요"</t>
+  </si>
+  <si>
+    <t>제주도의회, 야간 관광 활성화 위한 토론회 개최 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의회, 야간 관광 활성화 위한 토론회 개최 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의회, 야간 관광 활성화 위한 토론회 개최 송고시간2019-07-26 15:12 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주도의회 문화관광체육위원회는 26일 오후 도의회 대회의실에서 제주 야간관광 활성화 방안 모색을 위한 전문가 토론회를 열었다. 제주 '돌 염전' 야간 경관 조명 (제주=연합뉴스) 제주시가 애월읍 구엄리 해안도로변 '돌 염전' 일대에 설치한 야간 경관 조명이 관광객을 유혹하고 있다. 낮고 꼬불꼬불한 울타리 부분이 돌 염전이다. [연합뉴스 자료사진] 토론회에는 이보연 제주한라대 관광경영학과 교수가 '해외 사례로 본 제주 야간관광 활성화 전략'에 대해 주제발표했다. 이 교수는 "제주는 역사적 배경상 랜드마크가 될 만한 장소가 없고, 미흡한 지원체계와 인프라 여건 속에서 최대한 자연·문화적 자원을 활용한 상품개발에 집중할 필요가 있다"고 강조했다. 광고 그는 로마의 도보·자전거·세그웨이(전기 모터를 이용한 1인용 교통수단) 투어를 예로 들며 제주시 원도심 주변지역을 야간 도보관광 코스로 개발해야 한다고 말했다. 또 도심을 한눈에 내려다 볼 수 있는 하와이 탄탈루스 언덕처럼 제주시 도두봉과 사라봉을 주요 야간 관광지로 개발하고, 야간 레저·스포츠와 쇼핑 장소를 개발해야 한다고 덧붙였다. 이와 함께 야간 시티투어버스 운행, 관광객의 안전 도모를 위한 야간 안전 수칙 마련, 야간관광 할인카드 도입, 재래시장과 연계한 야시장 육성 등 야간관광 활성화를 위한 지원체계와 인프라를 동시에 구축해야 한다고 강조했다. 주제발표에 이어 강봉석 제주관광공사 지역관광처장, 부석현 제주관광협회 조사연구실장, 신동일 제주연구원 연구위원, 양성수 제주대 관광융복합학과 교수 등 전문가들의 토론도 이어졌다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/07/26 15:12 송고 #제주 #야간관광 #토론회 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 23 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 10 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 나와 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 나와 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 나와 곽종현 기자 승인 2019.07.29 11:24 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도 서귀포시 하효동에 있는 쇠소깍은 원래는 소가 누워있는 형태라 하여 쇠둔이라는 지명이었다. 그런데 효돈천을 흐르는 담수와 해수가 만나 깊은 웅덩이를 만들고 있어 현재의 ‘쇠소깍’이라는 이름으로 붙여졌으며, 쇠는 소, 소는 웅덩이, 깍은 끝이라는 의미를 갖고 있다. 쇠소는 용암이 흘러내리면서 굳어져 형성된 계곡 같은 골짜기로 이름 만큼이나 재미나고 독특한 지형을 만들고 있다. 쇠소깍은 서귀포칠십리에 숨은 비경 중 하나로 깊은 수심과 용암으로 이루어진 기암괴석과 소나무숲이 조화를 이루면서 아름다운 풍광을 연출하면서 여행객들이 많이 찾고 있다. 쇠소깍이 위치한 하효동은 한라산 남쪽 앞자락에 자리 잡고 있어 감귤의 주산지로 유명하다. 주변에는 주상절리대와 중문해수욕장, 천제연폭포 등 유명한 관광지가 많다. 계곡 주변을 이어가는 정돈된 산책로를 따라 경관을 관찰하는 것도 좋으며, 무엇보다 제주 전통 목선 ‘테우’를 직접 타보는 특별한 체험이 가능하다. 테우는 물에 절인 나무를 이어 만든 뗏목처럼 생긴 조각배로 별도의 동력도 없이 사람의 힘과 바람으로 항해하여 색다른 즐거움을 선사한다.색다른 볼거리와 함께 색다른 맛을 체험하는 것도 여행을 즐겁게 한다. 제주도는 바다와 접해 있는 환경으로 인해 해산물 요리들이 많은데 요즘 갈치조림을 찾는 여행객들이 많다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 갈치조림으로 문어, 전복, 새우 등 다양한 해산물을 넣은 해물갈치조림을 선보여 여행객은 물론 현지인들도 많이 찾고 있다. 기원뚝배기의 해물갈치조림이 특징적인 것은 해산물 특유의 비린 냄새를 잡으면서 고소한 맛을 위해 천연 약초를 숙성한 양념을 사용한다는 점이다. 천연 양념 덕분에 맛은 물론 건강에도 좋으며, 현대인의 입맛을 사로잡고 있어 양념에 밥을 비벼 먹는 손님들이 많다.다양한 서비스 메뉴도 제공하고 있다. 제주도 중문 맛집 기원뚝배기에서 해물갈치조림을 주문하면 한치 물회를 무료로 맛볼 수 있고, 옥돔구이와 성게국도 함께 무료로 먹을 수 있다. 그리고 통갈치조림정식 A세트 혹은 B세트에도 한치 물회가 서비스로 나오며, 통갈치조림정식 A세트를 주문하면 옥돔구이와 성게국을 하나씩 더 추가로 먹을 수 있다. 더운 여름에만 맛볼 수 있는 한치 물회에는  5가지 과일과 매실 효소를 숙성시킨 육수를 사용하고, 오이, 미나리, 파프리카 등 여러 가지 야채가 들어가서 맛이 아주 시원하다. 한치는 회로도 주문이 가능하다.해산물 요리는 싱싱한 재료를 사용하는 것이 중요하다. 기원뚝배기는 업소 입구에 수족관을 두고 있어 요리 주문이 들어오면 살아 있는 싱싱한 해산물을 이용하여 더욱 맛있는 해산물 요리를 제공하고 있다.메인 요리 뿐만 아니라 밑반찬도 중요하다. 여행지의 경우 일손이 많이 가는 밑반찬은 외부에서 사서 제공하는 곳들이 있지만 제주도 맛집 기원뚝배기는 국내산 재료를 구입하여 직접 만들고 있다. 전라도 엄마의 손맛을 담아 만든 밑반찬과 친절한 서비스를 바탕으로 항상 내 가족이 먹는다는 마음으로 식당을 운영하는 업소 대표의 철학 덕분에 한번 방문한 손님들이 재방문하는 경우가 많다.한편 제주 맛집 기원뚝배기는 연중 무휴로 오전 7시~오후 10시 영업하고 있어 제주도 중문 아침식사 맛집으로도 잘 알려져 있다. 이른 아침 손님들 가운데 해장 메뉴를 찾는 이들이 많은데 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원한 것이 특징이다. 무료 셔틀버스를 통해 호텔 픽업서비스를 제공하고 있으며, 넓은 전용 주차장도 있어 주차가 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>줄였다</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치 물회 무료 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치 물회 무료 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치 물회 무료 제공 곽종현 기자 승인 2019.07.28 09:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도는 우리나라 대표 여행지로 섬 전체가 볼거리로 가득하다. 서귀포시에 있는 황우지해안은 제주의 대표적인 관광명소 가운데 하나인 외돌개에서 도보로 5분 정도면 닿는 곳에 있다. 검은 현무암이 마치 요새처럼 둘러쳐진 황우지해안은 마음먹고 찾지 않는 이상 쉽게 눈에 띄지 않는다. 바닷가 절벽 아래 좁은 계단길을 내려가야 나타나는 곳이다. 서귀포시 외돌개 가는 길목에 자리한 황우지해안은 인터넷과 SNS 등을 타고 급속히 알려지기 시작하면서 인적 드물던 이곳에 사람들의 발길이 잦아지고 있다. 예전만큼 호젓한 시간을 누리기는 어렵지만, 투명하리만치 맑은 바닷속을 들여다보거나 찰랑대는 파도에 몸을 맡긴 채 바다 위를 유영하는 즐거움을 누릴 수 있다. 올레 7코스 시작점 표식 사이로 난 길을 따라 내려가면 황우지해안 전적비가 서 있는 바닷가 절벽에 닿는다. 황우지해안은 공식 해수욕장이 아니기 때문에 따로 안전요원이 배치되어 있지 않다. 그런 만큼 안전을 책임질 수 있는 범위 안에서 물놀이를 즐기는 것이 바람직하다. 제주도에는 다양한 먹거리가 있어 여행객을 즐겁게 한다. 요즘 제주도에서는 갈치조림이 핫한 메뉴로 각광을 받고 있다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 문어, 전복, 새우 등 다양한 해산물을 넣어 요리한 해물갈치조림이 주력 메뉴다. 이 요리는 해산물 특유의 비린 냄새를 잡고 고소한 맛을 높이기 위해 천연 약초를 숙성한 양념을 사용하고 있다. 천연 약초숙성 양념을 사용한 덕분에 맛이 좋으면서 건강에도 좋아 현대인의 입맛을 사로잡고 있어 현지인들도 즐겨 찾고 있다. 손님들을 위해 여름 서비스 제공 이벤트도 진행하고 있다. 제주도 중문 맛집 기원뚝배기는 해물갈치조림을 주문하는 손님에게 한치 물회와 옥돔구이, 성게국을 무료로 제공한다. 특히 한치 물회는 더운 여름에만 먹을 수 있는 계절 메뉴로 5가지 과일과 매실 효소를 숙성시킨 육수에 오이, 미나리, 파프리카 등 다양한 야채를 넣어 맛이 깔끔하면서 시원한 것이 특징이다. 한치는 회로도 주문할 수 있다. 그리고 통갈치조림정식 A세트 혹은 B세트에도 한치 물회가 서비스로 제공되며, 통갈치조림정식 A세트에는 옥돔구이와 성게국이 하나씩 더 추가 제공되고 있다. 신선한 재료를 사용하는 것은 요리에 있어 중요한 부분이다. 기원뚝배기는 식당 입구에 수족관을 두고 있으며, 손님으로부터 주문이 들어오면 수족관에 있는 싱싱한 해산물을 이용하여 바로 요리하기 때문에 신선하고 맛 좋은 요리를 즐길 수 있다. 메인 요리 뿐만 아니라 밑반찬도 손님들의 호평을 얻고 있다. 밑반찬을 만들기 위해서는 손이 많이 가지만 제주도 맛집 기원뚝배기는 국내산 재료를 구입하여 전라도 엄마의 손맛을 담아 직접 만들고 있다. 방문한 손님이 맛있게 식사하기를 바라는 마음을 담아 기원뚝배기 상호를 정했듯이 내 가족이 먹는다는 마음으로 식당을 운영하고 있기 때문에 한번 방문한 손님들은 맛과 친절한 서비스를 다시 경험하기 위해 재방문하는 경우가 많다. 한편 제주 맛집 기원뚝배기는 이른 아침인 오전 7시부터 문을 열기 때문에 제주도 중문 아침식사 맛집으로도 잘 알려져 있다. 연중 무휴로 오후 10시까지 문을 열고 있으며, 아침 메뉴 가운데 전복뚝배기는 10가지 재료를 넣고 끓여 국물이 시원하고 맛이 얼큰하여 전날 술자리를 가진 손님들의 해장 메뉴로 좋다. 무료 셔틀버스를 운영하고 있어 인근 호텔 픽업서비스를 제공하고 있고, 식당에는 넓은 주차장도 마련되어 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 가성비 자랑하는 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>효리의단골집‘이조은식당’ 갈치조림이 대표적인 제주도 중문 관광단지 맛집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, '증강현실' 스마트 교육관광 체험서비스 운영 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, '증강현실' 스마트 교육관광 체험서비스 운영 등록 2019.07.18 10:31:21 작게 크게 제주도청 전경.【제주=뉴시스】강정만 기자 = 제주특별자치도는 교육여행단이나 어린이를 둔 가족관광객을 대상으로 공영관광지에서 관광지 콘텐츠를 기반으로 한 증강현실(AR) 스마트 교육관광 체험서비스를 운영한다고 18일 밝혔다. 증강현실(Augmented Reality, AR)은 현실의 이미지나 배경에 3차원 가상 이미지를 겹쳐서 하나의 영상으로 보여주는 기술이다. 도는 이를 위해 돌문화공원과 해녀박물관을 우선 사업대상으로 선정하고, 관광지내 10∼20여개 지점을 정해 스마트폰을 이용한 퀴즈형 게임, AR 등의 미션을 제공해 관광지를 관람하면서 스마트 교육관광을 체험할 수 있도록 할 계획이다. 또 하드웨어는 이미 개발된 이미 개발된 교육관광 플랫폼 라이선스를 임대하고, 소프트웨어는 전문 학예사와의 협업을 통해 관광지 특색을 담은 콘텐츠를 활용한다. 캐릭터, 애니메이션 등 스토리텔링으로 체험서비스 프로그램을 개발해 관광객들에게 무료로 제공한다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 '2019 지역관광 국제포럼 개최' 최종편집 2022년 10월 11일 11시 50분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도 '2019 지역관광 국제포럼 개최' 정기후원 제주도 '2019 지역관광 국제포럼 개최' 세계관광기구(UNWTO)벨기에 등 도내·외 전문가 참여 현창민 기자(=제주) | 기사입력 2019.07.18. 14:12:51 최종수정 2019.07.18. 14:29:06 페이스북 트위터 카카오스토리 밴드 URL복사 제주도와 제주관광공사는 9월 20일~21일 (2일간)지역주민이 관광을 주도하고 관광소득이 지역사회 발전과 경제 활성화에 기여하는 선순환 구조 구축과 지속가능한 지역관광 활성화 방안을 모색하기 위해 '2019년 지역관광국제포럼'을 개최한다고 밝혔다. '2019년 지역관광 국제포럼'은 ‘모두가 접근 가능한 지역관광’ 주제로 세계관광기구(UNWTO)벨기에 등 도내·외 전문가들이 참여한 가운데 최근 관광지와 비관광지의 구분이 사라지고 지역 곳곳이 관광지화 되고 있는 세계적인 추세에 따라 최신 관광 트렌드발표와 지역관광 활성화사업 성공사례 등을 공유하게 된다. 제주특별자치도. ⓒ프레시안(현창민) 주요행사 일정으로는 20일에는 개회식을 시작으로 2개의 전문세션이 운영된다.제1세션은 세계적인 지역관광 정책트렌드를 공유하고 선도하기 위하여 지역주민과 관광객의 입장에서 신체적 장애와 나이에 상관없이 모두가 접근 가능한 지역관광 실현을 위한 정책이 논의된다.제2세션은 지역관광 현장정보와 각국의 지역관광 활성화 관련 성공 사례를 공유하기 위해 토크쇼 형태로 자유로운 발언과 토론이 진행될 예정이다.21일에는 포럼 참가자들을 대상으로 제주 지역관광의 참모습을 보여주기 위한 테크니컬 투어를 통해 제주의 지역관광 우수사례 지역과 지역상권 주요관광지 투어가 실시된다.제주도 문경복 관광정책과장은 “요즘 지역관광 활성화가 주요 이슈가 되고 있음에 따라 국제포럼이 성공적으로 개최되어 지속가능한 지역관광 활성화 방안이 강구될 수 있도록 구체적인 실행계획을 세워 준비에 최선을 다해 나가겠다고” 밝혔다.한편 제주도는 앞으로도 국내·외 전문가등과의 협력을 강화하여 제주를 전 세계에 홍보해 나가고 '2019 지역관광 국제포럼'을 통하여 제주의 관광산업을 국제적인 흐름에 맞는 지역관광지로의 전환 계기로 삼아 선도적 역할을 수행함으로써 세계적인 관광도시 제주의 브랜드가치를 더욱 강화해 나갈 계획이다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도 '2019 지역관광 국제포럼 개최' 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자(=제주) 최근글보기 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 “관광지 추락사고 예방…해안가 시설 전수 조사” :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 “관광지 추락사고 예방…해안가 시설 전수 조사” 등록 2019.07.15 10:18:32 작게 크게 【제주=뉴시스】(사진=뉴시스DB) 【제주=뉴시스】배상철 기자 = 제주도는 도민과 관광객이 관광지에서 추락하는 사고를 예방하기 위해 안전관리가 소홀한 해안가 소규모관광지를 전수 조사한다고 15일 밝혔다. 이번 조사는 오는 16일부터 31일까지 진행하며 소규모관광지 기초안전시설 설치여부를 비롯해 추락위험을 알리는 경고·안내판 설치여부, 관광지별 안전시설 추가 및 보강 필요여부 등을 살펴볼 예정이다. 조사 결과를 토대로 ‘관광객 안전사고 방지를 위한 테스크포스(TF)’팀에서 논의하며 이후 관리 부서를 지정해 안전관리를 강화한다는 구상이다. 아울러 안전시설 설치가 필요한 부분에 대한 조치를 마련해 추락 사고를 예방한다는 계획이다. 정영철 도 안전감찰팀장은 “이번 소규모관광지 추락위험성 전수조사를 통해 보다 안전한 관광지가 될 수 있도록 세심한 노력을 기울여 나가겠다”고 말했다. bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 먹으면 서비스로 한치 물회, 옥돔구이도 함께 나와 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 먹으면 서비스로 한치 물회, 옥돔구이도 함께 나와 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 먹으면 서비스로 한치 물회, 옥돔구이도 함께 나와 곽종현 기자 승인 2019.07.26 14:00 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도에는 숨은 명소들이 많이 있다. 이 가운데 새연교는 서귀포 관광 미항의 랜드 마크로 대한민국 최남단에 위치한 최장 보도교이다. 새연교는 제주 국제 자유 도시 개발 센터가 서귀포항을 세계적 수준의 관광 미항으로 개발하는 국제 자유도시 핵심 프로젝트 사업의 하나로 건설한 새섬 연결 보도교이다. 새연교란 '새로운 인연을 만들어 가는 다리'라는 의미에서 유래됐으며, 국내에서는 최초로 외줄 케이블 형식을 도입한 사장교로 서귀포시의 전통적인 고깃배인 '테우'를 형상화하여 설계한 것이 특징이다. 규모는 폭 4~7m, 높이 45m, 길이 169m이다.새연교 주변에 보행 산책로, 새섬 산책로, 다기능 데크, 뮤직 벤치가 설치되어 있다. 새연교는 보도교이기 때문에 차량은 출입할 수 없다. 서귀포항 앞에 위치한 새섬을 찾는 관광객들과 서귀포가 아름다운 인연을 맺어 보자는 취지가 담겨 있다. 새연교는 개통 이래 제주 올레길 6코스에 포함되면서 방문객들이 증가하고 있다. 교량 가설로 쉽게 드나들 수 있는 새섬에는 1.2km의 산책로와 광장, 목재 데크, 자갈길 산책로, 숲속 산책로, 테마 포토존 등의 편의 시설이 설치되었다. 그리고 섬 출입을 통제할 수 있도록 개폐식 문을 설치하고, 섬 곳곳에 야간 조명과 테마 LED 조명등을 설치하였다.여행에서 먹는 즐거움을 빼 놓을 수 없다. 해산물 요리가 발달한 제주도에서 요즘 갈치조림이 인기다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'에는 다양한 해산물을 넣어 요리한 해물갈치조림을 먹기 위해 현지인들도 많이 찾고 있다. 이 업소는 해산물 특유의 비린 냄새를 잡기 위해 약초를 숙성한 천연 양념을 사용하는 것이 특징이다. 천연 양념을 사용하기 때문에 건강에도 좋으며, 양념은 맛이 좋아 밥에 양념을 비벼 먹으면 다른 반찬이 없어도 밥 한 그릇을 금새 비우게 된다. 그런데 해물갈치조림에는 문어, 전복, 새우 등 다양한 해산물이 들어가기 때문에 아주 푸짐하다. 특히 요리에 사용되는 해산물은 식당 앞에 비치된 수족관에 있는 것을 사용하기 때문에 더욱 신선한 요리를 맛볼 수 있다.여름 휴가철을 맞아 다양한 서비스 이벤트도 실시하고 있다. 제주도 중문 맛집 기원뚝배기는 해물갈치조림을 먹는 손님들에게 한치 물회를 무료로 제공하고 있으며, 통갈치조림정식 A세트 혹은 B세트를 주문하는 손님들에게도 한치 물회를 서비스로 제공하고 있다. 한치 물회는 여름철 별미로 5가지 과일과 매실 효소를 숙성시킨 육수에 오이, 미나리, 파프리카 등 다양한 야채가 들어가기 때문에 더운 날씨에 먹기에 아주 좋다. 손님이 원할 경우 한치를 회로도 제공하고 있다. 그리고 해물갈치조림에는 옥돔구이와 성게국을 무료로 제공하고 있으며, 통갈치조림정식 A세트 주문 고객에게는 옥돔구이와 성게국을 추가로 하나씩 더 제공하고 있다.요리에서 밑반찬이 차지하는 비중이 상당히 높다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 직접 구입하여 전라도 엄마의 손맛을 담은 밑반찬을 만들고 있다. 내 가족이 먹는다는 마음으로 요리는 물론 밑반찬을 만들고 있으며, 손님들이 맛있게 식사하고 돌아갈 수 있기를 기원하는 마음으로 항상 친절한 서비스를 제공하고 있다. 그래서 한번 방문한 손님은 여행을 마치기 전에 한번 더 방문하는 경우가 많다.한편 제주 맛집 기원뚝배기는 이른 아침에 여행을 떠나는 손님들을 위해 오전 7시부터 문을 열고 있다. 아침 식사 손님들은 전복뚝배기를 많이 찾는데 이 메뉴는 10가지 재료를 넣고 끓여 국물이 시원하고 맛이 얼큰한 것이 특징이다. 영업은 연중무휴이며 오후 10시까지 문을 열고 있다. 무료 셔틀버스를 운영하고 있어 호텔 픽업서비스도 제공하고 있다. 넓은 전용 주차장은 식당 바로 옆에 마련되어 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도 함덕 해수욕장 ‘상어 주의보’…관광객 100명 대피 | 채널A 뉴스 대 메뉴로 바로가기 콘텐츠로 바로가기 푸터로 바로가기 뉴스 TV 열린A 온에어 편성표 이벤트 쇼핑몰 로그인| 회원가입| 고객센터 검색어를 입력하세요 최근 검색어 먹거리X파일 이만갑 채널A 편성표 김진 최근 검색어 삭제 뉴스 홈 뉴스A 코너 뉴스 다시보기 +분야별 보기 뉴스제보 최신뉴스 정치 경제 국제 사회 문화 스포츠 연예 날씨 스포츠 플러스 홈 &gt; 사회 제주도 함덕 해수욕장 ‘상어 주의보’…관광객 100명 대피 [채널A] 2019-07-08 19:59 뉴스A 영화 조스의 한 장면이 아닙니다. 오늘 제주의 해수욕장에 나타난 상어입니다. 다행히 사고는 없었지만 놀란 피서객들이 물 밖으로 피해야 했습니다. 배영진 기자입니다.[리포트]수면 위로 커다란 지느러미가 보입니다. 가까이 가보니 물 아래 커다란 검은 물체가 있습니다. [현장음] "상어가 살아있는 거 맞죠? 오 상어 맞다." 제주 함덕 해수욕장 앞바다에 상어 한 마리가 나타난 건 오후 12시10분. [상어 발견자] "놀라서 상어인지 돌고래인지 확인해야 할 거 같아서 확실히 보러 간 거고. 상어라는 게 확인되니까 나와서 신고했어요." 해경은 피서객들을 대피시키고 해수욕장 입수를 전면 통제했습니다. 상어는 10분 동안 주변을 헤엄치다 사라졌습니다 수색작업을 벌이던 해경은 상어가 먼 바다로 나갔다고 보고 1시간 뒤 통제를 해제했습니다. 당시 해수욕장엔 물놀이와 서핑을 즐기던 피서객들이 있었는데 다행히 사고로 이어지진 않았습니다. 최근 바다 수온이 오르면서 상어가 우리 해역에 출몰하는 사례가 늘고 있습니다. 경남 거제 앞바다에서 몸길이 4미터의 백상아리가 잡히는가 하면, 강원도 삼척 앞바다에서도 죽은 백상아리 한 마리가 그물에 걸려 발견되기도 했습니다. 전문가들은 상어를 발견하면 거리를 두고 신속히 대피하라고 조언합니다. [박지용 / 국립해양박물관 팀장] 팔을 휘젓거나 다리를 젓는 행동을 크게 하면 상어가 온순해 있다가도 공격적으로 변할 수 있습니다. 채널A뉴스 배영진입니다. 영상취재 : 김한익 영상편집 : 장세례 ▶Daum에서 [채널A 뉴스] 구독하기 (모바일) ▶Naver에서 [채널A 뉴스] 구독하기 오늘의 뉴스 ‘지하철 몰카’ 김성준, SBS 사직…불법 촬영 목격 시민에 덜미 ‘정글의 법칙’ 논란…SBS “대왕조개 사태, 출연자 피해없게 할 것” ‘사냥 촬영 안 한다’ 공문 공개…‘정글의 법칙’ 드러난 거짓 해명 횟집서 22만 원 ‘먹튀족’…“얼굴 공개하겠다” 경고하자 北, 남한 비행장 찍어가며 핵무력 과시…김정은 참관 이재명, 한미일 연합훈련 재차 비판…거세진 친일 공세 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 재생목록 18/31 연속재생 7월 8일 오늘의 주요뉴스 문 대통령의 경고…“피해 발생시 대응하지 않을 수 없다.... “日, 100개 추가 보복 준비”…‘한국 때리기’ 각 .... ‘우회로’ 찾는 이재용 부회장…日 재계 인맥 총동원 에칭가스가 北으로?…물증 안 내놓으면서 북한 연관성 흘.... “에칭가스, 화학무기 전용 가능성 낮아”…생떼 쓰는 일.... “언어 달라 감정 쌓였다” 끝까지 아내 탓…아들도 폭행 2살 아들 위해 경찰 신고 거절…맞으면서도 신고 못한 .... “박항서 나라에서 어떻게”…베트남 ‘반한’ 감정 고조 “갈 곳이 없어서 신고 못 해요”…‘노심초사’ 이주여성.... ‘지하철 몰카’ 김성준, SBS 사직…불법 촬영 목격 .... ‘정글의 법칙’ 논란…SBS “대왕조개 사태, 출연자 .... ‘사냥 촬영 안 한다’ 공문 공개…‘정글의 법칙’ 드러.... ‘대림동 여경’ 112만 원 소송…“경찰관 어려움 알릴.... 윤석열 “2월에 양정철 2번 만나…2015년 출마 권유.... 윤석열 “윤우진과 골프 몇 번 쳤지만…변호사 소개 안 .... 윤석열 후보자 자료 제출 두고…말공방만 주고 받은 여야 제주도 함덕 해수욕장 ‘상어 주의보’…관광객 100명 .... 문 닫은 공장마다 ‘쓰레기장’…불법적재 후 잠적한 일당.... 잠원동 사고 하루 전 “건물 흔들렸다”…알고도 신고 안.... 남극 장보고과학기지 부근에 펭귄마을 생긴다 주미 英 대사 “무능한 트럼프 정부” 문서 유출 파문.... “야권 5명에 모두 밀려”…트럼프 재선 ‘먹구름’ 군부 인사 뒤로 뺀 김정은…北 내부 결집 주력 조국, 일주일째 ‘침묵’…청와대도 ‘무대응’ 기조 [단독]김태우, 공익제보센터로 맞불…조국 겨냥 ‘제보 .... 경남 거제서 40대 남성 흉기 난동…1명 살해·경찰 대.... 체면이냐 실용이냐…‘공무원 반바지 문화’ 출근 확산 실책의 달인 롯데, 올스타 참패…악몽의 시간 [날씨]중부지방 폭염 특보 발효…수요일 반가운 장맛비 [7월 8일 클로징멘트]4800억 원 vs 360억 원.... 1번째 비주얼 2번째 비주얼 3번째 비주얼 채널A 디지털 온리 [화나요 뉴스]“칭찬도 병인양하여”…‘청해부대·임대차 3법 논란’ [경제 톡톡톡]“유통기한 지나도 먹자”…소비기한 도입 추진 [씬의 한수]복제인간의 감성 드라마 ‘서복’ 오늘의 날씨 10월에 ‘초겨울’ 날씨…오늘 아침, 올가을 가장 추워 뉴스A 뉴스A LIVE 뉴스TOP10 채널A 뉴스특보 뉴스제보 종영프로그램 금쪽같은 내새끼 나는 몸신이다 도시어부3 슈퍼 DNA 피는 못 속여 신랑수업 애로부부 오은영의 금쪽 상담소 이제 만나러 갑니다 천하제일장사 펜트하우스 2021 CJ대한통운 슈퍼레이스 도시어부4 배우는 캠핑짱 종영프로그램 고두심이 좋아서 지구인 더 하우스 김진의 돌직구쇼 닥터 지.바.고 산전수전 여고동창생 서민갑부 채널A 시청자마당 토요 랭킹쇼 행복한 아침 황금나침반 100세 프로젝트 성공열전K 채널A 건강 스페셜 헬스데이터 A+ 종영프로그램 쇼윈도: 여왕의 집 거짓말의 거짓말 유별나! 문셰프 터치 평일 오후 세시의 연인 열두밤 가시리잇고 마천대루 시청자 위원회 이벤트 광고제휴판매 홍보센터 고충처리인 정정보도신청 개인소장DVD 판매 협찬고지 지역별 채널번호 경기 구리/하남/여주 Ch. 17 02)2020-3100 공지사항 + 채널A 소개(KOR | ENG) 채널A홍보 광고 및 제휴 영상자료판매 큐톤안내 이용약관 개인정보취급방침 법적고지 고객센터 기획안 공모 (주)채널에이 대표이사: 김재호 주소: 서울특별시 종로구 청계천로 1 (03187) 대표전화: (02)2020-3114 시청자상담실: (02)2020-3100 사업자등록번호: 101-86-62787 부가통신사업신고: 022357호 통신판매업신고: 제2012-서울종로-0195호 Copyright (c) Since 2015, CHANNEL A All rights reserved. 채널A 관련사이트 채널A 관련사이트 동아미디어그룹 동아닷컴 스포츠동아 동아사이언스 동아비지니스리뷰 채널A 미디어텍 채널A 플러스 이동 관계사 관계사 동아일보 동아닷컴 동아프린테크 동아사이언스 동아PDS 디유넷 스포츠동아 동아E&amp;D 동아이지에듀 이동 법적고지 채널A에서 제공하는 콘텐츠에 대하여 채널A의 각종 서비스를 사용하여 인터넷에 올려진 정보를 얻고자 하실 때에는 다음과 같은 점에 유의하시기 바랍니다. 채널A가 제공하는 모든 제반 서비스를 이용하여 연결(링크)된 사이트에 수록되어 있는 정보 중에는 회원의 개인적인 판단에 따라 불쾌감 또는 피해를 주는 내용이 있을 수도 있습니다. 채널A의 각 사이트 및 동호회 서비스 등에서 채널A 사이트 외부로의 링크 결과 열람하시는 사이트에서 현행 국내법상 불법이거나, 사회의 일반통념, 질서 및 미풍양속 등에 어긋나는 내용을 사전에 차단 하는 것과 관련하여 채널A는 어떠한 책임도 지지 않습니다. 채널A는 네트워크에 링크된 모든 사이트에 수록된 자료의 정확성이나 상표법, 저작권법 등의 관계 법령의 준수 여부에 대하여 어떤 책임도 부인합니다. 회원님들께서는 채널A와 네트워크로 연결되어 있는 웹사이트 또는 제3자에 의하여 채널A네트워크 상에서 작동되거나 제공되는 모든 정보, 상품들은 채널A의 통제 권한 밖에서 제작, 게시 및 작동되었음을 유념하시기 바랍니다. 회원들이 복제 인용 등의 방법으로 채널A 사이트 안에 다른 사이트의 콘텐츠를 제공하였을 경우, 콘텐츠의 내용은 제3자에 의하여 개발되었고 회원에 의해 게시되었므로 채널A의 책임 여부와는 무관함을 명심하시기 바랍니다. 물론 채널A가 스스로 제공하는 콘텐츠에 관하여는 위에 열거된 법령과 혹시 누락된 법령일지라도 관련 법령을 준수하기 위하여 최선을 다하고 있습니다. 채널A의 서비스에 관하여 일반적 혹은 관계 법령의 준수에 관한 조언을 하고자 하실 때에는 언제나 홈페이지에 게시된 담당자에게 연락주시기 바랍니다. 채널A는 여러분의 의견을 적극 수용하도록 최선을 다하겠습니다. %@include&gt; 플로팅플레이어</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 무료로 한치 물회, 옥돔구이 제공 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 무료로 한치 물회, 옥돔구이 제공 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 무료로 한치 물회, 옥돔구이 제공 곽종현 기자 승인 2019.07.22 09:20 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도 서귀포시 해안에는 남원 큰엉해안이 있다. 남원 큰엉해안은 신영 제주 영화박물관 뒤쪽 해안가에 위치하고 있으며, 화산 활동의 결과 흘러내려 퇴적된 현무암질 용암층이 해식 작용을 받아 형성된 해식애에 해당된다. 올레길 5코스에 포함되면서 제주를 찾은 여행객들이 많이 찾는 관광지에 해당된다.남원 큰엉은 화산 활동의 결과 형성된 해식애다. 높이 30m, 길이 200m의 기암절벽이며 두 개의 해식동이 있다. 현무암질 용암층이 시루떡처럼 퇴적되어 있어 수차례에 걸친 용암 퇴적이 이루어진 것으로 보인다. ‘엉’이란 ‘바닷가나 절벽 등에 뚫린 바위 그늘이나 굴’을 의미하는 제주어로, ‘엉덕’이란 말의 줄임말이다. ‘큰 엉’은 바위로 이루어진 규모가 큰 절벽을 의미한다. 남원 큰엉해안은 서귀포에서 동쪽으로 12번 제주 해안 국도를 타고 가다가 신영 제주 영화 박물관을 지나기 전에 있다. 큰엉 해안을 따라 2km의 산책길·전망대·간이 휴게실·기초 체력 단련 시설 등이 구비되어 있으며, 올레길 5코스에 포함되어 탐방객들이 늘고 있다.금강산도 식후경. 더운 여름에는 제대로 된 보양식으로 몸의 원기를 북돋게 해야 한다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 다양한 해산물을 넣은 보양식 해물갈치조림을 선보이고 있다. 이 요리에는 제주 통갈치와 함께 문어, 전복, 새우 등 몸에 좋은 여러 해산물이 들어간다. 특히 해산물 특유의 비린 냄새를 잡기 위해 약초를 숙성한 양념을 사용하고 있어 맛은 물론 건강에도 좋아 양념과 밥을 비벼 먹는 손님들이 많고, 현지인들도 즐겨 찾고 있다.푸짐한 식사에 더해 서비스로 나오는 메뉴도 많다. 제주도 중문 맛집 기원뚝배기는 더운 여름에 손님들이 시원하게 식사할 수 있도록 해물갈치조림을 주문한 고객에게 한치 물회를 무료로 제공하고 있다. 또한 해물갈치조림에는 옥돔구이와 성게국도 서비스로 제공된다. 한치 물회는 통갈치조림정식 A세트 혹은 B세트를 주문해도 무료로 먹을 수 있고, 통갈치조림정식 A세트 손님에게는 옥돔구이와 성게국을 추가로 하나씩 더 제공하고 있다.한치 물회는 더운 여름에만 맛볼 수 있는 계절 별미에 해당된다. 5가지 과일과 매실 효소를 숙성시킨 육수 속에 오이, 미나리, 파프리카 등 다양한 야채를 넣어 맛이 시원하기 때문에 무더운 여름에 먹기 좋은 메뉴다. 한치는 회로도 주문할 수 있다.식당 앞에 비치한 수족관도 장점이다. 기원뚝배기는 식당 앞에 마련된 수족관을 두어 문어, 전복 등 다양한 해산물을 준비하고 있다. 손님들이 요리를 주문하면 수족관에 있는 싱싱한 해산물을 이용하여 바로 요리하기 때문에 더욱 맛있는 요리를 맛볼 수 있다.밑반찬 하나에도 정성을 쏟고 있다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 내 가족이 먹는다는 마음으로 전라도 엄마의 손맛을 담아 밑반찬을 만들고 있다. 기원뚝배기 상호에는 손님들이 맛있게 식사하기를 기원한다는 뜻이 담겨 있으며, 항상 친절한 서비스를 제공하여 손님들이 편안하게 식사할 수 있도록 배려하고 있다.제주 맛집 기원뚝배기는 이른 아침부터 영업하고 있어 제주도 중문 아침식사 맛집으로도 잘 알려져 있다. 영업시간은 오전 7시부터 오후 10시까지 연중 무휴이며, 아침 식사 메뉴 가운데 전복뚝배기는 얼큰하고 시원한 맛으로 인해 해장이 필요한 손님들이 많이 찾고 있다. 전복뚝배기는 10가지 재료를 넣고 끓인다. 한편 셔틀버스를 운영하고 있어 무료로 호텔 픽업서비스를 제공하고 있으며, 넓은 주차장도 마련되어 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도 찾는 일본인 관광객 증가 추세 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 11:57 (화) 이전 다음 제주도 찾는 일본인 관광객 증가 추세 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 관광 제주도 찾는 일본인 관광객 증가 추세 이감사 기자 승인 2019.07.14 11:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 올해 5번째 일본발(마츠야마) 전세기 취항···13일 177명 제주 입도 올해 5월까지 제주를 찾은 일본인 3만1892명, 전년동기 26.8% 증가 도관광공사, "일본인 유치 계속 노력할 것" ▲ 한복을 입은 채 제주를 찾는 관광객들을 맞이하고 있다. 사진제공 - 제주도관광공사 ©Newsjeju 제주도가 일본인 관광객 유치 확대를 위해 심혈을 기울이고 있는 가운데 올해 5번째 일본발 전세기가 취항했다. 제주관광공사는 어제 일본 마츠야마를 출발한 전세기로 177명의 일본인 관광객이 제주를 찾았다고 밝혔다. 14일 도관광공사에 따르면 마츠야마발 전세기는 13일 낮 12시10분 제주항공(7C1781)편으로 제주에 입도했다. 이번 마츠야마발 전세기는 오키나와(3월29일), 히로시마(4월27일), 토야마(5월24일), 타카마츠(6월14일)에 이은 올해 5번째 일본발 취항이다. 마츠야마발 전세기는 2016년~2018년까지 해마다 1회씩 운항되다가 지난해 예약 대기가 늘어 올해 2회(7월, 11월) 운항된다. 마츠야마발 전세기를 기획한 日여행사 후지트래블서비스 측은 "이용자 대부분은 제주를 처음 방문하는 사람들로 40~50대 중장년층이 주요 고객"이라며 "20~30대 젊은층 예약도 늘고 있다"고 말했다. 제주도정과 도관광공사는 일본인 관광객 유치 확대를 위해 지방도시 공략 마케팅을 펼치고 있다. 올해 5월까지 제주를 찾은 일본인 관광객은 3만1892명으로 전년 동기 2만5145명 대비 26.8% 증가세를 보이고 있다. 현재 제주와 일본을 잇는 직항노선은 ▲티웨이항공 제주-도쿄(주5회), 제주-오사카(주7회), 제주-나고야(주4회/운휴기간: 7월27일~9월1일) ▲대한항공 제주-도쿄(주3회), 제주-오사카(주4회), ▲제주항공 제주-후쿠오카(주3회/7.2 취항)가 있다. 제주관광공사 관계자는 "최근 한국과 일본 간 정치외교 갈등이 불거지고 있으나 예약 취소건 없이 안정적으로 전세기가 운항됐다"며 "향후 사태 장기화로 인해 일본 관광시장이 위축되지 않도록 일본인 관광객 유치 마케팅을 지속할 것"이라고 말했다. Tag #제주도관광공사 #제주관광공사 #일본인관광객 #제주도 #증가세 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[김광수 교육감 축사] 뉴스제주 창간 16주년 2[강병삼 시장 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 제주소방 상황실, 빈틈 없는 신고 접수 제주소방 상황실, 빈틈 없는 신고 접수 제주 지구시민 해양정화 페스티벌 성황리 개최 제주 지구시민 해양정화 페스티벌 성황리 개최 서귀포시, 자립준비청년 지원 방안 마련 민·관 공유회의 개최 신용보증지원, 수도권에 지나치게 편중... 제주 소외 신용보증지원, 수도권에 지나치게 편중... 제주 소외 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 사무관 승진의결자 8명 승진임용 서귀포시, 사무관 승진의결자 8명 승진임용 친절은 누구나 춤추게 한다. 친절은 누구나 춤추게 한다. 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 카지노산업 영향평가 용역 완료…롯데관광개발 ‘촉각’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 카지노산업 영향평가 용역 완료…롯데관광개발 ‘촉각’ 파이낸셜뉴스입력 2019.07.05 11:35수정 2019.07.05 14:07 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 관련종목▶롯데관광개발(032350) 카지노 신설‧확장 기준 마련…오는 9월 도의회에 조례 제출LT카지노, 내년 3월 제주드림타워 내에 4배 확장 이전 추진 롯데관광개발은 내년 3월 개장하는 제주드림타워 복합리조트단지 내에 외국인 전용 카지노 이전 확장을 추진하고 있다. /사진=fnDB [제주=좌승훈 기자] 제주도내 카지노의 신설과 확장·이전을 체계적으로 관리하기 위한 제도적 장치가 마련된다. 제주특별자치도는 도내 카지노의 신설·확장·이전에 대한 명확한 기준을 마련하기 위한 '제주 카지노산업 영향평가 제도 마련을 위한 연구용역'을 완료했다고 5일 밝혔다. 용역 결과는 당장 내년 3월 개장하는 제주드림타워 복합리조트단지 내 롯데관광개발의 LT카지노 이장 확장사업과 맞물려 있다. 롯데관광개발은 기존 '파라다이스 제주롯데 카지노'를 인수한 데 이어, 기존 영업장을 제주드림타워로 4배 확장 이전하는 방안을 추진하고 있다. 앞서 제주도의회 문화관광체육위원회(위원장 이경용)은 지난달 13일 제373회 정례회에서 기존 카지노를 인수해 영업장을 이전하는 방법으로 대형화하는 것을 엄격하게 제한하는 내용의 ‘카지노업 관리 및 감독에 관한 조례’ 일부 개정 조례안을 심사 보류한 바 있다. 그동안은 카지노의 신설·확장·이전 등 관련 정책 입안 단계에서의 기준이 명확치 않아 제주의 특수성을 고려한 영향평가 지표 개발과 법적 제도 마련의 필요성이 제기돼 왔다. 한양대학교 산학협력단이 지난해 10월부터 지난 5월까지 수행한 이번 연구용역은 도내 카지노의 신설·확장·이전 등에 대한 허가·승인 또는 정책 결정이 지역사회에 미칠 영향 등을 사전에 조사·예측·평가하기 위한 기준을 마련해 긍정적 영향을 극대화하고 부정적 영향은 최소화할 수 있는 방안을 강구하기 위해 실시됐다. 연구용역에서는 카지노 사업장 신설뿐만 아니라, 확장·이전의 경우에도 영향평가를 실시할 것을 제안했다. 영향평가를 실시할 때에는 단일 관점이 아닌 경제적·사회적·환경적 영향과 지역사회 기여와 도민의견까지 반영해 종합적으로 평가하도록 했다. 아울러 카지노가 소재한 행정구역뿐만 아니라 재주도 전역에 미치는 영향까지 포함돼 있다. 영향평가는 총 배점 1000점을 기준으로 ▷지역사회 영향(500점) ▷지역기여(200점) ▷도민의견 수렴(300점) 등 3개 분야로 나눠 실시하되, 분야별로는 ▷정량지표 2개(250점) ▷복합지표 3개(200점) ▷정성지표 4개(600점) 등 9개 지표로 세분화해 평가하도록 했다. 측정항목은 ▷정량항목 7개(340점) ▷정성항목 11개(660점) 등 18개 항목으로 구성했다. 영향평가 결과, 전체 총점의 80% 이상 또는 각 부문(3개 부문)의 총점 대비 60% 이상인 경우는 '적합 판정', 전체 총점의 60% 이상 80% 미만이거나 각 부문(3개 부문)의 총점 대비 60% 이상은 '보완 및 재심의‘ 또는 ’조건부 적격 판정', 전체 총점의 60% 이하인 경우는 '부적격 판정'하도록 했다. 제주도는 연구용역 결과를 토대로 카지노영향평가 제도 도입에 따른 실행계획 수립, 조례과 시행규칙 등 개정 입법 계획을 수립해 제도 도입을 추진할 계획이다. 또 카지노산업의 부정적 영향 최소화와 함께 갈등 해결을 위한 객관적 기준을 마련하고, 카지노산업 정책 입안 시 표준화된 가이드라인을 제시할 예정이다. 고동완 제주도 카지노감독과장은 "영향평가를 통해 제주도는 카지노업의 투명성과 건전성을 제고하고, 국제수준의 법령 정비로 카지노산업의 경쟁력을 키워나가겠다"고 말했다. ■ 인천 영종도 2곳 15년 만에 신규 허가 전망 한편 제주도와 제주도의회, 도내 카지노업계가 와국인 전용 카지노 이전 확장을 두고 논란을 벌이는 동안, 국내 다른 지역에는 2005년 그랜드코리아레저(GKL)가 서울 강남·강북, 부산에 세븐럭카지노를 연 이후 15년 만에 신규 허가가 나올 전망이다. 국내 카지노업계에선 현재 인천 영종도에 추진 중인 시저스코리아 리조트(2021년 개장 예정)와 인스파이어 리조트(2022년 개장 예정)에 대해 문재인 정부의 복합리조트 육성정책에 따라 큰 이변이 없는 한 카지노 허가권이 발급될 것으로 보고 있다. 앞서 시저스코리아 리조트는 지난 2014년 문화체육관광부로부터 카지노 시설이 포함된 복합리조트사업에 대한 사전 적합 통보를 받았으며, 인스파이어 리조트도 최소 오픈 전까지 카지노 허가권을 받아둔다는 방침이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>공예공방 방향제 ‘동심’ 제주도 관광기념품 공모전 ‘대상’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 공예공방 방향제 ‘동심’ 제주도 관광기념품 공모전 ‘대상’ 파이낸셜뉴스입력 2019.07.07 09:57수정 2019.07.07 10:03 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 부산 ‘영다포’ 출품, 이중섭 작가 ‘아이들시리즈’ 이미지화 디자인·실용성↑…동백꽃 제주·지꺼진 하르방 주병, ‘금상’ 제22회 제주특별자치도 관광기념품 공모전 대상 수상작 '동심' [제주=좌승훈 기자] 제주특별자치도와 제주도관광협회(회장 김영진)는 '제22회 제주특별자치도 관광기념품 공모전'에서 방향제 '동심'이 대상을 차지했다고 7일 밝혔다. 이번 공모전은 201개 작품이 접수된 가운데, 관광기념품개발육성위원회에서 상품성과 디자인, 창의·실용성을 종합적으로 평가해 선정됐다. 대상작은 부산 소재 공예공방 ‘영다포(대표 황재영)의 ‘동심’이 차지했다. 영다포는 전통문양과 전통기법으로 생활·패션 소품을 제작하고 있다. ‘동심’은 6.25 전쟁 중 서귀포시에서 피난생활을 했던 '천재 화가' 이중섭의 대표작인 ‘아이들 시리즈’를 이미지화 해 나무로 만든 방향제다. 디자인 뿐 만 아니라, 차량용 또는 미니스탠드에 고정해 실내용으로 사용할 수 있도록 만들어 실용성 측면에서도 높은 평가를 받았다. 금상은 '동백꽃 제주'와 '지꺼진 하르방 주병' 작품이 선정됐다. '동백꽃 제주'는 제주시 한경면 고산리 일대에서 제조되는 전통 붉은 누룩으로 만든 수제 전통주다. 제주의 맑은 물과 동백꽃이 어우러져 제주의 새로운 전통주의 모습을 제시했다. '지꺼진 하르방 주병'은 ‘하르방 코 만지기’ 문화를 모티브로 술병과 술잔 세트로 구성해 제주의 돌하르방의 모습과 이야기를 제품에 잘 접목했다. 은상은 한라봉 과육을 통째로 넣은 '한라봉양갱'(효은양갱, 최효은)과 해녀의 모습을 형상화한 '바당을 품은 해녀'(김민서), 제주 동백꽃과 야생화의 모습을 표현한 화병인 '동백꽃을 품은 제주'(소아도예, 손지아), 현무암 위에 캔들을 만들고 한라산 향을 첨가한 '제주 현무암 사계 캔들'(고냥돌, 권혜민)이 차지했다. 아울러 동상 4개 작품과 장려상 8개 작품도 선정됐다. 시상식은 오는 7월말 이뤄질 예정이며, 전시·홍보·상품개발자금 지원 등의 혜택이 주어진다. 특히 선정된 작품 중 일부는 제주 관광기념품을 대표해 '대한민국 관광기념품 공모전'에 출품할 계획이다. 한편 제주특별자치도는 지난 2005년부터 현재까지 관광기념품 공모전을 통해 총 473개의 작품을 발굴했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>여행객들이 직접 뽑은 제주도 중문 관광단지 맛집 효리의단골집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>“끌리면 타라” 제주도 관광객 ‘기사+차량’ 호출서비스 등장 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; “끌리면 타라” 제주도 관광객 ‘기사+차량’ 호출서비스 등장 파이낸셜뉴스입력 2019.07.14 02:57수정 2019.07.15 22:07 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 관련종목▶인터불스(158310) 스타모빌리티·인터불스 15일부터 본격 영업 나서 택시업계 “렌터카가 관광객 대상 택시 영업” 우려 15일부터 제주도내에도 ‘차량+기사호출서비스’가 첫 선을 뵌다. [제주=좌승훈 기자] 제주도내에도 차량 호출 서비스 ‘타다’와 유사한 모빌리티(이동수단) 서비스가 등장했다. ㈜스타모빌리티(대표이사 장호)는 15일부터 ‘차량+기사호출서비스’인 ‘끌리면 타라’를 본격 출시한다. 스타모빌리티는 제주도내 첫 공유경제 카셰어링 서비스 플랫폼인 ‘끌리면 타라’ 서비스를 위해 500대의 차량을 운영할 예정이다. 스타모빌리티는 이를 통해 제주지역의 교통난과 주차난, 렌터카 총량제로 인한 렌터카 차량 감소에 대해 관광객들의 불편함을 해결할 수 있을 것으로 기대하고 있다. ‘끌리면 타라’ 서비스는 제주도를 찾는 관광객만을 대상으로 서비스를 진행된다. 여객 자동차 운수사업법 취지인 ‘여객의 원활한 운송과 여객자동차운수사업의 종합적인 발달을 도모함으로써, 공공복리를 증진하는 목적’에 부합하기 위해 일상생활 중 이동을 목적으로 하는 제주도민은 서비스 대상에서 제외한다고 회사 측은 밝혔다. 여객자동차운수사업법 시행령 18조에 따르면, 승차정원 11인승 이상 15인승 이하 승합차를 임차하는 사람에게는 운전자 알선을 허용하고 있다. 택시업계에선 이를 두고 제주도민은 서비스 대상에서 제외된다고 하나, 사실상 렌터카업체가 관광객을 대상으로 택시영업을 할 수 있는 길이 열린 게 아니냐며 우려의 목소리를 내놓고 있다. 앞서 스타모빌리티는 코스닥 상장사인 인터불스(대표이사 박원석)와 지난 5월 렌터카와 공유경제 서비스 플랫폼 사업에 협력하는 내용의 양해각서(MOU)를 체결했다. 이번 플랫폼은 두 회사가 함께 진행하는 첫 번째 프로젝트다. 스타모빌리티는 렌터카 기업인 제주스타렌탈의 자회사다. 제주스타렌탈은 지난해 렌터카 사업을 통해 161억원의 매출을 기록했다. ‘끌리면 타라’ 해당 플랫폼은 기본 서비스 외에도 향후 글로벌·케어·랙 등 총 13개의 서비스를 연이어 출시할 예정이다. 핵심은 기존의 제주도 이동수단과는 다른 ‘프리미엄 이동 서비스’를 제공한다는 것이다. 스타모빌리티는 현재 ‘끌리면 타라’ 애플리케이션 다운로드 고객 전원에게 1만원 할인쿠폰을 증정하는 이벤트와 친구 추천을 통해 양쪽 모두에게 마일리지를 주는 추천인 이벤트 등의 프로모션을 진행하고 있다. 회사 측은 “지난 1일 앱 출시 3일 만에 최단기 급상승 1위 앱을 달성하며, 제주지역 이동수단에 대한 개선이 필요함을 소비자 반응을 통해 직접 확인하는 계기가 됐다”며 “7~8월 성수기 제주도 여행객이 250만명으로 예상되는데, 이 중 20%인 50만명이 분명 ‘타라’를 다운로드 해 이용하게 될 것"이라고 기대했다. jpen21@fnnews.com 좌승훈 기자 키워드#끌리면 타라 #공유경제 카셰어링 서비스 #스타모빌리티 #타다 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 무장애 관광인프라 구축 나선다 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 무장애 관광인프라 구축 나선다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 무장애 관광인프라 구축 나선다 기자명 김용현 기자 입력 2019.07.14 15:36 수정 2019.07.14 17:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원희룡 지사 올레8코스 치유의 숲 등 휠체어 애로사항 경험주요 관광시설에 이동약자 위한 편의시설 대폭 확충 지시제주도는 장애인과 비장애인이 손쉽게 제주관광할 수 있도록 관광기반시설 확충에 나선다.원희룡 제주도지사는 12일 제주올레 8코스와 서귀포 치유의 숲을 잇따라 방문해, 장애인·노인·임산부·영유아 동반 관광객 등 관광약자들이 느끼는 애로사항을 휠체어를 타며 직접 경험했다.이날 관광약자 관광지 현장점검에는 송창헌 관광약자접근성안내센터 사무국장, 관광약자 여행 서비스 제공업체(사회적 기업) 대표 등이 함께 참여했다.송창헌 사무국장은 원 지사에게 "올레 6코스와 8코스 등 휠체어를 이용할 수 있는 올레코스가 늘어나고 있지만, 휠체어를 대여해주는 관광지가 아직은 적다"고 편의시설 확충을 건의했다.이에 대해 원희룡 지사는 "현재 제주 주요 관광지에는 휠체어 대여사업이 진행중"이라며 "다른 관광지로도 점차적으로 이 사업을 확대해 나가겠다"고 강조했다. 이날 원 지사는 서귀포 치유의 숲을 방문해 '스스로 해결단' 무장애여행 분야 지역주민들과 유니버설 디자인이 적용된 노고록 숲길을 함께 이동하면서 현장 토크를 진행했다.한편 도는 관광약자가 이용하기 편한 관광환경을 조성하기 위해 △장애인 화장실 확충 △경사로 개선 등 시설개선 및 장비지원(휠체어, 유모차 등) △전세버스 및 렌터카 업체에 리프트차량 구입비 90% 지원 △관광약자 접근성 안내센터 운영 등을 추진하고 있다. 김용현 기자 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 "오라관광단지, 자본검증 납득할 자료 있어야" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도 "오라관광단지, 자본검증 납득할 자료 있어야" 사업비 예치 기한 지나…道,11일까지 대안 제시 요구 (제주=뉴스1) 고동명 기자					| 2019-07-03 16:17 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주오라관광단지 조감도. 2016.06.27/뉴스1 © News1 5조원이라는 제주 역사상 최대 자본이 투자될 예정인 제주오라관광단지 개발사업이 좌초될 가능성이 높아졌다.양기철 제주도 관광국장은 3일 오후 제375회 제주도의회 임시회 추가경정예산 심사에서 "오라관광단지 사업자인 JCC㈜가 (자본검증과 관련)납득할만한 자료를 제출하지 않는다면 종합적으로 검토의견에 부정적인 부분이 반영되지 않겠느냐"고 말했다.양 국장은 "사업자쪽에선 충분한 자료를 제출했다고 하지만 구체적인 내용을 보면 JCC의 모기업인 중국 화융그룹의 신용등급 평가 자료는 있지만 SPC(특수목적법인) 형태로 설립된 JCC 신용평가 자료가 아니라고 판단했다"고 설명했다.앞서 자본검증위원회는 지난해말 JCC가 제출한 자료를 1년여에 걸쳐 검증한 결과 사업자의 구체적이고 현실적인 자본확충 능력을 입증할 만한 증거가 불충분하다는 결론을 내렸다.그러면서 올해 6월말까지 사업비 5조2180억원 가운데 분양수입 1조8447억원을 제외한 금액의 10%인 3373억원을 예치할 것을 주문했다.자본검증위가 요구한 기한이 지나도록 예치금이 입금되지 않자 제주도는 오는 11일까지 예치금을 대신할 수 있는 자본검증 대안을 제시할 것을 사업자측에 요구한 상태다.도는 적절한 대안을 제시할 경우 도 자본검증위를 통해 재심의할 예정이다.오라관광단지는 JCC가 제주시 오라2동 일대에 마라도 면적의 10배가 넘는 357만5753㎡에 2021년까지 총 사업비 5조2180억원을 투자하는 사업이다. 기존 최대 개발사업은 서귀포 신화역사공원 리조트월드 사업(264만㎡·2조1000억 투자)이다.JCC는 단지 내에 초대형 컨벤션센터와 5성급 호텔, 분양형 콘도, 면세백화점 및 명품빌리지, 실내형 테마파크와 워터파크, 골프장 등을 짓겠다는 구상이다.하지만 이 사업은 사업부지가 한라산국립공원 밑 해발 350~580m에 위치해 중산간 난개발 논란이 뒤따랐다.특히 단일 사업으로는 제주 사상 최대인 5조원이라는 막대한 사업비의 출처에 의혹이 제기됐다.JCC가 조세피난처로 알려진 버진아일랜드에 있는 회사이고 이 회사가 여러 개의 페이퍼컴퍼니로 구성됐다는 의혹이 일면서 논란이 확산됐다.제주도는 2018년 12월 각계 전문가들로 자본검증위원회를 구성했고 위원회는 사업자의 자본력 등에 의문을 제기하며 사업비 10%를 예치금으로 요구했다. kdm@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, ‘추락 위험 관광지 전수 조사’ 실시 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, ‘추락 위험 관광지 전수 조사’ 실시 [2022 국감] 輿 '경찰위 물갈이' 주장에 경찰청장 "확인하겠다" '동대문 흉기 난동' 60대, 1심 징역 10년 선고 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도, ‘추락 위험 관광지 전수 조사’ 실시 기사승인 2019. 07. 16. 15:19 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 해안가 소규모 관광지 대상 안전시설 여부 등 제주 양준호 기자 = 제주특별자치도는 관광객들의 추락 위험이 있는 해안가 소규모 관광지에 대해 전수 조사를 실시한다고 16일 밝혔다.추락 사례를 보면 지난해 8월 태풍 ‘솔릭’ 내습 당시 서귀포 토평동 소정방 폭포 해안가 계단에서 사진 촬영하던 여성이 파도에 휩쓸리며 실종되는 사고가 발생했었다.전수 대상 관광지는 공영 관광지 가운데 행정력을 투입해 실질적으로 관리가 이뤄지는 공간을 제외한 곳으로 정했다.도는 16일~31일 읍면동과 함께 소규모 관광지 기초 안전 시설 설치 여부, 추락 위험을 알리는 경고판 등 설치, 관광지 별 안전 시설 추가 및 보강 필요 여부 등을 집중 조사할 예정이다.도 관계자는 “조사 결과를 토대로 관광객 안전 사고 방지 대책을 중점 논의한 뒤 관리 부서를 지정해 관리 강화에 나설 방침”이라고 말했다. 양준호 기자 &gt; truth116@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 전국 많이 본 뉴스 1 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 2 ‘주민등록법위반 혐의’ 김재한 창녕군의회 의장 피소 3 김동연 도지사 “전통시장은 지역경제의 근간, 지역화폐 활.. 4 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 5 ‘주홍빛 물든 청도에서 즐겨보자’...청도반시축제·세계코.. 6 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 7 김영록 전남지사, 중앙지방협력회의서 중앙권한 과감한 이양.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도내 펜션서 투숙 관광객 3명 숨져...1명 위독 &lt; 사건사고 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도내 펜션서 투숙 관광객 3명 숨져...1명 위독 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 사건사고 제주도내 펜션서 투숙 관광객 3명 숨져...1명 위독 기자명 홍석형 기자 입력 2019.07.14 19:16 수정 2019.07.14 19:17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 투숙한 방에서 번개탄 피운 흔적 발견돼 14일 제주시 용담동 소재 한 펜션에서 성인 남녀 4명이 의식을 잃고 쓰러진 채 발견돼 경찰이 수사 중이다.경찰과 소방당국에 따르면, 14일 낮 12시 5분께 펜션 숙소에서 의식을 잃은채 쓰러져 있는 A씨(42.女) 등 남녀 4명을 펜션 주인이 발견에 경찰과 119에 신고했다.이들은 체크아웃 시간이 넘었었음에도 퇴실하지 않자 펜션주인이 확인하는 과정에서 발견됐다.현장확인 결과, 119구급대는 A씨를 숨진 것으로 판단해 경잘에 인계하고, 나머지 3명은 인근 병원으로 이송했다.그러나, 병원으로 후송됐던 B씨(40.男)와 C씨(25.女)등 2명은 병원에서 사망판정을 받았다.현재 병원에서 치료받고 있는 D씨(38.男)는 위독한 것으로 알려지고 있다.경찰과 소방당국은 방안에서 번개탄을 피운 흔적이 발견된 점 등을 토대로 정확한 사고경위를 조사하고 있다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 中 갈치조림 찾는 사람 많아 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 中 갈치조림 찾는 사람 많아 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 中 갈치조림 찾는 사람 많아 곽종현 기자 승인 2019.07.18 15:10 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 날씨에 상관없이 아름다운 자연을 볼 수 있는 곳을 꼽자면 단연 제주도다. 제주도 필수 관광지로는 국내대규모 종합관광단지로 여겨지는 제주 중문 관광단지가 좋다. 이 곳에는 중문해수욕장을 비롯해 천제연폭포, 여미지 식물원 등 볼거리와 놀거리가 충분하며, 여러 고급 숙박시설까지 자리해 단기는 물론 장기 여행에도 적합하다는 평이 많기 때문. 이러한 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘이조은식당’이 영양소가 풍부함은 물론 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다.이 곳은 2대째 이어온 제주 서귀포 갈치조림 맛집으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 제주도 맛집 베스트 10 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다.이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 제주 중문 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다.제주 서귀포 맛집 이조은식당 관계자는 “갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다. ‘이조은식당'은 가까이에 위치한 여러 관광지때문에 천지연폭포 맛집, 쇠소깍 맛집, 카멜리아힐 맛집, 표선해수욕장 맛집, 중문색달해수욕장 맛집, 화순금모래해수욕장 맛집 등 다양한 수식어로 불리고 있다. 또한 멀지않은 곳에 금능해수욕장, 한림공원, 테마파크, 성이시돌목장, 비양로, 금오름 등이 있으며 제주도렌트카자차를 이용하여 돌아다니면 효율적으로 여행이 가능하다. 제주도필수여행코스로는 한라산의 백록담과 오설록티뮤지엄, 대포주상절리, 용머리해안 등이 있다. 제주도의 곳곳을 다니고 싶다면 제주공항근처에 숙소를 정하는 것도 추천되고 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주 흑돼지 거리 맛집 '대돈' 제주도를 찾는 관광객들로 문전성시를 이루어 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주 흑돼지 거리 맛집 '대돈' 제주도를 찾는 관광객들로 문전성시를 이루어 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주 흑돼지 거리 맛집 '대돈' 제주도를 찾는 관광객들로 문전성시를 이루어 김영수 기자 승인 2019.07.17 13:15 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도는 우리나라 최고의 관광여행지이다. 수많은 볼거리와 먹을거리들로 가득한 여행지이며, 여유로운 쉼을 느낄수도, 여름철 신나는 액티비티를 즐길 수 있는 관광명소이기도 하다. 또 제주도를 찾는 여행객들이 가장 먹고 싶어하는 음식중에 하나가 제주흑돼지이다. 흑돼지는 일반 돼지고기에 비해, 쫄깃하며 영양가 또한 풍부하다. 특히 흑돼지를 구워 멜젓 등에 찍어먹으면 그맛이 담백하고 고소하여 씹을수록 구미가 당긴다. 제주도에는 흑돼지를 전문적으로 파는 '제주흑돼지거리' 가 있는데, 30년이 가깝게 유지되어 오고 있는 전통 맛집거리이다. 흑돼지거리에서도 제주도 본연의맛을 자랑하는 흑돼지맛집 대돈이 요즘 제주도 흑돼지를 찾는 관광객들로 문전성시를 이루고 있다. 정다운 대표는 "품질 좋은 100% 제주도산 흑돼지만을 이용하여, 건강하고 맛있는 음식만을 제공할 것을 약속하겠다"며 "모든 메뉴에 정성을 담고, 고객의 입장에서 항상 생각해 맛있는 음식 뿐만 아니라 서비스까지도 생각하고 연구하여 늘 더 나은 대돈이 되기 위하여 노력하겠다"고 전했다. 실제로 제주도는 주차공간이 협소한 음식점이 대부분이지만 대돈은 대돈만의 전용대형주차장을 보유하고 있어서 편리한 주차공간을 제공하고 있다. 또한 120석 이상의 단체예약이 가능한 공간도 가지고 있어, 제주도를 찾는 단체관광객들 또한 찾기에 용이한 부분이다. 대돈 메뉴 또는 예약 등에 대한 자세한 문의는 홈페이지를 통하여 진행하거나, 매장에 직접 전화연결로 진행 할 수 있다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 곽종현 기자 승인 2019.07.24 09:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도는 우리나라 대표 여행지로 볼거리가 많다. 제주도 여러 볼거리 가운데 서귀포 시내에서 약 2㎞쯤 서쪽에 삼매봉이 있고, 그 산자락의 수려한 해안가에 외돌개가 우뚝 서 있다. 외돌개는 약 150만년 전 화산이 폭발하여 용암이 섬의 모습을 바꿔놓을 때 생성되었다. 외돌개 꼭대기에는 몇 그루의 소나무들이 자생하고 있다. 뭍과 떨어져 바다 가운데 외롭게 서있다 하여 외돌개란 이름이 붙여졌으며 고기잡이 나간 할아버지를 기다리다가 바위가 된 할머니의 애절한 전설이 깃들어 있어 `할망바위`라고도 불린다. 바위끝에 사람의 머리처럼 나무와 풀들이 자라고 있고 그 왼편으로 할머니의 이마와 깊고 슬픈 눈망울과 콧등의 윤곽이 어렴풋이 보이고 쩍 벌어진 입모양은 할머니가 할아버지를 외치며 찾던 모습을 연상시킨다. 외돌개 바로 밑에는 물위에 떠있는 듯한 바위가 있는데 이는 할머니가 돌로 변한 후 할아버지의 시신이 떠올라 돌이 된 것이라는 이야기가 있다. 뒤로는 선녀바위라는 기암절벽이 돌이 되어버린 할아버지와 할머니를 안스러운 듯 병풍처럼 펼쳐서 감싸안고 있는 모습이다. 외돌개 뒤로 보이는 범섬에 석양이 어릴 때의 경관은 무척이나 아름답다. 서귀포 체류시 아침이나 저녁에 삼매봉과 같이 산책코스로 좋다. 여행의 묘미는 역시 먹는 즐거움이다. 제주도의 다양한 해산물 가운데 해물갈치조림 요리가 요즘 인기를 얻고 있다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 문어, 전복, 새우 등 다양한 해산물이 들어간 해물갈치조림이 주력 메뉴다. 해물갈치조림을 먹으면 여름철 별미인 한치 물회를 서비스로 먹을 수 있고, 옥돔구이와 성게국도 서비스로 나온다. 그리고 기원뚝배기는 해산물 특유의 비린 냄새를 잡고 맛을 위해 천연 약초를 숙성한 양념을 사용하고 있다. 천연 양념 덕분에 비린 냄새 없이 고소한 맛을 느낄 수 있으며, 양념은 맛은 물론 건강에도 좋아 밥과 양념을 비벼 먹는 손님들이 많다. 여름 휴가 여행객을 위해 다양한 서비스를 준비하고 있다. 제주도 중문 맛집 기원뚝배기에서 통갈치조림정식 A세트 혹은 B세트를 주문하면 한치 물회를 무료로 먹을 수 있다. 한치 물회는 여름철 별미로 5가지 과일과 매실 효소를 숙성시킨 육수를 사용한다. 그리고 오이, 미나리, 파프리카 등 여러 가지 야채를 넣기 때문에 더운 여름에 먹기에 제격이다. 그리고 통갈치조림정식 A세트의 경우 기본 상차림에 옥돔구이와 성게국이 나오지만 함께 온 손님들이 푸짐하게 식사할 수 있도록 옥돔구이와 성게국을 하나씩 더 서비스하고 있다. 밑반찬에도 정성을 기울이고 있다. 제주도 맛집 기원뚝배기는 외부에서 밑반찬을 사지 않고 직접 국내산 재료를 구입하여 전라도 엄마의 손맛을 담아 만들고 있다. 매일 밑반찬을 만들기 위해서는 일손이 많이 가지만 내 가족이 먹는다는 마음으로 계절에 맞는 재료를 구입하고 있다. 방문한 손님이 맛있게 식사하기를 기원한다는 기원뚝배기 상호에서 알 수 있듯이 친절한 서비스를 바탕으로 정성을 다하고 있어 한번 방문한 손님들은 다시 방문하는 경우가 많다. 제주 맛집 기원뚝배기는 오전 7시~오후 10시 연중 무휴로 영업하고 있다. 제주도 중문 아침식사 맛집으로 잘 알려진 기원뚝배기는 여러 아침 메뉴 가운데 전복뚝배기가 인기다. 이 메뉴는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원하여 해장 메뉴로 좋다. 손님들에게 편의를 제공하고자 무료 셔틀버스를 운행하고 있어 호텔 픽업서비스가 가능하다. 넓은 전용 주차장도 마련되어 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>SKT "티맵이 제주도 관광지·식당 할인정보 안내" 미래를 보는 경제신문 2022 | 10 | 11 13.7℃ 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 많이 본 기사 둔촌주공 입주권 1주일 만에 1억7000 빠져 재건축 최대어 둔촌주공아파트의 입주권 가격이 2년 전보다 낮아졌다. 공사 중단이 길어지면서 사업성에 대한 불안감이 커진 상황에 예상 분담금 규모는 날로 커지고 있기 때문이다. 오는 12월 입주권 거래제한이 풀리면 팔고싶어도 팔지 못했던 물량까지 쏟아져 나오면서 가격 하락은 더 가팔라 질 것으로 예상된다.11일 국토교통부 실거래가공개시스템에 따르면 지난 코스피, 2170선 아래로…코스닥, 3%대 하락 코스피가 11일 하락세로 출발해 2170대로 붕괴했다.이날 오전 9시 25분께 코스피는 전 거래일보다 55.31포인트(2.48%) 내린 2177.53를 기록했다.코스피가 장중 2170대로 내려온 것은 지난달 30일(장중 저가 2134.77) 이후 5거래일 만이다.지수는 전장보다 39.82포인트(1.78%) 낮은 2193.02에 개장했으나 현재는 이보다 [단독] '평택판 GGM' 나올까…쌍용차, 노후공장 개선방안 마련 KG그룹 품에 안긴 쌍용자동차가 경영 정상화를 달성하기 위한 첫 번째 과제로 노후화된 평택공장에 대한 생산설비 교체에 나설 것으로 보이는데, 광주 글로벌모터스(GGM)와 비슷한 방안을 고려하는 것으로 알려졌다.특히 평택공장 설비 교체에 수천억원에 달할 수 있는 비용이 들어갈 것으로 예상되는 만큼 지역과 상생하면서도 투자 지원을 통한 비용 절감 차원에서 진원생명과학, 美 자회사 VGXI 신규공장 준공 진원생명과학은 지난 7일 플라스미드 DNA 위탁개발생산(CDMO) 기업인 자회사 VGXI가 미국 텍사스주 콘로시 데이슨 테크놀로지 파크(Deison Technology Park)에 건설한 신규공장의 준공식을 개최했다고 11일 밝혔다.준공식에는 미국 하원 케빈 브래디(Kevin Brady) 의원, 주휴스턴 대한민국 총영사관 안명수 총영사, 시공사 BE&amp;am 외국인 불법 공매도 잡힐까…당국 "실명제 검토" 정무위 국정감사에서 제기된 '깜깜이 공매도 논란'에 금융당국이 외국인 불법 공매도 발생 시 실명을 공개하는 방안을 검토하고 있다고 밝혔다. 금융시장 변동성이 극심해지자 당국도 불법 공매도를 차단할 방법을 고심중인 것이다.11일 국회와 금융투자업계에 따르면 지난 6일 김주현 금융위원장은 정무위 국정감사에서 외국인 불법 공매도와 관련해 유의동 국민의힘 의원 '두번째 빅스텝' 전망에 부동산 금리 공포 확산 한국은행이 이르면 오는 12일 열리는 금융통화위원회(금통위)에서 두번째 빅스텝(기준금리를 0.5%포인트 인상)을 단행할 가능성이 유력해지면서 고금리 공포 확산에 따른 부동산 시장 침체도 가속화 될 전망이다. 또 대출 이자 부담에 허덕이는 '영끌'(영혼까지 끌어모음), '빚투족'(빚을 내 투자)들의 비명도 더욱 커질 것으로 보인다.11일 부동산 업계에 따 캠코, 창립 60주년 기념 사회공헌 수기 공모 한국자산관리공사는 창립 60주년을 맞아 오는 24일까지 '캠코 희망리플레이' 사회공헌 수기 공모전을 개최한다고 11일 밝혔다.이번 공모전은 캠코 창립 60주년을 기념하고 캠코의 사회공헌활동을 통해 직·간접적인 도움을 받은 이들의 이야기를 담기 위해 마련됐다.'캠코 사회공헌활동 관련 수기'를 주제로 진행되는 이번 공모는 사회공헌 프로그램에 참여한 국민이 네이버·카카오 '와르르'…개미 피눈물 삼성전자와 함께 국민주 대열에 합류했던 네이버·카카오의 주가가 폭포수처럼 떨어지고 있다. 하락장에서도 반등할 것이라는 기대감을 갖고 매수에 나섰던 개미(개인투자자)들의 곡소리가 끊이지 않고 있다.11일 한국거래소에 따르면 올해(1월 3일~10월 7일) 네이버 주가는 37만8500원에서 16만원으로 57.73% 급락했다. 같은 기간 카카오 주가도 11만2 이창용 총재 12일 출국…G20 회의·IMF 연차총회 참석 한국은행은 이창용 총재가 미국 워싱턴 D.C.에서 열리는 'G20 재무장관·중앙은행총재 회의' 및 'IMF-WBG 합동 연차총회'에 참석하기 위해 오는 12일 출국한다고 11일 밝혔다.이창용 총재는 12일 출국해 오는 17일 귀국할 예정이다.이번 G20 회의에서는 최근 글로벌 경제상황, 글로벌 금융안전망(GFSN) 및 금융 복원력 강화 방안, 암호자산 [EBN 칼럼] 비탈릭 부테린을 위한 변명 우리나라 5천원권 지폐 모델로 활동 중이신 율곡 이이 선생께서는 어린 나이에 크게 성공하는 ‘소년출세’를 중년에 배우자를 잃는 ‘중년상처’, 늙어 가난하게 사는‘노년빈곤’과 함께 인생의 삼대 불행 중 하나로 꼽으셨다. ‘중년상처’나 ‘노년빈곤’이야 누가 들어도 그럴 만하다 싶지만, 어린 나이에 빨리 성공하는 것이 왜 인생에 다시 없는 불행이라는 걸까. 젊 로그인 회원가입 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 오피니언 기자수첩 외부칼럼 피플 인사 부고 동정 유료기사 화학 철강뉴스 조선·물류 코스피 2,182.03 ▼ 50.81(-2.28%) 코스닥 669.36 ▼ 29.13(-4.17%) USD$ 1437.0 ▲ 8.0 EUR€ 1391.5 ▲ 3.9 JPY¥ 986.1 ▲ 5.6 CNY¥ 199.7 ▲ 0.1 BTC 27,400,000 ▼ 352,000(-1.27%) ETH 1,836,500 ▼ 51,500(-2.73%) XRP 708 ▼ 49(-6.47%) BCH 159,100 ▼ 7,900(-4.73%) EOS 1,485 ▼ 120(-7.48%) 전자ICT 금융증권 건설 자동차 철강조선 에너지 유통 공유 인쇄 텍스트 축소 확대 url복사 SKT "티맵이 제주도 관광지·식당 할인정보 안내" 송고 2019.07.10 09:24 | 수정 2019.07.10 09:24 황준익 기자 (plusik@ebn.co.kr) 스타모빌리티와 제주도 관광지, 식당 등 99개소 할인가 소개위치 및 목적지 검색 기반 제주 관광객 특화서비스 ⓒSK텔레콤SK텔레콤은 10일 제주지역 차량공유 및 할인쿠폰 판매업체인 스타모빌리티와 티맵(T map)을 통해 제주도의 주요 관광명소를 할인가로 이용할 수 있는 '티맵 x 스타쿠폰' 서비스를 출시했다.'티맵 x 스타쿠폰'은 제주도 전역의 99개 주요 관광지와 음식점, 커피 전문점 등을 할인가로 구매할 수 있도록 소개하는 서비스로 △위치 기반 △목적지 검색 기반 2가지 방식으로 이용할 수 있다.위치 기반으로 이용할 경우 현 위치 기준 반경 10km 내 할인가로 이용 가능한 관광지를 가까운 거리 순으로 보여준다. 또 티맵을 통해 검색한 목적지가 할인가 이용 가능한 관광지일 경우 상단에 할인을 위한 쿠폰 구매 여부를 팝업창 형태로 안내한다.SK텔레콤과 스타모빌리티는 앞으로 스타모빌리티 운전자를 대상으로 SK텔레콤의 운전점수를 활용한 안전운전 캠페인도 진행할 계획이다. 고객의 운전점수를 확인해 안전운전시 추가 혜택을 제공하는 방식이다.©(주) EBN 무단전재 및 재배포 금지 관련기사 방통위, 갤S10 5G 지원금 변경 공시한 SKT에 과태료 [현장] SKT "AI스피커 '누구' 활용 헬스케어 사업 진출" "말 한마디면 되네"…SKT '누구', 독거어르신 친구역할 '톡톡' SKT, 로밍 신청하고 선물받는 '바른 로밍 페스티벌' 진행 SKT "LGU+ 알뜰폰사업 인수시 시장 위축 우려" 전체 댓글 0 로그인 후 댓글을 작성하실 수 있습니다. 베스트 클릭 1 둔촌주공 입주권 1주일 만에 1억7000 빠져 2 코스피, 2170선 아래로…코스닥, 3%대 하락 3 [단독] '평택판 GGM' 나올까…쌍용차, 노후공장 개선방안 마련 4 진원생명과학, 美 자회사 VGXI 신규공장 준공 5 외국인 불법 공매도 잡힐까…당국 "실명제 검토" 이슈종합 더보기 10일: 금통위 빅스텝, 5대 은행장, 유가 상승세, 태양광 대출 등 9일: 美, 반도체장비 中수출 금지…삼성·SK '예의주시', TDF시장 '급성장' 등 8일: 中 반도체 시장 위축되나…삼성·SK, 美 고강도 규제 예의주시 등 오피니언 더보기 비탈릭 부테린을 위한 변명 ESG시대의 스타트업(2/2) 美 정부의 바이오 행정명령과 대응 상속재산조회서비스 코로나19와 경주 최부자댁 시황 코스피 코스닥 환율 KOSPI 2,182.03 ▼ 50.81(-2.28) KOSDAQ 669.36 ▼ 29.13(-4.17) 매매기준율 USD$ 1437.0 ▲8.0 EUR€ 1391.5 ▲3.9 JPY¥ 986.1 ▲5.6 CNY¥ 199.7 ▲0.1 코인시세 비트코인 이더리움 리플 비트코인캐시 이오스 시세제공 업비트 빗썸 코빗 업비트 10.11 13:08 27,400,000 ▼ 352,000 (1.27%) 빗썸 10.11 13:08 27,367,000 ▼ 363,000 (1.31%) 코빗 10.11 13:08 27,384,000 ▼ 351,000 (1.27%) 업비트 10.11 13:08 1,836,500 ▼ 51,500 (2.73%) 빗썸 10.11 13:08 1,836,000 ▼ 51,000 (2.7%) 코빗 10.11 13:08 1,837,000 ▼ 51,000 (2.7%) 업비트 10.11 13:08 708 ▼ 49 (6.47%) 빗썸 10.11 13:08 708 ▼ 48.9 (6.46%) 코빗 10.11 13:08 707.8 ▼ 48.7 (6.44%) 업비트 10.11 13:08 159,100 ▼ 7,900 (4.73%) 빗썸 10.11 13:08 158,500 ▼ 8,500 (5.09%) 코빗 10.11 13:08 159,200 ▼ 7,700 (4.61%) 업비트 10.11 13:08 1,485 ▼ 120 (7.48%) 빗썸 10.11 13:08 1,487 ▼ 116 (7.24%) 코빗 10.11 13:08 1,485 ▼ 120 (7.48%) 등락률 : 24시간 기준 (단위: 원) 인사/부고/동정 더보기 ● [부고] 성인모(한국금융투자협회 수석전무)씨 부친상 ● [부고]이정렬(반도건설 대표)씨 모친상 ● [부고] 장영순(현대이지웰·현대드림투어 대표)씨 모친상 ● [인사] 식품의약품안전처 포토뉴스 대·중소유통 상생협의회 출범 서울미디어홀딩스패밀리미디어 실시간 뉴스 “왜 코 푸냐” “놀고 앉았네” 사장님이 지켜보고 있다 尹대통령 “北 핵위협 앞에 어떤 우려가 정당화되나” “한동훈, 이재명 수사 방미” vs “김의겸, 내부고발 하나” 北 저수지서 SLBM 도발…우리 軍, 탐지 못했다 38만 가구 집 팔아도 빚 못갚아…8%대 주담대 온다 엔저 미끼 던지고 빗장 푼 日…한국인 관광 몰린다 새만금 7200배 먹튀에도...무면허 용역 준 한전자회사 규제로 집 사기 힘들 때, 외국인 3만채 아파트 쇼핑 안철수 “유승민·나경원 출마를” 김기현 “安, 대선 불출마 기대” 문재인 전 대통령, ‘문프셀러’ 현상에 “출판계 도움돼 기쁘다” 삼성 파운드리, 내년 MPW 횟수 20% 늘린다 국세청, 홈택스 상담업체에 21억 손배소 기준금리 3% 시대 임박…한은, 두 번째 빅스텝에 무게 美 유통가, 벌써부터 '블프' 경쟁 돌입…재고 처리 안간힘 [ET시론]SW인력, 지역에서 답을 찾자 '퇴임 앞둔' 김선민 광주테크노파크 원장 “모빌리티 산업, 광주 미래 먹거리” [대한민국 대전환 'ON'] 바다 수놓은 해상풍력…'녹색전환' 이룬 덴마크 디지털 무역 통계, 전자상거래부터 구축...디지털 서비스·데이터 부가가치 반영 등 과제 울산시, '디지털콘텐츠 도시 울산' 조성 게임베리, 알짜사업 '퍼포먼스 마케팅' 부문 분사 [STOP 푸틴] 크림대교 폭발이 핵전쟁으로? 푸틴, ‘개인적 모욕’ 여길 공산 커 ‘친중’ 발언 쏟아낸 머스크 덕?…테슬라, 중국서 역대급 판매량 [포착] 크림대교 폭발은 우크라 소행? ‘의문의 물결’ CCTV에… 어린이 350명 살해한 희대의 살인마 ‘안데스 괴물’ 어디에 [여기는 남미] 옷 바꿔 입고 고용주 대신 PCR 검사…中 극단적 제로코로나 부작용 [이광식의 천문학+] 소행성이 과연 지구를 완전히 파괴할 수 있을까? ‘시각 장애인’도 전쟁터 나가!…러 당국, 징집 할당량에 ‘허덕’ 코끼리 피해 강에 뛰어들었는데, 악어가 공격…팔다리 잃은 남성 수감자간 총들고 칼들고…에콰도르서 교도소 폭동 15명 사망 “이러다 다 죽어!”…중국 어선 3000여 척, 갈라파고스서 오징어 싹쓸이 광고문의 회사소개 제휴문의 개인정보취급방침 이메일주소 무단수집거부 저작권 규약 이용약관 (주)이비뉴스산업경제 l 등록번호 : 서울 아00054 l 등록일 : 2005.09.13 l 제호 : 이비엔(EBN)뉴스센터 l 발행인 : 김영락 l 편집인 : 정재웅 주소 : 서울 서초구 양재대로2길 22-16 호반파크1관 7층 (주)이비뉴스산업경제 ㅣ 대표번호 : 02-6952-9776 청소년보호정책(책임자 정재웅) | 메일문의 : ebnews@ebn.co.kr Copyright (c) 2011 by (주)이비뉴스산업경제 Co.,Ltd. All right reserved EBN 미래를 보는 경제신문</t>
+  </si>
+  <si>
+    <t>제주도 선정 ‘우수관광 사업체’ 18곳 어디? &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도 선정 ‘우수관광 사업체’ 18곳 어디? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도 선정 ‘우수관광 사업체’ 18곳 어디? 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2019.07.02 16:03 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도, 관광지 13개·교통 3개·숙박 1개·음식 1개 업체 지정…다양한 홍보 혜택 제주도가 올 상반기 우수관광사업체 18개소를 선정, 홈페이지에 지정 공고했다고 2일 밝혔다. 이들 우수 사업체에는 각종 홍보 혜택이 주어진다.제주도는 지난 5월 우수관광사업체 지정공모를 통해 영업신고(리모델링) 후 1년 이상 지나고, 도내에 본점을 둔 5개 분야(관광지, 교통, 숙박, 여행업, 음식 등) 관광사업체를 대상으로 신청받은 결과 30개 업체가 접수했다.분야별로는 △관광 13개소(신규1, 재지정12) △교통 3개소(신규2, 재지정1) △숙박 1개소(신규) △음식 1개소(신규) 등이다.최종 심의에 앞서 진행된 현장평가에서는 업종별 평가위원단이 신청업체의 적합여부를 심사했다. 사업체의 시설․환경, 서비스, 요금, 안전·위생관리, 지역 사회공헌도 등을 심사한 결과, 종합점수의 기준점(90점) 이상인 업체 18개소, 점수미달 업체 5개소로 평가됐다.우수관광사업체로 지정되면 지정서 및 인증패 수여, 제주도․유관기관 홈페이지 게재, SNS 홍보, 리플릿, 지도제작 및 배포를 통한 홍보 인센티브 혜택과 홍보지원금이 지급된다. 종사자 대상 서비스교육도 받을 수 있다.우수관광사업체 지정기간은 올해 7월부터 2021년 6월30일까지 2년간이다.우수관광사업체 지정사업은 지난 2008년부터 시행된 이래 현재 106개 업체가 우수관광사업체로 지정‧운영되고 있다.제주도는 건전하고 품질 높은 관광서비스 제공 및 기업의 경쟁력 강화를 위해 우수관광사업체 홍보지원을 강화할 방침이다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 옥돔구이, 한치 물회 제공 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 옥돔구이, 한치 물회 제공 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 옥돔구이, 한치 물회 제공 곽종현 기자 승인 2019.07.17 11:33 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 우리나라 대표 여행지인 제주도에는 비가 온 후 즐길 수 있는 이색 폭포들이 있다. 오히려 비 오는 날 사람들로 북적거리는 곳은 엉또폭포와 천제연 제1폭포다. 이 중에서 제주도에 비만 내렸다 하면 가장 붐비는 곳이 바로 엉또폭포다. 제주어로 '엉'은 바위보다 작은 굴을, '또'는 입구를 뜻한다. '작은 굴로 들어가는 입구'란 의미를 가진 엉또폭포는 가까이 다가가야 제 모습을 온전히 드러낸다.엉또폭포는 한라산 남쪽 자락을 타고 내려오는 악근천 중상류 지역에 위치한 절벽 폭포다. 제주의 많은 하천들처럼 악근천도 평소엔 물이 말라 있는 건천에 해당된다. 그래서 엉또폭포는 평소에는 어디서도 폭포의 흔적을 찾아보기 힘들다. 그만큼 구경하기에는 귀한 폭포로 일단 비가 와야 하고, 그것도 꽤 많은 양이 한라산을 흠뻑 적셔주어야 볼 수 있다. 한라산 산간 지역에 70mm 넘는 비가 오거나 장마철이 되어야 그 모습을 제대로 보여준다. 산간 지역에 많은 비가 온 후에는 언제 물이 말랐었냐는 듯 메마른 절벽은 웅장한 위용을 뽐내는 폭포로 변신한다. 폭포의 높이는 50m 정도지만 수직으로 쏟아져 내리는 물줄기는 어마어마하다. 엉또폭포 아래로는 직경 20m 이상의 웅덩이가 형성되어 있어 신비로움을 더해준다. 비 오는 날이라는 한정된 시간에 사람들이 집중적으로 몰리다 보니 교통체증에 폭포까지 다가가는 데 꽤 많은 시간이 소요되는 불편함이 있는 점은 참고해야 한다.여행은 역시 먹는 즐거움이 크다. 육지와 다른 이색 문화를 가진 제주도는 다양한 해산물 요리로 유명하다. 많은 해산물 요리 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 해물갈치조림으로 여행객은 물론 현지인들도 즐겨 찾는 곳이다. 해산물은 건강에도 좋아 많은 사람들이 찾지만 특유의 비린 냄새가 있기 때문에 이를 잡아야만 맛있는 요리를 즐길 수 있다. 그래서 기원뚝배기는 천연 약초를 숙성한 양념을 해물갈치조림에 넣어 비린 냄새를 잡고 고소하고 담백한 요리를 선보이고 있다.해산물 요리는 싱싱한 재료를 사용하는 것도 관건이다. 제주 중문 맛집 기원뚝배기는 식당 입구에 수족관을 두어 해물갈치조림 등 해산물 요리 주문을 받으면 바로 요리를 시작한다. 특히 해물갈치조림에는 문어, 전복, 새우 등의 신선한 해산물을 바로 요리하기 때문에 맛이 아주 뛰어나고 양념은 건강은 물론 맛도 좋아 밥과 양념을 비벼 먹는 손님들이 많을 정도다.여름 휴가 맞이 서비스 이벤트도 진행하고 있다. 제주도 중문 맛집 기원뚝배기는 해물갈치조림, 통갈치조림정식 A세트 혹은 B세트 주문 고객에게는 한치 물회를 서비스로 제공하고 있다. 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수를 사용하며, 오이, 미나리, 파프리카 등 여러 가지 야채를 넣기 때문에 더운 날씨에 시원한 맛을 느낄 수 있다. 한치회 주문도 가능하다. 그리고 해물갈치조림에는 옥돔구이와 성게국이 무료로 나오며, 통갈치조림정식 A세트에는 옥돔구이와 성게국이 추가로 하나씩 더 나와 푸짐한 식사가 가능하다.메인 요리뿐만 아니라 밑반찬도 맛깔스럽다. 제주 맛집 기원뚝배기는 계절에 맞는 국내산 재료를 직접 구입하여 10여 가지 밑반찬을 직접 만들고 있다. 내 가족이 먹는다는 마음으로 전라도 엄마의 손맛을 담아 정성스럽게 밑반찬을 만들고 있다. 친절한 서비스를 바탕으로 한번 방문한 손님들은 음식 맛을 다시 보기 위해 재방문하는 경우가 많다.제주도 맛집 기원뚝배기는 이른 아침 손님들을 위해 오전 7시부터 영업하고 있으며, 저녁은 오후 10시로 연중 무휴로 영업하고 있다. 아침 손님의 경우 전날 술자리를 가진 경우가 많은데 여러 가지 아침 식사 메뉴 중 전복뚝배기는 해장메뉴로 제격이다. 전복뚝배기는 10가지 재료를 넣어 끓여 맛이 얼큰하고 시원하다. 무료 셔틀버스를 운행하고 있어 호텔 픽업서비스를 제공하고 있으며, 넓은 전용 주차장도 마련하고 있어 주차가 매우 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도 해수욕장, 상어 출현…'기겁'한 관광객들 대피 소동 로고 사회 지면보기 구독신청 기사제보 로그인 회원가입 | 유튜브 페이스북 전체보기 사회일반사건사고복지·노동보건의료환경반려동물 검색 오피니언사설기자칼럼전문가칼럼기고 사회사회일반사건사고복지·노동보건의료환경반려동물 정치정치일반대통령·중앙행정대구·경북 행정대구·경북의회국방·북한 경제경제일반증시·금융부동산자동차취업·창업IT·모바일 스포츠스포츠일반야구축구농구·배구·핸드볼골프 문화문화일반공연·전시책운세기타 건강건강일반병원소식질환 영상영상뉴스송국건의혼술이지핏부동산공부방 위클리포유위클리포유일반여행/레저위클리영화패션·뷰티푸드칼럼 에듀포유대학·입시중·고등초등·유아대구경북교육청에듀포유일반 포토 포토뉴스 지역뉴스 경북동부 경북중부 경북북부 대구근교 대구 교육/과학교육과학 국제국제일반미국일본중국유럽 동정동정일반결혼부고알림인사 기획/특집기획/특집 연재 연재 시민기자시민기자 연예연예일반방송영화 웹툰웹툰플레이툰 독자투고 독자투고 기사제보 공지사항 x 검색버튼 제주도 해수욕장, 상어 출현…'기겁'한 관광객들 대피 소동 인터넷뉴스부 | 입력 2019-07-09 00:00 |  수정 2019-07-09 인쇄 글자작게 글자크게 카카오톡 페이스북 트위터 카카오스토리 전체 네이버밴드 네이버블로그 연합뉴스 제주 함덕해수욕장에 갑작스런 상어 출연으로 사람들을 공포에 떨게 만들었다. 8일 낮 12시 30분쯤 제주시 함덕해수욕장 앞바다서 서핑을 하던 몇명의 사람들이 큰 지느러미를 드러낸채 헤엄치던 물체가 상어임을 확인하고 경찰에 신고했다. 이 상어는 약 10분간 헤엄을 치다 멀리 사라진 것으로 추정된다. 이에 놀라 대피했던 100여명의 관광객들은 오후 1시 45분여쯤 입욕 통제가 해제됐다. 제주시는 상어로 보이는 동영상을 제주대 해양과학대학 김병엽 교수에게 문의한 결과 상어가 맞다는 것을 확인했다. 지난해에도 경남 거제 앞바다에서 백상아리로 추정되는 길이 4m, 무게 300kg의 상어가 잡혔으며,  7월에는 경북 경주시 수렴리 동방 해상에서 길이 143㎝, 무게 25㎏에 육박하는 백상아리 한 마리를 목격한 것으로 알려졌다. 인터넷뉴스부 ynnews@yeongnam.com 영남일보(www.yeongnam.com), 무단전재 및 수집, 재배포금지 사회인기뉴스 완전한 일상회복 기대감…야외 마스크 해제 후 첫 대구 대형 콘서트 '북적'11일부터 '우회전 일시정지' 계도기간 종료…경찰 "신호등보다 사람 기준으로 봐야" 영남일보TV 라이브리댓글 작성을 위해 JavaScript를 활성화해주세요. 기획 더보기 원자재값 급등·반도체 핵심원료 공급불안정…자원무기화·탄소중립화 시대 대응 방안은? [대구의 미래 청년기업 .9] 스포츠 기업 '디에스그룹'…은퇴 체육인 새로운 진로 개척 '인생 2모작' 돕는 사회적 기업 [인구절벽시대 우리 지역 우리가 지키자 .10] 옛 가야대 고령캠퍼스 현주소…대학촌 폐업·공실 사태로 슬럼화 시민사회는 지금 더보기 "녹조 창궐 영주댐, 환경부 불법 담수 그만" 대구 참여연대 "들러리 대구시의회 규탄" Remember! 대구 경북 디아스포라 더보기 대구 경북 아픈역사의 현장 더보기 영남일보TV 더보기 [영남일보 창간 77주년 축하인사] 유승민 국민의힘 전 의원 많이 본 뉴스 최신 주간 월간 원희룡 장관 이번엔 경산 방문...보수 텃밭 다지기 벌써 시동? 1 완전한 일상회복 기대감…야외 마스크 해제 후 첫 대구 대형 콘서트 '북적' 2 '업무수행 잘한다' 홍준표 대구시장 53.6%-이철우 경북도지사 58.2% 3 코로나에 첫 스텝 꼬인 사자, 재계약 베테랑 부진 겹쳐 '털썩' 4 [속보] 제1036회 로또 1등 당첨번호 2, 5, 22, 32, 34, 45 5 11일부터 '우회전 일시정지' 계도기간 종료…경찰 "신호등보다 사람 기준으로 봐야" 6 기준금리 공포에 벌벌 떤다…영끌족 "어떡하나" 멘붕 7 만원 관중 앞 '유종의 미' 거둔 삼성...2022시즌 한국프로야구 7위로 마무리 8 홍준표 대구시장 "시·도지사가 광역 부단체장 천거할 수 있도록 해달라" 9 추경호 경제부총리, 5개월 만에 지역구 공식 방문…군민들 '환호' 10 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 1 '나는 돌아가고 싶다' 72년간 썩지 않은 참전용사 군화…칠곡 572고지에서 발견 2 대구 미분양 8천가구 넘어 '전국 최다'…거래절벽 심화 3 오에스피·탑머티리얼 공모주 첫날 경쟁률, 에스비비테크 오전 11시 현재 경쟁률 4 대구시, 정부 규제개혁 차원 '대형마트 주중 휴무' 시범실시 추진 5 오에스피·탑머티리얼 공모주 첫날 오후 1시 경쟁률은? 6 서른 하나 서울토박이가 경북 상주서 양조장 차렸다 7 유승민, 범보수 대권 적합도 '깜짝 선두'…경쟁 주자들 견제 나서 8 구미산단 외투단지 LCD용 광학필름 제조업체 화재…대응 2단계 발령 9 민선 8기 출범 100일, 대구시정에 대한 시민 평가는? 10 '리플' 7일간 47%급등 왜?…비트코인 1만9000달러 회복 1 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 2 대구경북통합신공항 민간공항 활주로 길이 3.8㎞, 시간당 50회 이착륙 목표 3 날개꺾인 대구국제공항...일본.대만 노선 없어 시민들 김해로 4 '금호강 르네상스' 100리 연결 레저공간 조성…지속가능한 금호강으로 '글로벌 내륙수변도시' 대구 추진 5 대구도시철도 순환선 'AGT 방식' 검토…노선 재점검 가능성도 6 대구도시철도 순환선의 방향은?…유력 'AGT방식' 특징·향후 과제는 7 [속보] 대구 수성구·포항 남구, 조정대상지역 해제 8 [단독-포토뉴스] 국민의힘 이준석 전 대표 포항 수해 복구 봉사활동 9 대구행복페이 올해 예산도 모두 소진…연말까지 충전 안돼 10 오늘의운세 더보기 &gt; 닭띠 10월 11일 ( 음 9월 16일 )(오늘의 띠별 운세) (생년월일 운세) 영남생생 News 안동시, 노인맞춤돌봄서비스 효자 노릇 '톡톡' 시리즈 아이콘 안동 하회마을 선유줄불놀이 화려한 불꽃 매력 발산 시리즈 아이콘 대구본사 : 대구광역시 동구 동대구로 441(신천동 111번지) Tel. 053-756-8001 Fax. 053-756-9011 경북본사 : 경상북도 안동시 풍천면 수호로 59 우대빌딩 4층​ Tel. 054-857-9393 Fax. 054-857-8602 서울지사 : 서울특별시 중구 세종대로 124 프레스센터 11층 Tel. 02-738-9815 Fax. 02-738-8005 인터넷신문등록 : 대구 아00221 등록일자 : 2017.05.23 발행인 · 편집인 · 인쇄인 : 노병수 사업자등록번호 : 502-81-25414 법인명 : (주)영남일보 대표자 : 노병수 푸터로고 회사소개 개인정보취급방침 외간인쇄 구독신청 광고안내 청소년 보호정책(책임자 : 김기오, 서용덕) 언론 윤리 강령 신문윤리위 서약서 공정언론 편집규약 고충처리인 영남일보 뉴스를 만나보세요 페이스북 트위터 카카오스토리 유튜브 로그인 ㅣPC버전 Copyright ⓒ 2019 yeongnam All right reserved</t>
+  </si>
+  <si>
+    <t>끌리면타라, 제주도 관광객 한정 유료서비스로 7월 15일 정식 오픈 &lt; 문화 &lt; 핫이슈 &lt; 기사본문 - 서울와이어 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 모바일웹 2022-10-11 13:00 (화) 경제/산업 금융/증권 정치/사회 글로벌 부동산 핫이슈 ESG 포토뉴스 영상뉴스 보도자료 인사·부고 더보기 기사검색열기 기사검색 검색 검색닫기 본문영역 이전 기사보기 다음 기사보기 끌리면타라, 제주도 관광객 한정 유료서비스로 7월 15일 정식 오픈 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 핫이슈 문화 끌리면타라, 제주도 관광객 한정 유료서비스로 7월 15일 정식 오픈 기자명 정시환 기자 승인 2019.07.09 14:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 여객운수사업법에 어긋나지 않도록 제주도 관광객에게만 서비스 제공 끌리면타라 [서울와이어 정시환 기자] ㈜스타모빌리티의 차량+기사호출서비스 끌리면타라가 정식 출시을 앞두고 있다. 끌리면타라는 제주의 심각한 주차난과 교통난 그리고 매년 되풀이되는 극성수기 렌터카 바가지요금, 서비스 불만족 등 제주를 찾는 관광객들이 제기하던 이동의 불편함 들을 해결하기 위한 방안으로 개발된 제주도 최초의 차량 공유 서비스로 지난 1일 애플리케이션 오픈을 시작으로 2주간의 베타테스트를 거쳐, 오는 15일 정식 출시가 예정되어 있다.    스타모빌리티 관계자는 “끌리면타라는 여객 자동차 운수사업법 취지인 &lt;여객의 원활한 운송과 여객자동차운수사업의 종합적인 발달을 도모함으로써 공공복리를 증진하는 목적&gt;에 부합하기 위해, 15일부터 타라는 제주도 관광객만을 대상으로 서비스를 진행한다. 즉, 일상생활 중 이동을 목적으로 하는 제주도민은 서비스 대상에서 제외한다”라고 말했다.   이에 따라 끌리면타라 서비스를 이용하고자 하는 제주도 관광객은 타라 서비스 호출에 앞서,   제주도 비행기 티켓이나 제주도 배표 등의 관광객 확인 절차를 거쳐야만 타라를 이용할 수 있게 된다.  더불어 스타모빌리티는 “끌리면타라는 제주도 최초의 차량 공유 서비스인 만큼, 제주의 고질적인 교통문제의 해결을 위해 출시되었음을 알아주셨으면 한다. 우리는 제주의 기존 이동 수단들과의 상생을 위해 가장 먼저 노력할 것이다”라고 덧붙였다. home@seoulwire.com 정시환 기자 home@seoulwire.com 다른기사 보기 저작권자 © 서울와이어 무단전재 및 재배포 금지 당신만 안 본 뉴스 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 마약 최근 손댔다던 돈스파이크… 10년전부터 상습 투약 영국 패션쇼에 오른 한복… '예비신부' 김연아가 디자인 유튜브 댓글 의심이 사실로… 가수 돈스파이크 필로폰 투약 다가온 콘서트 시즌… '히어로' 임영웅 실물 보려면 대전 현대아울렛 직원 보상...매니저 350만원, 판매사원 250만원 [CEO투데이] '두 번째 혁신' 준비하는 김슬아 마켓컬리 대표 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 尹 “청년 꿈 좌절 안 하도록… 희망의 사다리 놓아야” 강원경찰청, 외국인 노동자 상대 마약유통… 태국인 65명 검거 KB자산운용, 글로벌 원자력 ETF 출시 한국투자증권, 테슬라·애플 기초 주가연계증권 모집 노벨경제학상 버냉키 "금융위기극복, 다양한 사건 주시해야" [부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 최신뉴스 尹 “청년 꿈 좌절 안 하도록… 희망의 사다리 놓아야” 강원경찰청, 외국인 노동자 상대 마약유통… 태국인 65명 검거 KB자산운용, 글로벌 원자력 ETF 출시 한국투자증권, 테슬라·애플 기초 주가연계증권 모집 노벨경제학상 버냉키 "금융위기극복, 다양한 사건 주시해야" 핫이슈 나주시, 대한민국 평생학습대상 우수상 쾌거 광주시, 안전대전환 집중안전점검 최종보고회 개최 해남군‘어르신이 행복한 해남 만들기’맞춤형 노인복지 강화 무안군, 고품질 돌김 생산 위한 김 양식어장 예찰지도 실시 인기뉴스 1 임영웅, 6일만에 유튜브 1000만 조회수 달성… 17억뷰 고지 목전 2 [산업 이슈 픽] 국정감사 앞둔 한전, 여야 집중타깃 되나? 3 김주형 PGA 최연소 2승...레전드 타이거 우즈 기록 갈아치웠다 4 러, 우크라 주요도시 미사일 타격… 크림대교 폭파 보복 추정 5 중국, 반도체 때리기에 희토류 수출 통제로 대응 6 담원 기아 압도적 우승… 배틀그라운드 모바일, ‘PMPS 2022 시즌 4’ 성료 7 [날씨] 전국 흐리고 비… 강한 바람에 체감온도 '뚝' 떨어진다 8 뉴욕증시, 통화긴축 우려·전쟁 불안·JP모건 경고에 하락 마감 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 마포구 만리재로 15 (제일빌딩) 10층 1011,1012호 대표전화 : 02-6952-0992 청소년보호책임자 : 김숙영 법인명 : 이슈앤비즈미디어(주) 제호 : 서울와이어 등록번호 : 서울 아 03747 등록일 : 2015-05-21 발행일 : 2015-04-01 발행인 : 편집인 : 김종현 서울와이어 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 서울와이어. All rights reserved. mail to sw@seoulwire.com 한국인터넷신문협회 회원사 위로 전체메뉴 전체기사 경제/산업 전체 생활경제 공유경제 브랜드경제 정치 정상회담 산업 IT 업사이클 금융/증권 전체 금융 증권 정치/사회 글로벌 전체 글로벌 부동산 전체 부동산 핫이슈 전체 정치 정상회담 사회 패션/뷰티 문화 오피니언 인사·동정 사회적기업 인터뷰 정책 방송/연예/스포츠/라이프 전체 방송/연예/스포츠 스타트업 생생! 톡 전체 생생! 주부톡 생생! 알람톡 생생! 푸드톡 생생! 아이톡 생생! 엔터톡 영상뉴스 증시 공시 기획특집 긴급진단 기자수첩 ESG 보도자료 인사·부고 CEO 투데이 메타센서 글렌다박의 블루오션 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 생물권보전지역 생태관광 활성화 시동 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 생물권보전지역 생태관광 활성화 시동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 생물권보전지역 생태관광 활성화 시동 기자명 이은지 기자 입력 2019.07.01 18:06 수정 2019.07.01 18:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주시 평대리·서귀포시 호근동 선정 제주도 생물권보전지역 생태관광 활성화 대상 마을로 선정된 서귀포시 호근동의 하논분화구.제주도 생물권보전지역 생태관광활성화 마을로 제주시 평대리와 서귀포시 호근동이 선정됐다. 제주특별자치도 세계유산본부는 신청마을 6곳 가운데 유네스코등록유산관리위원회와 생물권분과위원 심사 등을 통해 평대리와 호근동을 대상마을로 확정했다. 도는 지난 4월부터 2차례 공고를 통해 제주생태관광협회를 컨설팅업체로 최종 결정했으며, 이달부터 2023년까지 5년 동안 총 사업비 5억원을 투입, 마을지원사업을 펼칠 계획이다. 선정 마을은 마을단위의 생태관광협의체 구성·운영, 주민역량 강화 교육, 특색 있는 프로그램 개발·운영, 수익화 법인설립 등 지원을 받게 된다. 조인숙 제주도 세계유산본부 한라산연구부장은 "지난달 19일 제주도 전역이 유네스코 생물권보전지역으로 확대되면서 브랜드 활용을 위한 환경자원 보전과 함께 지역주민에게 이익이 돌아갈 수 있도록 노력하겠다"고 밝혔다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>외국인 관광객들로 북적이는 제주도 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 외국인 관광객들로 북적이는 제주도 입력 : 2019-07-05 03:20:00 수정 : 2019-07-04 19:38:50 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 2019년 5월까지 63만명… 2018년比 70%↑ / 대만 167%·미국 147% 등 급증 / 내국인 관광객은 0.2% 줄어들어 올해 제주를 찾은 외국인 관광객이 지난해보다 2배 가까이 늘었다. 4일 제주도관광협회에 따르면 올해 1~5월 외국인 63만1094명이 제주를 찾은 것으로 집계됐다. 이는 지난해 같은 기간 37만2836명보다 69.3% 증가한 수치다. 제주를 찾은 외국인 관광객은 일본과 중국, 홍콩, 대만, 싱가포르, 말레이시아, 인도네시아, 베트남, 태국, 미국 등 대부분의 국가 모두 전년대비 증가했다. 특히 대만과 미국, 중국 국적 관광객이 크게 늘었다. 올해 1~5월 제주를 찾은 대만인 관광객은 3만7905명으로 지난해 같은 기간(1만4204명)보다 166.9% 증가했다. 미국은 올해 1만8345명으로 지난해보다 147.1%, 중국은 36만3024명으로 82% 늘었다. 내국인 관광객은 다소 줄었다. 올해 5월까지 제주를 찾은 내국인 관광객은 539만2756명으로 지난해 같은 기간 540만2022명보다 0.2% 감소했다. 5월까지 제주를 찾은 내·외국인 관광객 누계는 602만3850명으로 잠정 집계됐다. 이는 지난해 같은 기간 577만4858명보다 4.3% 늘어난 수치다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20190704510809 0101070100000 0 2019-07-05 3:20:0 2019-07-04 19:38:50 0 외국인 관광객들로 북적이는 제주도 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도 상어 등장, 올여름 관광객 어쩌나? 2m 길이에 꼬리가 세로 &lt; 생활.스포츠 &lt; 기사본문 - 뉴스브라이트 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 				2022-10-11 13:09 로그인 기사제보 매체소개 검색버튼 기사검색 검색 검색닫기 전체메뉴 버튼 금융 산업 정치·사회 문화·예술 생활·스포츠 본문영역 이전 기사보기 다음 기사보기 제주도 상어 등장, 올여름 관광객 어쩌나? 2m 길이에 꼬리가 세로 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 생활.스포츠 제주도 상어 등장, 올여름 관광객 어쩌나? 2m 길이에 꼬리가 세로 기자명 홍은비 입력 2019.07.08 16:43 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주시 제공     © 홍은비 [뉴스브라이트=홍은비]제주 해안가에 상어가 출현했다는 신고가 접수됐다.8일 낮 12시 반쯤 제주시 함덕해수욕장 앞바다에서 서핑을 타던 사람들이 커다란 지느러미를 드러내고 헤엄치던 물체를 발견하고 가까이 접근해 확인결과 상어임을 확인하고 경찰에 신고했다.해당 상어는 10여 분 동안 주변을 헤엄치다 사라진 것으로 알려졌다.이에 해경은 곧바로 해수욕장 입수를 전면통제하고 수색작업을 진행했으나 상어는 더이상 보이지 않았다.한편, 해당 상어는 약 2m 길이에 꼬리가 세로로 나 있는 상어인 것으로 알려졌다. 홍은비 bjkim@jcglobeway.com 저작권자 © 뉴스브라이트 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 이 시각 추천뉴스 서울세계불꽃축제...별 헤는 밤 "We Hope Again" LG엔솔, 2022년 3분기 잠정실적 발표 신한은행, 한국예탁결제원 ‘현금담보 신탁 보관·관리사업’ 업무협약 LG유플러스·크립토랩·LG전자, 새로운 커넥티드카 사이버보안 체계 만든다 농협, 5년간 농업정책자금 부당집행 1,863건에 달해 한반도 사투리가 다모인다... ‘말모이 축제’ 개최 제12회 서울미래연극제 개막 서울세계불꽃축제...별 헤는 밤 "We Hope Again" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 LH, 행복주택 3,570호 청약접수 실시 KB국민, 2022 K-Business 리더스 포럼 개최 LG유플러스, 양자내성암호 적용 네트워크 안정성 높인다 NH투자, 美 ‘2022 Galaxy Awards’서 동상 수상 울산광역시 금메달 2개, 전국체전 종합우승! LG엔솔, 2022년 3분기 잠정실적 발표 이 시각 헤드라인 농촌진흥청, 얼마 안 되는 농업연구 예산도 빼돌려 한국 최초 산업기지 ‘울산공업센터’ 지정 60년…”그린 산업수도 도약 원년될 것” 포스코홀딩스·LG엔솔, 이차전지 사업 MOU 체결 손태승 회장, 글로벌 ESG 리더 만나 국제협력 논의 한화에어로스페이스, 국내 유일의 민간 우주기업으로 거듭난다 많이 본 뉴스 1 NH투자, 코리아빅데이터어워드 과기부장관상 수상 2 LG엔솔, 북미 원재료 공급망 구축 강화 3 신한은행, 하노이 디지털 금융 심포지엄 개최 4 후포-울릉 간 대형 선박 카페리 ‘썬플라워크루즈호’ 취항 5 한투증권, 뱅키스 전용 ELS 2종 공모 하단영역 매체정보 법인명 : 주식회사 뉴스브라이트 서울특별시 마포구 토정로35길 11 5층 대표전화 : 02-716-2722 제호 : 뉴스브라이트 등록번호 : 서울 아 04591 발행일 : 2014-05-13 등록일 : 2013-12-30 발행·편집인 : 정성학 청소년보호책임자 : 김현옥 뉴스브라이트 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. Copyright © 2022 뉴스브라이트. All rights reserved. mail to news_brite@daum.net 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 금융 산업.경제 정치.사회 문화.예술 생활.스포츠 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 갈치조림 효리의단골집 대표메뉴 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 무료 제공 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 무료 제공 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 무료 제공 기자명 인터넷뉴스팀 입력 2019.07.19 11:40 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 제주도 서귀포시는 해안선을 따라 성산일출봉, 용머리해안, 섭지코지 등 화산지형이 펼쳐진다. 서귀포시는 우리나라 최남단 섬인 마라도를 포함하여 유인도 2개와 10개의 무인도를 거느리고 있으며, 연평균 16.2도로 전국에서 가장 따뜻하다. 또한 천혜의 자연환경과 독특한 전통문화, 풍부한 생태자원을 갖고 있고 여름이면 환상적인 바다축제가 펼쳐진다.제주도 정방폭포는 폭포수가 바다로 떨어지는 동양 유일의 해안 폭포로, 23m 절벽에서 떨어지는 물줄기가 해안가로 흘러들어 이내 바닷물과 만난다. 보기만 해도 시원함이 느껴지는 풍경을 보기 위해 사람들의 발길이 끊이지 않는다. 옛날 중국 진시황제의 명으로 불로초를 찾아다니던 서복이 이곳에 들러 잠시 쉬어 갔다는 전설이 전해 내려온다. 절벽에 서 있지만 바다를 향해 가지를 뻗고 있는 둥치 굵은 소나무, 폭포를 지켜보는 듯 여유롭고 한가로운 서귀포 앞바다에 떠 있는 섬, 그리고 멀리 한라산의 웅장한 모습들이 한눈에 그림처럼 보이는 정방폭포의 시원한 경치는 예로부터 ‘정방하폭’이라 하여 제주 10경으로 꼽힐 정도였다. 정방폭포와 함께 인근에 있는 소정방폭포도 함께 들르면 좋은데 소정방폭포는 여름철 제주도민들이 물맞이를 위해 많이 찾는 곳이다.시원한 폭포를 구경했다면 몸에 좋고 맛도 좋은 먹거리를 찾아 떠나 보자. 제주도의 다양한 해산물 요리 가운데 요즘 갈치조림이 아주 인기다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 싱싱한 갈치에 문어, 전복, 새우 등 다양한 해산물을 넣어 요리한 해물갈치조림이 대표 메뉴다. 해물갈치조림은 비린 냄새를 잡지 못하면 제대로 된 맛을 낼 수 없는 법. 그래서 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 해산물의 비린 냄새를 잡고 맛을 더욱 고소하게 한 것이 특징이다. 그리고 식당 앞에 비치된 수족관에 있는 살아 있는 문어와 전복 등을 사용하여 요리하기 때문에 더욱 신선한 요리를 먹을 수 있다.여름 휴가철을 맞이하여 다양한 서비스 이벤트도 진행하고 있다. 제주도 중문 맛집 기원뚝배기는 해물갈치조림, 통갈치조림정식 A세트 혹은 B세트를 주문하는 손님에게 한치 물회를 서비스로 제공한다. 그리고 해물갈치조림에는 옥돔구이와 성게국을 무료로 서비스하고 있으며, 통갈치조림정식 A세트에는 옥돔구이와 성게국을 하나씩 더 추가 제공하고 있어 푸짐한 식사를 할 수 있다. 여름철 별미인 한치 물회는 5가지 과일과 매실 효소를 숙성시킨 육수를 사용하고 있으며, 오이, 미나리, 파프리카 등 여러 가지 야채가 함께 어우러져 맛이 아주 시원하고 깔끔하다. 한치회 주문도 가능하다. 관광지에서는 밑반찬을 외부에서 사서 손님 상에 올리는 식당들도 있지만 기원뚝배기는 전라도 엄마의 손맛을 담은 밑반찬을 매일 직접 만들고 있다. 계절별로 국내산 재료를 구입하여 사용하고 있으며, 내 가족이 먹는다는 마음을 담아 맛있게 만들기 때문에 한번 방문한 손님은 다시 방문하는 경우가 많다.제주 맛집 기원뚝배기는 연중 무휴로 오전 7시~오후 10시 영업하고 있어 이른 아침식사도 가능하다. 아침 메뉴 가운데 전복뚝배기는 전날 술자리를 가진 손님들이 많이 찾는 메뉴로 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원하다. 무료 셔틀버스를 운행하고 있어 호텔 픽업서비스가 가능하며, 넓은 전용 주차장도 식당 바로 옆에 있다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회, 천연염색 활용한 제주관광기념품 산업 육성 위한 토론회 개최 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 "이 포도 국산 맞아?" 종자시장 해외품종 점유율 95% '2.7조'에 동박 품는 롯데케미칼, 배터리 소재 강력 베팅 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 게임·바이오株 무섭게 떨어진다…코스닥 -4% 학살의 날 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "이 포도 국산 맞아?" 종자시장 해외품종 점유율 95% '2.7조'에 동박 품는 롯데케미칼, 배터리 소재 강력 베팅 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 게임·바이오株 무섭게 떨어진다…코스닥 -4% 학살의 날 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 제주도의회, 천연염색 활용한 제주관광기념품 산업 육성 위한 토론회 개최 sns공유 더보기 제주도의회, 천연염색 활용한 제주관광기념품 산업 육성 위한 토론회 개최 머니투데이 제주=나요안 기자 기자 더보기 sns공유 더보기 2019.07.02 14:47 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 정책적 지원 강화로 지속가능한 산업으로 육성해야 제주특별자치도의회는 지난 1일 제주도의회 대회의실에서 ‘제주 관광기념품의 지속가능한 산업 육성방안 모색’이라는 주제로 정책토론회를 개최했다.사진제공=제주도의회. 제주특별자치도의회는 지난 1일 제주도의회 대회의실에서 ‘제주 관광기념품의 지속가능한 산업 육성방안 모색’이라는 주제로 정책토론회를 개최했다고 2일 밝혔다. 이번 토론회는 제주지속가능발전연구회(박원철 환경도시위원장)와 문화관광체육위원회(이경용 위원장) 주최 및 주관으로 개최됐다. 토론회에 앞서 김형길 제주관광문화산업진흥원장의 ‘제주관광기념품 산업의 현황 과제’로, 허북구 한국천연염색문화재단운영국장의 ‘천연염색을 활용한 관광기념품 산업 육성사례: 나주 천연염색산업의 과거, 현재, 미래’의 주제 발표가 진행됐다. 정책 토론은 문종태(제주도의회 문화관광체육위원회)의원이 좌장으로, 김순란 전 제주천연염색협동조합이사장, 김윤정 제주국제대학교 교수, 고미 제민일보 경제부국장, 문경복 제주도관광정책과장, 지경섭 제주마그마 회장, 천혜경 숨비아일랜드 대표의 지정토론이 진행됐다. 또한, 천연염색을 활용한 관광기념품 전시도 같이 병행됐다. 박원철 위원장(제주지속가능발전연구회)은 “제주 방문 관광객 1500만 시대에 걸맞게 제주를 상징하고, 전통문화를 계승할 수 있는 관광기념품 발굴과 산업 육성이 미흡했다”며 “관광기념품 산업의 육성을 위해서는 명품화, 판로개척, 마케팅 홍보 등 정책적 지원 강화로 제주의 지속가능한 산업으로서의 육성이 필요하다는 인식 하에 이번 정책 토론회를 기획했다”고 말했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 나요안 lima68@mt.co.kr 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 연준 "4.5% 위에서 금리 인상 중단"…경기 둔화 위험 언급 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 사회 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" "흉기가 없어 아쉽다" 박수홍 父가 오후 조사에서 한 말 '116억 횡령혐의' 박수홍 친형, 구속기한 D-1…석방 가능성은 박수홍 가장 원하는 것은 "어머니와 관계 회복"…父, 추가 폭행 우려 "박수홍, 母와 관계회복 원한다" 발언 사실 아니었나 박수홍, 父폭행 충격에 실신→다음날 녹화…뜻밖의 현장 분위기 '유퀴즈' 출연 전 그알PD, 주가조작 혐의 구속영장 청구 "박수홍, 응급실 실려 갈때…폭행한 父·형수는 식사하러 갔다" 박수홍, 폭행 당한 후 '4자통화'로 7시간 조사…"내가 돈 관리" 父 고성 "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 사회 마켓 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 농관원, 공공비축미곡 포대벼 매입 검사 실시 [지자체NOW]부산시, 관광객 위한 '동백전 카드' 출시…"5%할인 받으세요" 한국타이어, 발달장애 특수학교 찾아 '숲' 조성 봉사 용인시 '최대 5000만원 5년 무담보' 소상공인 프리미엄 대출 재개 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? 역술가도 한숨 쉰 박수홍 사주 "아들 죽고 母 일어선다" 공감 엄앵란, 8년 전 박수홍에 "경제 독립해"…친형 100억 횡령 예견? 비공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 내가 알던 안성기 맞아?…확 달라진 모습에 '건강 이상' 우려까지 송일국 삼둥이가 살던 '인천 송도 호수뷰' 아파트…매매가 얼마? 선넘은 해킹범…'뷔♥' 제니, 욕실서 찍은 셀카까지 유출 공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 비공감 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>다시가고싶은 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 다시가고싶은 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 다시가고싶은 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 기자명 인터넷뉴스팀 입력 2019.07.16 12:11 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 제주도 관광지로는 국내대규모 종합관광단지로 여겨지는 제주 중문 관광단지가 좋다.이 곳에는 중문해수욕장을 비롯해 천제연폭포, 여미지 식물원 등 볼거리와 놀거리가 충분하며, 여러 고급 숙박시설까지 자리해 단기는 물론 장기 여행에도 적합하다는 평이 많기 때문이다. 이러한 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그 중 제주 중문 맛집 ‘이조은식당’이 영양소가 풍부함은 물론 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다.이 곳은 2대째 이어온 제주 서귀포 갈치조림 맛집으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 제주도 맛집 베스트 10 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다.이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다.제주 서귀포 맛집 이조은식당 관계자는 “제주 중문 갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다. ‘이조은식당'은 가까이에 위치한 여러 관광지때문에 천지연폭포 맛집, 쇠소깍 맛집, 카멜리아힐 맛집, 표선해수욕장 맛집, 중문색달해수욕장 맛집, 화순금모래해수욕장 맛집, 제주도 애월 맛집 등 다양한 수식어로 불리고 있다.또한 멀지 않은 곳에 금능해수욕장, 한림공원, 테마파크, 성이시돌목장, 비양로, 금오름을 비롯해 협재해수욕장, 새별오름, 곽지해수욕장, 제주양떼목장, 렛츠런파크, 제주공룡랜드, 항파두리 항몽유적지 등이 있으며 제주도렌트카자차를 이용하여 돌아다니면 효율적으로 여행이 가능하다.제주도필수여행코스로는 한라산의 백록담과 오설록티뮤지엄, 대포주상절리, 용머리해안 등이 있다.제주도의 곳곳을 다니고 싶다면 제주공항근처에 숙소를 정하는것도 추천한다 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 대정도시재생센터와 관광활성화 협약 체결 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 대정도시재생센터와 관광활성화 협약 체결 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회, 대정도시재생센터와 관광활성화 협약 체결 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.07.06 16:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 서귀포시 대정읍도시재생현장지원센터(센터장 강경문)는 지난 5일 제주종합비즈니스센터 3층 대회의실에서 대정읍지역 관광 활성화를 통한 도시재생을 목표로 업무협약을 체결했다.이 협약은 국토부가 추진하는 도시재생뉴딜사업 중 하나인 대정읍 ‘캔(CAN) 팩토리와 다시 사는 모슬포’사업의 성공적 추진을 위해 협력하는 것을 주 내용으로 한다.캔(CAN) 팩토리와 다시 사는 모슬포' 사업은 2021년까지 국비 총 150억 원이 투입되어 주거복지와 도시경쟁력 회복, 사회통합, 일자리 창출 등을 목표로 하고 있다.이 협약을 통해 두 기관은 대정읍 도시재생 활성화를 위한 문화관광 콘텐츠를 공동으로 발굴하고, 발굴된 콘텐츠를 기반으로 한 관광코스 개발 및 홍보마케팅 추진을 통해 관광산업을 통한 대정읍 도시재생 활성화는 물론, 지역 밀착형 관광 콘텐츠의 지속적인 발굴로 관광산업 활성화에 따른 도민 체감도 향상을 위해 적극 협력해 나가기로 했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 '오라관광단지·카지노' 일관성·원칙 없는 행정 불신 자초 &lt; 제주도의회 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 '오라관광단지·카지노' 일관성·원칙 없는 행정 불신 자초 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도의회 제주도 '오라관광단지·카지노' 일관성·원칙 없는 행정 불신 자초 기자명 김지석 기자 입력 2019.07.03 16:57 수정 2019.07.03 18:27 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도의회 문광위 3일 제375회 임시회 제1차 회의이승아·이경용 의원 "사업마다 적용 원칙 달라"제주도가 오라관광단지 개발사업과 카지노 관련 사업에 대해 일관성과 원칙 없는 행정으로 불신을 자초하고 있다는 지적이 제기됐다.특히 이와 관련 명확한 가이드라인 없이 매끄럽지 않은 행정처리로 사업자는 물론 주민 간 갈등을 유발하면서 도민들의 피로감마저 높아지고 있다.제주도의회 문화관광체육위원회(위원장 이경용)는 3일 제375회 임시회 제1차 회의를 열고 제주도 관광국 소관 2019년도 제2회 추경예산안을 심사했다.더불어민주당 이승아 의원(오라동)은 "제주도가 오라관광단지와 관련해 3373억원의 자본예치를 거부한 사업자 JCC에 자본예치에 상응하는 납득할만한 투자계획 재원조달계획과 관련한 구체적인 입증자료를 요구했다"며 "이에 JCC는 자본검증이 사업추진 절차에 없는 사항이고 관련 법 규정도 없으며 이미 신용등급 등 충분한 자료를 제출했다고 맞서고 있다. 제주도가 충분하고 납득할만한 자료라며 너무 포괄적으로 요구하고 있다"고 지적했다.이 의원은 "오라관광단지 투자 금액의 10%를 사전에 예치하도록 하는 에스크로 제도가 적용됐고 사업자가 이를 거부한 선례로 남게 됐다"며 "앞으로 대규모 개발사업에도 에스크로 제도를 도입할 계획이냐"고 따져 물었다.양기철 제주도 관광국장은 "개발사업심의위가 더 강화된 형태로 운영되고 있는 만큼 앞으로 에스크로 제도를 운영하지 않더라도 나름대로 판단할 수 있다"고 답변했다.이에 이승아 의원은 "대규모 개발사업에서 자본 검증이 이뤄지지 않을 경우 이번엔 에스크로 제도를 했다가 다른 사업에는 개발사업심의위로 충분하다는 것은 정확한 방침이 없다고 볼 수밖에 없다"며 "이러다 보니 제주도 투자에 대한 신뢰도를 하락시키고 있다"고 강조했다.이경용 위원장은 "카지노 조례는 법률유보 원칙에 위배될 소지가 있다고 하는데 오라단지야말로 법률유보 원칙이 적용돼야 할 사안"이라며 "제주도가 오라관광단지만 유독 자체적으로 '규정을 만들겠다. 이 것을 하라'라는 측면이 있는데 이를 보면 JCC와 원희룡 지사의 개인적인 관계로 사업을 불허하려는 것처럼 보인다"고 질타했다.이어 "행정이 일관성이 있어야 하는데 적용하는 원칙이 달라 행정의 신뢰도를 추락시키고 있다"며 "사업자와 소송으로 이어지는 등 또 갈등으로 인한 피로감이 누적돼 있어 제주도만 보면 지긋지긋하다는 지적이 나오고 있다. 제주도가 나아갈 분명한 방향을 정해야 한다"고 주문했다. 김지석 기자 김지석 기자 kjs@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 한치 물회, 옥돔구이 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 한치 물회, 옥돔구이 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 한치 물회, 옥돔구이 제공 곽종현 기자 승인 2019.07.19 11:34 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도 중문관광단지 안에 자리한 천제연 제1폭포는 비가 오는 날 생기는 폭포 가운데 하나다. 옛날 하늘에서 일곱 선녀가 내려와 목욕을 하고 갔다는 전설을 품은 천제연폭포는 상, 중, 하 총 3개의 폭포로 이루어져 있다. 이중 천제연 제2, 3폭포는 평소에도 물줄기가 흐른다. 제1폭포 아래 소를 이룬 지역에 끊임없이 용천수가 흘러나오는 덕분이다. 이에 반해 상류 쪽에 위치한 제1폭포는 비가 내려야 폭포다운 모습을 볼 수 있다. 천제연 제1폭포는 길이 22m에 수심이 21m나 된다. 비가 온 직후 생성된 천제연폭포는 그야말로 엄청나다. 낙차가 크지는 않지만 한꺼번에 쏟아져 내리는 물줄기가 장관을 이룬다. 평소 건천일 때는 평화로워 보이던 곳이 무시무시한 굉음으로 가득찬다. 잔잔한 호수에 병풍처럼 둘러쳐져 있던 수직 절리가 끊임없이 쏟아지는 폭포수에 가려 보이지도 않는다. 비가 너무 많이 올 때에는 소의 물이 넘치기도 한다. 계단 위까지 물이 차는 경우도 있기 때문에 안전에 주의해야 한다. 천제연 제1폭포를 제대로 감상하려면 비가 오고 조금 시간이 지난 뒤에 방문하는 것이 좋다. 제주도에는 다양한 먹거리가 발달해 있다. 사면이 바다인 제주도는 다양한 해산물 요리가 많은데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 해물갈치조림 맛이 좋기로 정평이 나 있다. 해물갈치조림을 주문하면 여름철 별미인 한치 물회를 무료로 먹을 수 있으며, 옥돔구이와 성게국까지 서비스로 나와 푸짐한 식사를 할 수 있다. 특히 해산물 특유의 비린 냄새를 없애기 위해 약초를 숙성한 양념을 사용하고 있어 맛은 물론 건강에도 좋아 현대인의 입맛을 사로잡고 있다. 실제 양념 맛이 좋아 밥과 양념을 비벼서 먹는 손님들이 많다. 무료로 제공하는 서비스 메뉴도 다양하다. 제주도 맛집 기원뚝배기는 여름 휴가철을 맞아 해물갈치조림 메뉴와 함께 통갈치조림정식 A세트 혹은 B세트 메뉴에 한치 물회를 서비스로 제공한다. 또한 통갈치조림정식 A세트에는 옥돔구이와 성게국이 추가로 하나씩 더 나온다. 기원뚝배기의 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수에 오이, 미나리, 파프리카 등 여러 가지 야채를 넣어 시원한 맛이 일품이다. 한치회 주문도 가능하다. 식당 입구에 수족관이 있어 주문이 들어오면 바로 요리하여 더욱 신선한 요리를 제공하는 것도 장점이다. 기원뚝배기는 식당 입구에 수족관을 두어 해물갈치조림 등 해산물 요리 주문을 받으면 바로 요리를 시작하며, 해물갈치조림에는 문어, 전복, 새우 등 다양한 해산물을 넣고 있다. 밑반찬에도 정성을 기울인다. 제주 맛집 기원뚝배기는 전라도 엄마의 손맛을 담은 밑반찬을 손님상에 올리고 있는데 국내산 재료를 직접 구입하여 10여 가지 밑반찬을 직접 만들고 있다. 방문한 손님들이 맛있게 식사하기를 기원한다는 뜻이 상호에 담겨 있듯이 내 가족이 먹는다는 마음으로 친절한 서비스를 토대로 손님을 맞이하고 있다 제주도 중문 아침식사 맛집 기원뚝배기는 오전 7시~오후 10시 연중무휴로 영업하고 있다. 이른 아침 손님을 위한 메뉴 중 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원하기 때문에 해장메뉴로 좋다. 셔틀버스를 운행하고 있어 무료로 호텔 픽업서비스를 제공하고 있다. 넓은 전용 주차장도 있어 편리한 주차가 가능하다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도·관광공사 제주상품 중국시장 마케팅 주력 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사 제주상품 중국시장 마케팅 주력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도·관광공사 제주상품 중국시장 마케팅 주력 기자명 이은지 기자 입력 2019.07.01 17:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주관광공사는 제주 상품의 중국시장 진출을 위해 온·오프라인 마케팅 활성화에 나선다.도는 중국내 경쟁력 있는 화장품과 식음료 분야 6개 기업을 최종 선정, 제주관광공사(사장 박홍배)와 첫 마케팅 협업을 펼치고 있다.지난달 신화역사공원 내에 위치한 제주관광공사 시내면세점에서 중국 내 최대 라이브 방송 플랫폼인 화지 아오(花椒)를 통해 제주상품을 홍보했다.관광공사는 앞으로 중국 현지 관광설명회와 전시회에서 제주상품을 지속해서 홍보하고, 제주직항 항공사와 공동 홍보활동 등을 강화할 계획이다.오는 15일부터 19까지 제주 스타상품 선정기업에 특화된 중국 현지(광저우·심천)에서 해외바이어 무역상담회도 진행한다.손영준 제주특별자치도 일자리경제통상국장은 "중국시장에서 경쟁력 있는 제주상품을 집중 육성·지원하는 '제주 스타상품 통합 지원사업'을 추진할 계획"이라며 "제주기업의 해외시장 성공사례를 창출해 수출 목표 달성을 위해 노력하겠다"고 밝혔다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 가성비 좋은 갈치정식은 어디? - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>여름철 제주도 물놀이 명소와 놓치지 말아야 할 관광 10선-디지틀조선일보(디조닷컴 dizzo.com) 국내여행 여름철 제주도 물놀이 명소와 놓치지 말아야 할 관광 10선 서미영 기자 pepero99@chosun.com 기사입력 2019.07.01 10:51 본격적인 여름 휴가철이 시작되는 7월에 제주도에서 여름 휴가를 보내려고 계획하는 사람들이 많다. 여름에 제주도는 깨끗한 바다와 시원한 용천수가 풍부해 자연경관도 즐기면서 물놀이를 하기에 좋다. ‘물 좋은 곳에서 제대로 놀아보자’라는 테마로 체험, 트레킹, 자연, 음식, 축제 등 7월 제주에서 놓치지 말아야 할 관광 10선을 만나보자. 7월 제주 여행 추천 10선01돈내코 원앙폭포, 소정방폭포 ▲ 돈내코 원앙폭포(사진제공=제주관광공사) ▲ 소정방폭포(사진제공=제주관광공사) 얼음같이 차가운 물이 한여름에도 쏟아지는 돈내코 원앙폭포와 국내 유일의 해안폭포인 소정방폭포는 물맞이 명소다. '물맞이'는 폭포에서 떨어지는 물을 맞으며 더위도 물리치고 신경통과 근육통을 달래는 것을 말한다. 제주에서만 즐길 수 있는 이색 물놀이로 땅으로 스며든 물이 해안가를 따라 솟아나는 용천수를 이용한 물놀이가 있다. 제주도 전지역에 600여 개의 용천이 있는데 100여 개는 해안가에 있다. 특히 용천수를 이용한 노천욕은 제주에서만 경험할 수 있는 진귀한 체험이다. 서귀포 소남머리, 삼양동 큰물, 도두 오래물, 신촌리 큰물 등 중소규모의 용천수 노천탕들도 들러볼 만하다.02효돈천 하천트래킹과 하례리 에코파티 ▲ 효돈천 트래킹(사진제공=제주관광공사) ▲ 효돈천 트래킹(사진제공=제주관광공사) 용암하천계곡을 따라 암벽을 타고 트래킹하는 효돈천 하천트래킹은 익스트림 스포츠처럼 짜릿한 성취감을 느낄 수 있다. 이 프로그램은 서귀포 하례리 주민들이 인솔자로 나서는 생태관광 프로그램이다. 트래킹 구간은 걸서악 남사면 근처에서 장구도까지 2km에 이른다. 14세 이상이면 참여할 수 있고, 비용은 1인당 2만원이다. 7월 22일 2시부터 하례리에서는 효돈천 하천트래킹을 비롯해 고살리숲길, 바릇잡이 체험을 할 수 있는 에코파티가 열린다. 바릇잡이로 잡은 해산물도 시식할 수 있고 농촌밥상과 하례마을 특산 소귀열매로 만든 소귀에이드도 맛볼 수 있다.03솜반천, 강정천, 남원 용암해수풀장, 예래동 논짓물, 화순 용천수풀장 ▲ 솜반천(사진제공=제주관광공사) ▲ 화순 용천수풀장(사진제공=제주관광공사) 제주도에서는 인공적인 워터파크가 아닌 자연과 함께 하는 물놀이터를 만날 수 있다. 서귀포 서흥동 솜반천과 강정동 강정천은 용천수가 만든 생태하천으로 청정제주를 대표하는 맑은 물을 즐길 수 있다. 물이 얕아 가족들이 함께 놀기에 좋고 나무 그늘에서 쉴 수도 있는 솜반천, 은어가 살고 있는 1급 청정수가 흐르는 강정천은 늘 피서객으로 북적인다.천연암반해수를 이용한 바닷물 풀장인 남원 용암해수풀장, 용천수 담수 수영장인 화순 용천수풀장은 아이들이 안전하게 놀기에 좋다. 넓은 용천수탕과 바다가 이어져 담수와 해수를 동시에 즐길 수 있는 예래동 논짓물은 제주도민들도 좋아하는 곳으로 소박하고 정겨운 풍경을 즐길 수 있다.04개성 뚜렷한 제주 해수욕장 ▲ 금능해수욕장(사진제공=제주관광공사) ▲ 김녕해수욕장(사진제공=제주관광공사) 여름을 맞은 제주의 바다가 시원한 포문을 열었다. 제주의 해수욕장 중 협재, 함덕, 삼양, 이호테우 해수욕장은 밤 9시까지 야간개장한다. 비양도와 은모래가 그려내는 수채화 같은 협재·금능, 공항과 가까운 이호테우, 풍력발전기가 아름다운 김녕, 오름이 함께 있는 함덕, 용천수풀장이 좋은 화순금모래, 노천탕이 있는 곽지, 서핑으로 유명한 중문색달, 원형경기장처럼 넓은 표선, 성산일출봉이 보이는 신양섭지, 검은모래로 유명한 삼양 등 제주도 전역에 걸쳐 해수욕장이 있으니 어느 곳에 가더라도 깨끗한 바닷물에서 여름을 즐길 수 있다.05한치 밤낚시 체험 ▲ 한치잡이 어선(사진제공=제주관광공사) ▲ 한치 밤낚시(사진제공=제주관광공사) 여름이 시작되는 6월부터 제주의 밤바다는 한치잡이 어선에서 밝히는 불빛으로 아름답다. 한치잡이 배들은 저녁 6시 무렵부터 좋은 장소를 선점하기 위해 바다에 나간다. 장소를 잡고 7시부터 3~5시간 정도 인조미끼를 달아 낚시를 하는데 집어등을 켜면 불빛을 보고 한치들이 몰려든다. 한치잡이 배낚시체험은 주로 이호, 도두, 하효, 고산 등에서 출발한다. 체험비는 약 5만원선이며 시간과 물때가 맞으면 많은 한치를 낚아 푸짐한 식탁을 즐길 수도 있다. 인조미끼를 사용해 여성들도 거부감 없이 쉽게 짜릿한 재미를 느낄 수 있다.06야생돌고래 탐사, 요트투어 ▲ 돌고래투어(사진제공=제주관광공사) ▲ 돌고래투어(사진제공=제주관광공사) ‘제주어민과 함께하는 야생돌고래 탐사’는 제주도 연안에 살고 있는 남방큰돌고래를 관측하기 위한 50분짜리 프로그램으로 동일리포구에서 진행된다. 제주 어부가 함께 한다는 점이 특색이며 돌고래의 생태를 보호하기 위해 반경 50미터 안으로 들어가지 않는다. 80% 이상의 확률로 돌고래를 볼 수 있다고 한다. 돌고래를 보기 위해 바다로 나가는 것이 아니라, 요트체험을 하는 중에 돌고래가 나타나는 경우도 있다. 김녕요트투어가 진행되는 김녕 바다에는 이틀에 한 번 꼴로 돌고래가 나타난다고 한다. 중문 요트 샹그릴라도 요트 투어를 하는 중에 돌고래를 볼 수도 있다. 07 해녀물질체험과 씨워킹 ▲ 해녀체험(사진제공=제주관광공사) ▲ 씨워킹(사진제공=제주관광공사) 제주에는 2~3시간의 짧은 코스로 해녀체험을 할 수 있는 프로그램이 있다. 일부 어촌계에서는 물질에 대한 간단한 이론수업과 해녀복을 입고 해녀와 함께 입수해서 물질을 하는 프로그램을 운영 중이다.제주도에서 해녀수가 가장 많은 하도마을은 아름다운 풍광은 물론 해녀문화인 불턱, 돌그물인 원담도 체험할 수 있다. 법환어촌계에서는 오전 11시와 오후 3시에 운영한다. 사계어촌체험마을은 7, 8월에 가능하며 해녀들 조업이 없는 일정을 잡아 체험할 수 있다. 세 곳 모두 직접 잡은 해산물을 시식해볼 수 있다. 모든 해녀체험은 사전 예약이 필수이며 날씨 상황에 따라 다르기 때문에 예약 후 확인해야 한다.우주복 같은 헬멧을 쓰고 바다에 들어가 생태계를 관찰하는 씨워킹은 수영을 못하는 사람도 즐길 수 있는 수중 액티비티다. 교육 및 체험에 약 40분~1시간 정도 소요되며 비용은 4만원대다. 대정읍 하모씨워킹, 하례리 서귀포씨워킹스쿠버리조트, 이호해수욕장 이호랜드 해양레져 씨워커, 성산일출봉 근처 제주오션파크 등에서 체험이 가능하다.08 카약과 패러세일링 ▲ 투명카약(사진제공=제주관광공사) ▲ 패러세일링(사진제공=제주관광공사) 바닷속과 그 안의 바다생태계를 들여다볼 수 있는 투명카약은 제주바다에서 즐길 수 있는 이색 아이템이다. 날씨가 좋은 날에는 에메럴드 바다 위에 떠있는 풍경으로 인생샷을 남길 수도 있다. 월정리, 하도, 우도, 애월, 오조리 등에서 즐길 수 있다. 함덕, 법환 등에서는 일반 카약도 체험할 수 있는데 1시간 체험뿐 아니라 낚시체험 카약, 전문가를 위한 2일짜리 강습도 있다. 모터모트를 타고 바다로 나가 낙하산을 띄우는 패러세일링은 시원한 바람을 즐기면서 제주의 풍광을 경험할 수 있는 레포츠다. 100미터에서 높게는 200미터까지 올라가기 때문에 날이 맑은 날에는 한라산과 제주 남쪽의 전경이 모두 보인다. 경치와 스릴을 한 번에 즐길 수 있다는 점이 매력이며 체험시간은 1시간 내외다. 중문, 대포항 등에서 체험이 가능하다.09쇠소깍검은모래축제, 삼양검은모래축제 ▲ 쇠소깍축제(사진제공=제주관광공사) ▲ 삼양검은모래축제(사진제공=제주관광공사) 삼양해수욕장에서 7월 28일과 29일 열리는 삼양검은모래축제에서는 검은모래찜질, 스킨스쿠버, 윈드서핑 등을 무료로 체험할 수 있다. 저녁 8시부터 열리는 개막식에는 화려한 불꽃놀이가 펼쳐져 밤바다를 화려하게 수놓는다. 효돈천 쇠소깍에서 29일과 30일에 열리는 쇠소깍검은모래축제에서는 가요제와 아이들을 위한 다이빙 체험 등 다양한 프로그램이 마련되어 있다. 10빙수, 수박주스 ▲ 수박주스(사진제공=제주관광공사) ▲ 한라산 빙수(사진제공=제주관광공사) 수박을 통째로 갈아 만든 주스는 지친 피부에 수분을 공급하고 자연에서 얻은 달달함이 마음의 피로까지 풀어준다. 더울 때는 아삭아삭 오독오독 먹을 수 있는 빙수가 답이다. 시원한 얼음이나 우유를 갈아 만든 빙수도 몸에 수분을 공급하고 상쾌하게 만드는 디저트다. 특히 제주의 특색을 담은 이색적인 빙수가 많아 눈으로 보는 재미도 있다. 성이시돌 목장 유기농 우유로 만든 한라산 빙수, 제주산 말차를 재료로 한 녹차오름빙수, 감귤오름빙수, 한라봉빙수 등 제주의 특징을 담은 독특한 빙수도 일품이다. 서미영 기자 pepero99@chosun.com 관련뉴스 놀거리, 먹거리, 볼거리 등 7월 제주도 여행가면 해봐야 할 것 8월에 제주도 여행 간다면 꼭 해봐야 할 10가지 마을, 숲길, 오름, 해수욕장, 투어, 제철 음식 등 7월에 제주도 여행가면 놓치지 말아야 10가지 최신뉴스 Copyright ⓒ 디지틀조선일보&amp;dizzo.com</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 먹으면 서비스로 한치 물회, 옥돔구이 나와 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 먹으면 서비스로 한치 물회, 옥돔구이 나와 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림 먹으면 서비스로 한치 물회, 옥돔구이 나와 곽종현 기자 승인 2019.07.08 11:13 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도 바다는 육지와는 확연하게 다르다. 백사장은 순백색이고 바다는 에메랄드빛으로 물들어 영화나 그림엽서 속에 등장하는 남태평양의 예쁜 섬과 같다. 그래서 여름 휴가철이면 국내외 관광객으로 붐비는 제주도의 바다는 아무리 가도 질리지 않는 매력이 넘친다. 국내에는 볼거리가 없다고 해외여행을 다니던 사람들도 제주도에 오면 외국의 어떤 곳에 비해서도 뒤지지 않는 제주도의 가치를 재발견하게 된다. 용암과 에메랄드빛 바다가 때로는 아늑하게, 때로는 거칠게 만나는 해안도로 240킬로미터를 달리다 보면 화산섬 제주의 아름다움을 만끽할 수 있다.비취빛 바다의 매력은 단연 제주도다. 이러한 낙원 같은 바닷가를 달릴 수 있는 것이 바로 제주 해안도로 일주코스로 제주의 해안도로를 달려본다면 그 매력에 흠뻑 빠져 들게 된다. 제주도를 많이 다녀온 사람도 자전거로 한번 달려본다면 해안도로의 아름다움을 통해 제주도의 새로운 모습을 감상할 수 있다제주도에는 다양한 해산물 먹거리가 있다. 요즘 제주를 찾는 여행객들은 갈치조림을 많이 찾고 있는데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 해물갈치조림이 대표 메뉴다. 이 업소의 해물갈치조림에는 천연 약초를 숙성한 양념을 사용하는 것이 특징이다. 실제 갈치를 비롯한 해산물은 특유의 비린 냄새가 있기 때문에 이를 잡아야만 고소한 맛을 즐길 수 있어 기원뚝배기는 현대인의 입맛에 맞으면서 건강에도 좋은 천연 약초를 숙성한 양념을 사용하고 있다. 양념은 맛이 좋아 밥과 비벼 먹는 손님들도 많다.제주 중문 맛집 기원뚝배기는 여름 휴가맞이 이벤트도 진행하고 있다. 해물갈치조림 주문 고객에게는 한치 물회를 무료로 제공하며, 옥돔구이와 성게국도 서비스로 내놓고 있다. 또한 통갈치조림정식 A세트 혹은 B세트를 주문하는 손님에게도 한치 물회를 서비스하고 있으며, 정식 A세트 주문의 경우 옥돔구이와 성게국을 추가로 하나씩 더 제공하고 있어 푸짐한 식사가 가능하다.특히 해물갈치조림에는 살아 있는 싱싱한 문어, 전복 등의 다양한 해산물이 들어가는데 이는 기원뚝배기 입구에 비치된 수족관이 있기 때문에 가능하다. 주문이 들어오면 수족관에 있는 살아 있는 해산물을 바로 요리하고 있어 더욱 신선하고 맛있는 요리를 즐길 수 있다.더운 여름에 인기 메뉴인 한치 물회는 5가지 과일과 매실 효소를 숙성시킨 육수에 오이, 배, 미나리, 파프리카 등 여러 야채가 들어가기 때문에 맛이 아주 시원하고 깔끔하다.제주도 맛집 기원뚝배기의 상호에는 방문한 손님들이 맛있게 식사할 수 있기를 기원한다는 업소 대표의 마음이 담겨 있다. 이 업소는 손님 상에 올리는 밑반찬도 국내산 재료를 직접 구입하여 매일 새벽 전라도 엄마의 손맛을 담아 만들고 있다. 밑반찬 만드는 일에는 일손이 많이 가지만 내 가족이 먹는다는 마음으로 매일 정성을 담아 만들고 있어 한번 방문한 손님은 맛은 물론 친절한 서비스에 만족하여 재방문하는 경우가 많다.제주도 중문 아침식사 맛집 기원뚝배기는 연중 무휴로 오전 7시부터 오후 10시까지 영업하고 있으며, 다양한 아침식사 메뉴도 준비하고 있다. 특히 전복뚝배기는 10가지 재료를 넣어 육수를 끓여 맛이 얼큰하고 시원하여 아침 해장 메뉴로 많이 찾고 있다. 무료 셔틀버스를 운행하고 있어 영업시간 중 호텔 픽업서비스를 제공하며, 넓은 전용 주차장도 마련되어 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림에 한치 물회 서비스 제공 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림에 한치 물회 서비스 제공 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림에 한치 물회 서비스 제공 곽종현 기자 승인 2019.07.01 13:40 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도를 대표하는 한라산 남쪽의 중심부에 위치한 서귀포시는 중문단지와 연결하여 명실공히 제주 관광 휴양의 일번지로 꼽힌다. 이 일대에서는 쾌적하고 편리한 관광시설을 이용할 수 있으며, 한라산을 배경으로 펼쳐지는 풍성한 감귤밭이 인상이다. 서귀포시에는 천제연폭포, 정방폭포, 천지연폭포 등 제주를 대표하는 이름 있는 폭포들이 몰려 있으며, 중문관광단지와 가까운 지삿개도 해안 명소로 찾는 이들이 많다. 중문관광단지 인근에 있는 산방산도 볼만하다. 이 산은 안덕면 사계리에 있으며 높이 395m로 사방이 깎아지른 절벽으로 이루어져 있다. 절벽에는 지네발란, 풍란, 석곡 등의 희귀한 암벽식물이 자라며, 산 정상부에는 후박나무, 구실잣나무, 까마귀쪽나무 등의 상록수림이 울창하게 자란다. 산방산의 식생은 천연기념물 제161-5호로 지정돼 있으며, 제주도 유일의 섬회양나무 자생지이기도 하다. 산방굴도 볼만하다. 이 굴은 지반이 해수면 위로 솟아올라 굴이 산 중턱에 자리잡게 된 해식동굴이다. 전설에 의하면 산방산은 빨래를 하던 설문대할망이 어쩌다 방망이를 잘못 놀려 그 센 힘으로 한라산을 치는 바람에 한라산 봉우리가 날아와 떨어진 것이라고 한다. 산방산의 솟은 모양과 백록담의 움푹한 분화구의 크기가 같을 뿐 아니라 자생식물도 일치하고 있다. 여행에서 먹는 즐거움을 빼 놓을 수 없다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'에서 갈치조림정식을 주문하면 시원한 한치 물회를 서비스로 맛볼 수 있다. 이 업소의 한치 물회에는 오이, 배, 미나리, 파프리카 등 다양한 야채가 들어가고, 육수는 5가지 과일과 매실 효소를 숙성시킨 것을 사용한다. 그래서 맛이 아주 시원하고 깔끔하다. 갈치조림에는 천연 약초를 숙성한 양념을 사용하기 때문에 갈치 특유의 비린 냄새가 없고 맛이 담백하고 고소한 것이 특징이다. 게다가 양념은 천연 약초를 숙성한 것이기 때문에 맛은 물론 건강에도 좋아 밥에 양념을 비벼 먹는 손님들도 많다. 제주 중문 맛집 기원뚝배기 앞 수족관에는 문어, 전복, 새우 등 다양한 해산물이 준비되어 있다. 갈치조림에 싱싱한 해산물을 넣어 먹고 싶다면 해물갈치조림을 주문하면 된다. 해물갈치조림에는 한치 물회는 물론 옥돔구이와 성게국도 서비스로 제공된다. 제주 맛집 기원뚝배기는 서비스가 나오는 메뉴가 더 있다. 통갈치조림정식 A세트는 옥돔구이와 성게국을 기본으로 제공하고 있지만 함께 온 손님들이 푸짐하게 식사할 수 있도록 별도 비용 없이 추가로 옥돔구이와 성게국을 하나씩 더 손님 상에 올려 서비스하고 있다. 이 업소는 내 가족이 먹는다는 마음으로 요리는 물론 밑반찬도 직접 만들어 손님 상에 올리고 있다. 관광지 경우 일손이 많이 가는 밑반찬을 외부에서 공급 받는 곳들도 있지만, 제주도 중문 맛집 기원뚝배기는 국내산 재료를 직접 구입하여 전라도 엄마의 손맛을 담아 매일 아침 정성껏 만들고 있다. 한편 제주도 맛집 기원뚝배기는 무료 셔틀버스를 운영하고 있으며, 영업시간 중 호텔 픽업서비스를제공하고 있다. 영업시간은 오전 7시부터 오후 10시까지이며, 연중무휴로 운영되고 있다 넓은 전용 주차장도 마련되어 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>오라관광단지 사업자, 자본검증 '거부'...제주도 대응 주목 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 오라관광단지 사업자, 자본검증 '거부'...제주도 대응 주목 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 오라관광단지 사업자, 자본검증 '거부'...제주도 대응 주목 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.07.02 12:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 선입금 3천억 예치기한 넘겨...JCC "법적근거 없어" 제주도, 11일까지 자본검증 대안 제시 요구 제주도 개발사(史)에서 최대 규모의 난개발로 인해 중산간 환경훼손이 우려되는 제주오라관광단지 개발사업과 관련, 사업자가 사실상 자본검증을 거부하면서 원희룡 제주도정의 대응이 주목된다.2일 제주특별자치도에 따르면 오라관광단지 사업자인 JCC는 자본검증위원회가 요구한 지난달 말까지 사업비 중 분양수입을 제외한 금액의 10%인 3373억원을 지정 계좌에 입금하지 않았다.10% 선입금 요구는 지난해 12월 열린 오라단지 자본검증위원회 4차 회의에서 사업자의 자본조달 능력이 의심됨에 따라 결정된 것이다.자본검증위는 JCC가 10% 금액을 입금한 것이 확인한 후 회의를 열어 자본검증 결론에 대한 최종 의견서를 작성키로 했다.그러나 JCC측은 자본검증 절차가 법적 근거가 없다는 점을 들며 예치를 거부한 것으로 전해졌다.이에 제주도는 오는 10일까지 자본검증에 대한 대안을 제시할 것을 요구했고, 이를 이행하지 않으면 자본검증을 이행하지 않은 것으로 보고 자본검증위 회의를 개최해 절차를 진행할 계획이다.다만 이달 중순 제주도의회의 대규모개발사업장 행정사무조사 현장방문이 예정돼 있어 자본검증위 회의는 이달 말이나 8월 초에나 열 수 있을 전망이다.오라단지 자본검증과 관련해 원희룡 제주도지사는 지난 4월 열린 제371회 제주도의회 임시회 도정질문에서 자본검증위원회의 자본금 예치조건에 대해 "법적 구속력은 없으나 최종 판단과정에서 참고할 것"이라고 밝힌 바 있다.당시 원 지사는 "명문화된 조항은 없지만, 근거는 있다. 도지사가 투자 적격과 부실 여부 심의하고 책임지도록 돼 있는데, (자본검증은) 그 방식의 하나"라면서 "다만, 명시적 규정이 없어 법적 구속력은 없다. 그런 도지사로서 최종 판단과정에서 이 내용을 참고할 것"이라고 말했다.원 지사는 지난 1일 민선 7기 출범 1주년 기자회견에서도 "중국 내부 정치적 사정으로 투자회사의 경영진이 바뀌는 과정이 있었기 때문에 이 상황이 명확해질 때까지 신중해야 할 필요가 있다"며 "자본검증을 통해 도의회 심의를 받은 후 지사가 최종 평가를 내리겠다"고 밝혔다.한편 오라관광단지 조성사업은 약 6조2800억원을 투자해 제주시 오라2동 산 46-2번지 일대 357만5753㎡ 부지에 휴양콘도와 관광숙박시설, 골프장시설, 상업시설, 휴양문화시설 등을 조성하는 것을 주 내용으로 한다.단일 개발사업으로는 제주도 역대 최대의 투자규모이고, 개발예정지 또한 제주시 핵심 중산간 지역인 한라산국립공원 바로 밑 해발 350~580m에 위치하고 있어 대규모 개발사업으로 인한 막대한 환경피해가 우려되고 있다. 원희룡 도정의 미래비전계획 및 중산간 보전 가이드라인, 제주국립공원 확대 지정 등의 정책기조에 비춰볼 때 '부적절' 사업이란 지적이 많았다. 민선 6기 도정에서 추진된 환경영향평가 과정에서는 숱한 의혹이 제기됐다. 그러나 환경영향평가심의위는 석연치 않은 '재심의' 개최 등으로 조건부 통과를 시키면서 큰 논란을 초래한 바 있다.결국 지난 2017년 6월 제주도정이 제주도의회의 자본검증 제의를 수용하면서, '선(先) 자본검증, 후(後) 인.허가 절차'의 수순을 밟게 됐다.이에 따라 구성된 자본검증위원회는 4차례 걸쳐 회의를 열었으나 사업자가 6조원이 넘는 막대한 자본을 확보해 조달할 수 있는 능력에 대한 검증결과 사실상 '미흡' 판정을 내리고 사업비의 10%인 3373억원을 사전 예치할 것을 요청했다.그러나 사업자가 자본검증을 거부하면서, 이제 제주도정의 결단만 남게 됐다.시민사회는 물론 학계에서도 많은 우려를 표하고 있는 중산간 난개발의 오라관광단지 개발사업에 대해 제주도정이 자본검증 부분에 대해 어떻게 매듭짓고, 후속조치를 이어나갈지가 주목된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 "오라관광단지, 자본검증 자료 미제출시 결과 부정적일 것" 오라관광단지 자본검증, 사업자 제안 '퇴짜'..."그 정도론 안돼" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
   <si>
     <t>제주도 성산일출봉맛집 표선 세화해녀의 집, 7월 관광객 함박웃음 짓게 하는 대광어 물회 호평 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 성산일출봉맛집 표선 세화해녀의 집, 7월 관광객 함박웃음 짓게 하는 대광어 물회 호평 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 성산일출봉맛집 표선 세화해녀의 집, 7월 관광객 함박웃음 짓게 하는 대광어 물회 호평 김영준 기자 승인 2019.07.03 16:44 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 표선 세화해녀의 집 제공 7월에 들어서면서 본격적인 여름 휴가철이 시작되었다. 휴가를 보내기 위해 계획하는 인파들이 늘어나면서 여름에 깨끗한 바다와 시원한 용천수가 풍분한 제주도에 대힌 인기도 덩달아 올라가고 있다. 자연경관도 즐기면서 물놀이를 하기에 적합한 제주도는 특히나 음식에 대한 미식이 다양한 맛집들이 존재하면서 관광객들을 더욱 즐겁게 하는 곳이다. 특히나 최근에는 더운 날씨와 더불어 바닷가에서 산지조달이 가능한 광어로 만든 물회에 대한 인기가 높아지고 있는 추세다. 그 중에서도 대광어로 만든 대광어물회 맛집이 있어 사람들의 관심을 모으고 있다. 제주도 성산일출봉맛집 표선 세화해녀의 집은 제주도에서 대광어물회를 첫번째로 선보이는 맛집이다. 선보이는 대광어물회는 일반 광어가 아닌 크고 싱싱한 광어만을 사용한다. 크기가 큰 것은 일반적으로 보기 어려운 크기인 8자에 달하며 무게는 무려 5kg정도에 달한다. 이러한 대광어를 사용해 만든 물회를 제공하기에 큼직하고 푸짐하게 썰어 씹는 맛과 먹는 맛, 포만감의 3박자를 갖추었다고 평가받는다. 이 외에도 다양한 해산물들이 포함되어 있는 한치물회, 온갖 좋은 해산물들이 가득 들어간 전복성게물회 등을 제공하고 있어 대표적인 물회맛집으로도 인기를 끌고 있는 것으로 알려졌다. 세화해녀의 집은 일찍이 KBS2TV 생생정보통 등 여러 매체에 방영된 집이자 성산일출봉맛집으로도 잘 알려져 있는 곳이다. 뿐만 아니라 해물뚝배기, 전복죽, 성게 미역국 등의 식사를 제공하는데, 특히 식사 메뉴 중 제주산 오분자기가 가득 들어간 오분작 해물뚝배기는 음식의 빛깔과 향, 맛의 삼박자를 갖추었다고 평가받는다. 또한 여름 휴가철을 맞아 숙소 등에 대한 고민을 덜 수 있도록 주변에는 해비치 리조트와 샤인빌 리조트도 위치해 휴가를 즐기기에 딱 맞는 곳으로 잘 알려져 있다. 관계자는 "대광어물회, 대광어회덮밥과 같이 고객 분들의 입맛을 즐겁게 할 수 있는 신메뉴 출시를 지속적으로 하는 것은 물론이고 사시사철 즐길 수 있는 갈치조림, 옥돔구이, 성게미역국, 고등어구이 등 제주도를 찾아주시는 분들이라면 즐겨 드시는 다양한 식사메뉴를 갖추기 위해 노력하겠다. 이를 바탕으로 찾아주시는 모든 분들께 바다를 보며 즐기는 풍요로운 식사를 제공할 것”이라고 전했다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영준 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
   </si>
   <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치정식에 옥돔구이, 한치 물회 서비스 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치정식에 옥돔구이, 한치 물회 서비스 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치정식에 옥돔구이, 한치 물회 서비스 제공 곽종현 기자 승인 2019.07.13 08:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도는 중심에 한라산이 있어 바다 방향으로 향할수록 지대가 낮아진다. 제주도는 바람과 돌, 여인이 많아서 삼다도라고 불리며, 도둑과 거지, 문이 없다는 의미로 삼무도라고도 불린다. 삼다도와 삼무도는 제주도의 특성을 잘 드러내는데 바람과 돌이 많은 것은 섬 특유의 자연환경을 나타낸 말이고, 여인이 많은 것은 바다에 고기잡이 하러 나갔다가 돌아오지 못한 남자들이 많아 유래된 것이다. 제주도는 화산섬인 관계로 농경지가 많지 않고 대부분 과수원을 비롯한 밭으로 활용되고 있다. 주요 농작물은 보리, 콩, 조와 같은 잡곡이 주를 이룬다. 1960년대 제주도 전역에 감귤 생산이 크게 번지면서 농작물의 생산이 감소하였고, 과거의 주식이었던 조와 고구마 생산이 현저하게 줄어 요즘에는 거의 경작되지 않는다. 또한 긴 해안선을 따라 바다와 접해 있기 때문에 수산업이 발달해 많은 해산물이 잡히면서 해산물을 이용한 다양한 요리가 있다. 다양한 해산물 요리가 발달한 제주도에서 요즘 여행객들이 많이 찾는 메뉴는 갈치조림이다. 이 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 제주 인근 바다에서 잡은 다양한 해산물이 들어간 해물갈치조림을 선보여 여행객은 물론 현지인들도 많이 찾고 있다. 기원뚝배기의 해물갈치조림에는 천연 약초를 숙성한 양념을 사용하는 것이 특징이다. 실제 해산물은 특유의 비린 냄새가 나기 때문에 이를 없애야 하는데 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 맛은 물론 건강에도 좋은 갈치조림을 선보이고 있다. 낯선 여행지에서 제공하는 서비스는 특별한 감동을 선사한다. 제주 중문 맛집 기원뚝배기는 해물갈치조림 메뉴에 한치 물회를 서비스로 제공하고 있다. 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수를 사용하며, 오이, 미나리, 파프리카 등 여러 가지 야채를 넣어 더운 여름에 시원한 별미를 맛볼 수 있다. 그리고 해물갈치조림을 주문하면 옥돔구이와 성게국도 별도의 비용 없이 서비스로 먹을 수 있다. 이 외에도 통갈치조림정식 A세트나 B세트를 주문해도 한치 물회를 서비스로 먹을 수 있으며, 정식 A세트를 주문하면 기본 상차림에 더해 옥돔구이와 성게국을 하나씩 더 추가로 먹을 수 있다. 기원뚝배기의 해물갈치조림은 주문이 들어오면 식당 입구 수족관에 있는 싱싱한 해산물을 이용하여 바로 요리하는 것이 특징이다. 그리고 해물갈치조림에는 문어, 새우, 전복 등이 들어가기 때문에 푸짐한 식사가 가능하다. 제주도 맛집 기원뚝배기는 매일 새벽 국내산 재료를 직접 구입하여 밑반찬을 만들고 있다. 전라도 엄마의 손맛을 담아 정성스럽게 만든 밑반찬 덕분에 한번 방문한 손님들이 다시 방문하는 경우가 많다. 실제 밑반찬 만드는 일에는 손이 많이 가지만 내 가족이 먹는다는 마음으로 식당을 운영하는 업소 대표의 철학이 담겨 있어 가능하다. 기원뚝배기 상호에는 방문한 손님들이 맛있게 식사하기를 기원한다는 뜻이 담겨 있다. 기원뚝배기는 연중무휴로 오전 7시부터 오후 10시까지 영업하고 있다. 아침식사 메뉴도 다양한데 이가운데 해장메뉴로 많이 찾는 전복뚝배기는 10가지 재료를 넣어 육수를 끓여 맛이 얼큰하고 시원하다. 한편 기원뚝배기는 셔틀버스가 있어 호텔 픽업서비스를 무료로 제공하고 있으며, 넓은 전용 주차장도 마련되어 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 포토뉴스 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제주 관광지 성읍랜드 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제주 관광지 성읍랜드 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제주 관광지 성읍랜드 곽종현 기자 승인 2019.07.13 09:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 7월 장마철이 본격적으로 시작되면서 여름 휴가철을 맞아 많은 제주도 여행을 찾는 많은 관광객들이 급증할 예정이다. 예전과는 달리 매년 무더워지는 날씨 속에 더위를 달래줄 제주도만에 특산물 관련 향토음식을 먹을 수 있는 맛집이나 멋진 바다를 볼 수 있는 자연명소, 이색적인 재미가 제주도 관광지를 찾는 사람들이 늘어나고 있다. 그중 가족들하고 같이 즐길 수 있는 제주 핫플레이스로 주목을 받고 있는 성읍랜드가 가장 각광을 받고 있다. 그뿐만 아니라 계절 시즌에 맞는 유럽식 제주도 수국 밭을 꾸준히 확장하고 조성해서 꽃 밭에서 하나밖에 없는 인생 사진을 찍고 싶어 하는 요즘 여행 트렌드에 맞게 젊은 여행객들에게 더할 나위 없는 인기를 얻고 있다. 나중에 다가오는 9월 핑크뮬리밭도 가 꾸면서 큰 기대를 얻고 있다. 캐릭터 복장을 입고 탈수 있는 이색적인 제주도 카트체험은 제일 베스트 종목으로써 가족이나 연인들에게 가장 인기가 많다. 푸른 초원과 오프로드 비포장도로를 달릴 수 있는 제주 승마체험과 제주도 atv 사륜 오토바이까지 즐길 수 있는 컨텐츠가 풍부해 서 스릴 넘치는 익사이팅 한 체험을 원하는 사람들에게는 꾸준한 재방문을 할 수 있는 매력이 있다. 그 밖에 구내 시설로는 핑크색 러블리한 감성이 가득한 제주도 카페 분홍분홍해에서 드레스 체험과 왕반지 프러포즈 컨셉으로 사진을 찍을 수 있는 잔재미도 쏠쏠하다. 성읍랜드 관계 자는 " 요즘 여행 트렌드에 맞춰서 꾸준한 볼거리, 즐길 거리를 늘리고 찾아오는 방문객들로 하여금 잊지 못할 추억과 행복을 얻고 가게끔 최 고의 서비스로 응대하겠다 "라고 전했다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 포토뉴스 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 올해 상반기 우수관광사업체 18곳 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 올해 상반기 우수관광사업체 18곳 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도, 올해 상반기 우수관광사업체 18곳 선정 김지우 기자 승인 2019.07.02 14:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 올해 상반기 우수관광사업체 18곳을 선정해 도 홈페이지에 지정 공고했다고 2일 밝혔다. 분야별 지정업체 수는 관광이 13곳(신규 1, 재지정12)으로 대유ATV, 산굼부리, 대국해저관광, 방림원, 제주레일파크, 생각하는정원, 휴애리, 플레이케이팝, 일출랜드, 한림공원, 김녕미로공원, 김녕요트투어, 아프리카박물관 등이다. 교통은 3곳(신규2, 재지정 1)으로 오케이렌트카, 제주카카렌트카, 동양썬라이즈관광 등이다. 또 숙박 1곳으로 오션스위츠호텔, 음식 1곳으로 밥깡패 등이 신규 지정됐다. 우수관광사업체에는 지정서와 인증패가 수여되며 홍보 인센티브 혜택, 홍보지원금도 지급된다. 지정기간은 이달부터 오는 2021년 6월 30일까지 총 2년간이다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도, 한류 관광 대표 브랜드 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 한류 관광 대표 브랜드 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도, 한류 관광 대표 브랜드 선정 문유미 기자 승인 2019.07.09 17:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도가 올해 한류 관광 대표 브랜드로 선정됐다. 브랜드스타즈선정위원회는 ‘2019 대표 한류 브랜드’의 부문별 대표 브랜드를 선정해 9일 발표했다. 브랜드스타즈선정위원회는 한류를 사랑하는 외국인들에게 합리적인 정보를 제공하고 소비자 만족을 높이기 위해 좋은 품질과 최상의 서비스를 제공하는 ‘대표 한류 브랜드’를 선정, 중국을 비롯한 아시아 지역의 주요 매체를 통해 발표하고 있다. 올해 관광 부문 대표 한류 브랜드로는 ‘제주도’와 ‘서울시 강남구 가로수길’이 선정됐다. 쇼핑 부문에서는 롯데백화점·신라면세점이 선정됐으며, 엔터테인먼트 부문에서는 BTS(방탄소년단)와 영화 ‘기생충’, 스카이워터쇼가 한류 대표 브랜드로 꼽혔다. 산업별 대표 브랜드로는 삼성전자 갤럭시와 현대자동차 제네시스, 엘지전자 트롬세탁기, 동아제약 박카스 등이 선정됐다 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치정식에 옥돔구이, 한치 물회 서비스 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치정식에 옥돔구이, 한치 물회 서비스 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치정식에 옥돔구이, 한치 물회 서비스 제공 곽종현 기자 승인 2019.07.13 08:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도는 중심에 한라산이 있어 바다 방향으로 향할수록 지대가 낮아진다. 제주도는 바람과 돌, 여인이 많아서 삼다도라고 불리며, 도둑과 거지, 문이 없다는 의미로 삼무도라고도 불린다. 삼다도와 삼무도는 제주도의 특성을 잘 드러내는데 바람과 돌이 많은 것은 섬 특유의 자연환경을 나타낸 말이고, 여인이 많은 것은 바다에 고기잡이 하러 나갔다가 돌아오지 못한 남자들이 많아 유래된 것이다. 제주도는 화산섬인 관계로 농경지가 많지 않고 대부분 과수원을 비롯한 밭으로 활용되고 있다. 주요 농작물은 보리, 콩, 조와 같은 잡곡이 주를 이룬다. 1960년대 제주도 전역에 감귤 생산이 크게 번지면서 농작물의 생산이 감소하였고, 과거의 주식이었던 조와 고구마 생산이 현저하게 줄어 요즘에는 거의 경작되지 않는다. 또한 긴 해안선을 따라 바다와 접해 있기 때문에 수산업이 발달해 많은 해산물이 잡히면서 해산물을 이용한 다양한 요리가 있다. 다양한 해산물 요리가 발달한 제주도에서 요즘 여행객들이 많이 찾는 메뉴는 갈치조림이다. 이 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 제주 인근 바다에서 잡은 다양한 해산물이 들어간 해물갈치조림을 선보여 여행객은 물론 현지인들도 많이 찾고 있다. 기원뚝배기의 해물갈치조림에는 천연 약초를 숙성한 양념을 사용하는 것이 특징이다. 실제 해산물은 특유의 비린 냄새가 나기 때문에 이를 없애야 하는데 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 맛은 물론 건강에도 좋은 갈치조림을 선보이고 있다. 낯선 여행지에서 제공하는 서비스는 특별한 감동을 선사한다. 제주 중문 맛집 기원뚝배기는 해물갈치조림 메뉴에 한치 물회를 서비스로 제공하고 있다. 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수를 사용하며, 오이, 미나리, 파프리카 등 여러 가지 야채를 넣어 더운 여름에 시원한 별미를 맛볼 수 있다. 그리고 해물갈치조림을 주문하면 옥돔구이와 성게국도 별도의 비용 없이 서비스로 먹을 수 있다. 이 외에도 통갈치조림정식 A세트나 B세트를 주문해도 한치 물회를 서비스로 먹을 수 있으며, 정식 A세트를 주문하면 기본 상차림에 더해 옥돔구이와 성게국을 하나씩 더 추가로 먹을 수 있다. 기원뚝배기의 해물갈치조림은 주문이 들어오면 식당 입구 수족관에 있는 싱싱한 해산물을 이용하여 바로 요리하는 것이 특징이다. 그리고 해물갈치조림에는 문어, 새우, 전복 등이 들어가기 때문에 푸짐한 식사가 가능하다. 제주도 맛집 기원뚝배기는 매일 새벽 국내산 재료를 직접 구입하여 밑반찬을 만들고 있다. 전라도 엄마의 손맛을 담아 정성스럽게 만든 밑반찬 덕분에 한번 방문한 손님들이 다시 방문하는 경우가 많다. 실제 밑반찬 만드는 일에는 손이 많이 가지만 내 가족이 먹는다는 마음으로 식당을 운영하는 업소 대표의 철학이 담겨 있어 가능하다. 기원뚝배기 상호에는 방문한 손님들이 맛있게 식사하기를 기원한다는 뜻이 담겨 있다. 기원뚝배기는 연중무휴로 오전 7시부터 오후 10시까지 영업하고 있다. 아침식사 메뉴도 다양한데 이가운데 해장메뉴로 많이 찾는 전복뚝배기는 10가지 재료를 넣어 육수를 끓여 맛이 얼큰하고 시원하다. 한편 기원뚝배기는 셔틀버스가 있어 호텔 픽업서비스를 무료로 제공하고 있으며, 넓은 전용 주차장도 마련되어 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제주 관광지 성읍랜드 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제주 관광지 성읍랜드 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 7월 제주 가볼만한곳 레저도 즐기고 제주도 수국까지 구경할수 있는 다양한 제주 관광지 성읍랜드 곽종현 기자 승인 2019.07.13 09:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 7월 장마철이 본격적으로 시작되면서 여름 휴가철을 맞아 많은 제주도 여행을 찾는 많은 관광객들이 급증할 예정이다. 예전과는 달리 매년 무더워지는 날씨 속에 더위를 달래줄 제주도만에 특산물 관련 향토음식을 먹을 수 있는 맛집이나 멋진 바다를 볼 수 있는 자연명소, 이색적인 재미가 제주도 관광지를 찾는 사람들이 늘어나고 있다. 그중 가족들하고 같이 즐길 수 있는 제주 핫플레이스로 주목을 받고 있는 성읍랜드가 가장 각광을 받고 있다. 그뿐만 아니라 계절 시즌에 맞는 유럽식 제주도 수국 밭을 꾸준히 확장하고 조성해서 꽃 밭에서 하나밖에 없는 인생 사진을 찍고 싶어 하는 요즘 여행 트렌드에 맞게 젊은 여행객들에게 더할 나위 없는 인기를 얻고 있다. 나중에 다가오는 9월 핑크뮬리밭도 가 꾸면서 큰 기대를 얻고 있다. 캐릭터 복장을 입고 탈수 있는 이색적인 제주도 카트체험은 제일 베스트 종목으로써 가족이나 연인들에게 가장 인기가 많다. 푸른 초원과 오프로드 비포장도로를 달릴 수 있는 제주 승마체험과 제주도 atv 사륜 오토바이까지 즐길 수 있는 컨텐츠가 풍부해 서 스릴 넘치는 익사이팅 한 체험을 원하는 사람들에게는 꾸준한 재방문을 할 수 있는 매력이 있다. 그 밖에 구내 시설로는 핑크색 러블리한 감성이 가득한 제주도 카페 분홍분홍해에서 드레스 체험과 왕반지 프러포즈 컨셉으로 사진을 찍을 수 있는 잔재미도 쏠쏠하다. 성읍랜드 관계 자는 " 요즘 여행 트렌드에 맞춰서 꾸준한 볼거리, 즐길 거리를 늘리고 찾아오는 방문객들로 하여금 잊지 못할 추억과 행복을 얻고 가게끔 최 고의 서비스로 응대하겠다 "라고 전했다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>치매재활병원</t>
   </si>
   <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 서비스 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 서비스 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 서비스 곽종현 승인 2019.07.03 09:45 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도 하면 가장 먼저 떠오르는 것은 바로 한라산이다. 사실 제주가 한라산이고 한라산이 제주라 해도 과언이 아니다. 남한에서 가장 높은 한라산(1950m)은 제주 어디서나 보이고, 보는 방향에 따라 다르게 보인다. 제주를 가장 제주답게 만드는 한라산은 보는 곳에 따라 멀거나 가깝게 보인다. 서귀포는 따뜻한 기후와 뛰어난 자연 환경을 바탕으로 국제적인 관광지로 이름을 알리고 있다. 한라산을 기준으로 남쪽에 있는 서귀포 지역은 ‘산남 지역’이라고 불리기도 한다. 서귀포의 대표적인 산업은 감귤 농사와 관광 산업인데 서귀포는 기후가 따뜻하여 난대 식물인 감귤 재배 농가가 많다. 제주 감귤은 조선 시대에 이미 임금에게 바치는 귀한 물품이었고, 1960년대까지만 해도 재배 농가가 많지 않았다. 이후 1970년대부터 감귤 재배 농가가 많이 늘어나면서 서귀포의 감귤 생산량은 전국의 60%를 차지하고 있다. 서귀포에 가면 넓은 감귤 농원을 볼 수 있으며, 감귤 따기 체험도 가능하여 많은 관광객이 찾고 있다. 화산섬 제주는 해산물 요리가 발달한 곳이다. 이 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 제주산 생갈치에 천연 약초를 숙성한 양념을 사용한 해물갈치조림을 선보이고 있다. 실제 갈치 등의 해산물은 특유의 비린 냄새가 있어 이를 잡아야 고소한 맛을 느낄 수 있는데 기원뚝배기는 천연 약초를 통해 해산물 특유의 비린 냄새를 잡아 맛이 고소하고 담백하다. 양념은 천연 약초를 숙성하였기 때문에 건강에도 좋아 밥과 양념을 비벼 먹는 손님이 많은 것으로 알려졌다. 여름 휴가를 맞이하여 감사 이벤트로 제공하는 서비스 메뉴도 눈 여겨 볼만 하다. 제주도 맛집 기원뚝배기에서 해물갈치조림을 주문하면 여름철 별미인 한치 물회와 함께 옥돔구이, 성게국이 무료로 제공된다. 그리고 통갈치조림정식 A세트 혹은 B세트를 주문해도 한치 물회가 서비스로 제공되며, A세트 경우 기본 상차림에 나오는 옥돔구이와 성게국에 더해 추가로 옥돔구이와 성게국을 하나씩 더 서비스 제공한다. 제주 맛집 기원뚝배기의 해물갈치조림에는 수족관에 있는 싱싱한 문어와 새우, 생전복 등이 함께 요리되기 때문에 더욱 맛깔스런 맛을 즐길 수 있다. 그리고 이 업소의 한치 물회에는 오이, 배, 미나리, 파프리카 등 다양한 야채가 들어가고, 물회에는 5가지의 과일과 매실 효소를 숙성시킨 육수를 사용하기 때문에 맛이 독특하면서 아주 시원하다는 평이다. 제주도 맛집 기원뚝배기는 내 가족이 먹는다는 마음으로 요리뿐만 아니라 밑반찬에도 신경을 쓰고 있다. 매일 국내산 재료를 직접 구입하여 정성을 담아 밑반찬을 만들고 있어 한번 방문한 손님은 전라도 엄마의 손맛을 다시 맛보고자 다시 방문하고 있다. 기원뚝배기 상호는 방문한 손님들이 맛있게 식사할 수 있기를 바라는 마음을 담고 있듯이 항상 친절한 서비스를 제공하고 있다. 제주도 중문관광단지 맛집 기원뚝배기는 오랜 시간 끓여서 국물이 진한 각종 전골 메뉴와 아침식사 메뉴도 준비하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있다. 영업시간은 오전 7시부터 오후 10시까지로 연중 무휴이다. 그리고 무료 셔틀버스를 운행하고 있어 영업 시간 중 호텔 픽업서비스를 제공하며, 전용 주차장도 마련되어 있어 편리한 주차가 가능하다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 포토뉴스 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 별미 한치 물회, 옥돔구이 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 별미 한치 물회, 옥돔구이 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 별미 한치 물회, 옥돔구이 제공 곽종현 승인 2019.07.06 08:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 본격적인 더위가 시작되면서 시원한 바다는 물론 몸과 마음을 치유하고자 숲길을 걷기 위해 제주를 방문하는 이들이 많다. 제주시 조천읍 교래리 비자림로에서 서귀포시 남원읍 한남리 사려니 오름까지 이어지는 사려니 숲길은 치유와 명상의 숲길로 각광을 받고 있다. 사려니 숲길은 해발 고도 500~600m에 위치하고 있으며, 완만한 평탄 지형으로 주변에는 물찻 오름, 말찻 오름, 괴평이 오름, 마은이 오름 등과 천미천 계곡, 서중천 계곡 등이 분포하고 있다. 숲을 걷다 보면 삼나무와 편백나무 숲, 4·3 주둔지, 표고 재배장 등 다양한 역사·인문·생태 자원을 만날 수 있다. 사려니 숲길은 느림의 미학과 산림 생태 문화를 경험할 수 있으며, 전형적인 온대 산지인 사려니 숲길에는 자연림으로 졸참나무, 서어나무 등이 있다. 또한 산딸나무, 때죽나무, 단풍나무 등이 자생하고 있으며, 오소리와 제주족제비를 비롯한 포유류, 팔색조와 참매를 비롯한 조류, 쇠살모사를 비롯한 파충류 등 다양한 동물도 서식하고 있어 자연을 만끽하려는 여행객들의 발길이 이어지고 있다. 더운 여름에는 역시 건강을 챙겨주는 먹거리를 찾게 된다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 해물갈치조림이 주력 메뉴다. 해물갈치조림은 천연 약초를 숙성한 양념을 사용하고 있어 맛은 물론 건강에도 좋아 현대인의 입맛을 사로잡고 있다. 실제 갈치 등의 해산물은 특유의 비린 냄새가 있어 이를 잡아야 맛이 고사한 법인데 이 업소는 천연 약초를 숙성한 양념을 사용하여 해산물 특유의 비린 냄새를 잡고 고소한 맛을 느낄 수 있다. 해물갈치조림에는 문어, 전복, 새우 등이 함께 들어가기 때문에 아주 푸짐하다. 특히 업소 입구에는 수족관이 있어 주문이 들어오면 수족관에 있는 살아 있는 싱싱한 해산물을 사용하는 것도 특징이다. 중문 맛집 기원뚝배기는 여름 휴가 맞이 감사 이벤트를 진행하고 있다. 먼저 해물갈치조림을 주문하면 여름철 별미인 한치 물회를 서비스로 제공하며, 옥돔구이, 성게국도 함께 무료 제공한다. 그리고 통갈치조림정식 A세트 혹은 B세트를 주문해도 한치 물회를 서비스로 맛볼 수 있고, 정식 A세트에는 기본 상차림에 나오는 옥돔구이와 성게국 외에도 옥돔구이와 성게국을 추가로 하나씩 더 제공하여 푸짐한 식사가 가능하다. 여름에는 역시 물회가 인기다. 이 업소의 한치 물회에는 오이, 배, 미나리, 파프리카 등 다양한 야채가 들어가고, 5가지의 과일과 매실 효소를 숙성시킨 육수를 사용하여 맛이 아주 시원하고 깔끔하다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 밑반찬을 직접 만들고 있다. 업소 대표는 내 가족이 먹는다는 마음으로 방문한 손님들이 맛있게 식사하기를 바라는 마음을 갖고 있으며, 이는 기원뚝배기 상호에서도 엿볼 수 있다. 실제 친절한 서비스와 전라도 엄마의 손맛이 담긴 요리를 먹고자 한번 방문한 손님들이 다시 방문하는 경우가 많다. 제주도 중문관광단지 맛집 기원뚝배기는 아침 식사 손님들도 많이 찾고 있다. 아침 식사 메뉴 중 전복뚝배기는 10가지 재료를 넣어 끓인 육수 맛이 얼큰하고 시원하여 아침 손님들의 해장 메뉴로 인기다. 영업시간은 오전 7시부터 오후 10시까지며, 연중무휴이다. 아울러 무료 셔틀버스를 통해 호텔 픽업서비스를 제공하고 있으며, 넓은 전용 주차장도 마련되어 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 포토뉴스 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스] - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 'SG골프 더매치 2022 챔피언십' 인천팀 7차 대회 결승 진출 청강문화산업대, 웹툰 ‘지금 우리 학교는’ 주동근 작가 초대전 열어 한밤중 만취해 경기 남양주서 물품 보관창고에 불 지른 40대 방화범 체포 外 [오늘의 주요뉴스] 비상주사무실 위드짚, 10월 무상지원 프로모션 진행 학생공모전 수상한 윤 대통령 풍자 그림, 만화 전시 찬반 논란 2022년 10월 첫째 주 육아 관련 정책 [육아 정책브리핑] 당치땡, 신메뉴 ‘텍사스 치베큐’ 출시’ 중소기업유통센터, 소상공인 지원하는 ‘벤자민권 시즌2’ 마무리 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 셀코스메트 셀맨, ‘울트라 바이탈 크림’ 등 신제품 10종 출시 가해자와 함께 있어 경찰에 도움 요청하기 어려울 때 ‘똑똑’ 보이는 112 [지식용어] [정책브리핑] 2022년 10월 04일 화요일 주요 정책 10월 04일 화요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] [오늘의 사자성어] 동행서주[東行西走] 한국열린사이버대학교 평생교육원 ‘10월 20일 개강’ 사회복지사 2급 교육 수강생 모집 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스] 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 시사 시사·교양 제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스] 보도본부 | 김아련 기자 승인 2019.07.26 15:51 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [오늘의 주요뉴스] 제주도의회, 야간 관광 활성화 전략 토론 [사진/연합뉴스 제공] 제주도의회 문화관광체육위원회는 26일 오후 도의회 대회의실에서 제주 야간관광 활성화 방안 모색을 위한 전문가 토론회를 열었다. 토론회에는 이보연 제주한라대 관광경영학과 교수가 '해외 사례로 본 제주 야간관광 활성화 전략'에 대해 발표했다. 이와 함께 야간 시티투어버스 운행, 관광객의 안전 도모를 위한 야간 안전 수칙 마련, 야간관광 할인카드 도입, 재래시장과 연계한 야시장 육성 등 야간광광 활성화를 위한 지원체계와 인프라를 동시에 구축해야 한다고 강조했다. 中해양조사선 일본 EEZ서 조사활동, 유감 표명 일본 정부가 중국의 해양조사선이 자국 배타적경제수역(EEZ)에서 허락 없이 조사 활동을 했다며 외교 루트를 통해 중국 정부에 항의했다고 NHK가 26일 보도했다. NHK에 따르면 일본 해상보안청 순시선은 이날 오후 3시께 중국 해양조사선이 나가사키(長崎)현 단조(男女)군도 메시마(女島) 서쪽 120㎞ 지점 일본의 EEZ에서 밧줄로 보이는 물건을 바닷속에 넣는 것을 확인했다. 이에 대해 일본 외무성은 주일본 중국 대사관 참사관에게, 주중국 일본 대사관은 중국 외무성 과장에게 각각 유감을 표명하고 조사를 중단할 것을 요구했다. 남자 계영 800ｍ서 한국신기록 [사진/연합뉴스 제공] 남자 계영 800ｍ 한국 기록이 1년 만에 새로 쓰였다. 한국 경영 대표팀은 26일 오전 광주광역시 남부대 시립국제수영장에서 열린 2019 광주세계수영선수권대회 남자 계영 800ｍ 예선에서 7분15초05의 한국 신기록을 세웠다. 계영 800ｍ는 네 명의 선수가 한 팀을 꾸려 자유형으로 200ｍ씩 레이스를 펼쳐 기록을 다투는 단체전이다. 우리나라는 이날 이유연(한국체대), 장동혁, 황선우(이상 서울체고), 이호준(영훈고) 순으로 물살을 갈라 한국 기록을 갈아치웠다. Tag #계영 #해양조사선 #중국 #EEZ #제주도 #야간관광 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 한밤중 만취해 경기 남양주서 물품 보관창고에 불 지른 40대 방화범 체포 外 [오늘의 주요뉴스] 한밤중 만취해 경기 남양주서 물품 보관창고에 불 지른 40대 방화범 체포 外 [오늘의 주요뉴스] [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] [카드뉴스] 반려조류는 어떻게 키워야 할까 #십자매 #카나리아 #문조 北 위협에도 DMZ 찾은 해리스 미 부통령, 굳건한 안보 확인 "평화로운 한반도 추구" [글로벌이야기] 오늘의 주요뉴스 기사더보기 &gt; 김아련 기자 yeon@sisunnews.co.kr [카드뉴스] 모래대신 소금이 가득한, 신기한 사막 ‘우유니 사막’ [카드뉴스] 민주주의를 향한 불꽃으로 역사 속에 남은 ‘2.28민주... [카드뉴스] 답답한 일상 벗어나 ‘한달살이’ 결심했다면? 주의사항 체... 오늘 이 영화 어때요? 1 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 2 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 1 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 2 [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ 많이 본 뉴스 종합 시사 1[오늘의 사자성어] 성의정심[誠意正心] 2[정책브리핑] 2022년 10월 03일 월요일 주요 정책 3[10년 전 오늘] 우리나라가 세워진 단기 4345년 개천절, 전국 곳곳서 경축행사 거행 4이번 주 별자리운세 '10월 03일~10월 09일' [인포그래픽] 5병역기피 논란 유승준, 명확한 ‘외국인과 재외국민’ 국적 요청 재판부 [지식용어] 62022년 10월 03일, 오늘의 띠별 운세 [인포그래픽] 7[무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 8車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 9[시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 10에듀윌, 경찰공무원 ‘김민현 경찰학 행정법 특강’ 무료 배포...“행정법 집중 학습” 1한밤중 만취해 경기 남양주서 물품 보관창고에 불 지른 40대 방화범 체포 外 [오늘의 주요뉴스] 2[정책브리핑] 2022년 10월 04일 화요일 주요 정책 3[오늘의 사자성어] 동행서주[東行西走] 4[카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 5[정책브리핑] 2022년 10월 03일 월요일 주요 정책 6[오늘의 사자성어] 성의정심[誠意正心] 7시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] 82022년 10월 첫째 주 동물 관련 정책 CHECK! [정책브리핑, 동물] 9[오늘의 명언] 세네카(Seneca)의 명언 10[오늘의 사자성어] 면벽수도[面壁修道] 스타 인터뷰 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+    <t>제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스] - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 한국매버릭, '스마트 초인종 레이더벨' 2022 국제치안산업대전에서 선보여 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스] 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 시사 시사·교양 제주도의회, 야간 관광 활성화 전략 토론 外 [오늘의 주요뉴스] 보도본부 | 김아련 기자 승인 2019.07.26 15:51 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [오늘의 주요뉴스] 제주도의회, 야간 관광 활성화 전략 토론 [사진/연합뉴스 제공] 제주도의회 문화관광체육위원회는 26일 오후 도의회 대회의실에서 제주 야간관광 활성화 방안 모색을 위한 전문가 토론회를 열었다. 토론회에는 이보연 제주한라대 관광경영학과 교수가 '해외 사례로 본 제주 야간관광 활성화 전략'에 대해 발표했다. 이와 함께 야간 시티투어버스 운행, 관광객의 안전 도모를 위한 야간 안전 수칙 마련, 야간관광 할인카드 도입, 재래시장과 연계한 야시장 육성 등 야간광광 활성화를 위한 지원체계와 인프라를 동시에 구축해야 한다고 강조했다. 中해양조사선 일본 EEZ서 조사활동, 유감 표명 일본 정부가 중국의 해양조사선이 자국 배타적경제수역(EEZ)에서 허락 없이 조사 활동을 했다며 외교 루트를 통해 중국 정부에 항의했다고 NHK가 26일 보도했다. NHK에 따르면 일본 해상보안청 순시선은 이날 오후 3시께 중국 해양조사선이 나가사키(長崎)현 단조(男女)군도 메시마(女島) 서쪽 120㎞ 지점 일본의 EEZ에서 밧줄로 보이는 물건을 바닷속에 넣는 것을 확인했다. 이에 대해 일본 외무성은 주일본 중국 대사관 참사관에게, 주중국 일본 대사관은 중국 외무성 과장에게 각각 유감을 표명하고 조사를 중단할 것을 요구했다. 남자 계영 800ｍ서 한국신기록 [사진/연합뉴스 제공] 남자 계영 800ｍ 한국 기록이 1년 만에 새로 쓰였다. 한국 경영 대표팀은 26일 오전 광주광역시 남부대 시립국제수영장에서 열린 2019 광주세계수영선수권대회 남자 계영 800ｍ 예선에서 7분15초05의 한국 신기록을 세웠다. 계영 800ｍ는 네 명의 선수가 한 팀을 꾸려 자유형으로 200ｍ씩 레이스를 펼쳐 기록을 다투는 단체전이다. 우리나라는 이날 이유연(한국체대), 장동혁, 황선우(이상 서울체고), 이호준(영훈고) 순으로 물살을 갈라 한국 기록을 갈아치웠다. Tag #계영 #해양조사선 #중국 #EEZ #제주도 #야간관광 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 김아련 기자 yeon@sisunnews.co.kr [카드뉴스] 모래대신 소금이 가득한, 신기한 사막 ‘우유니 사막’ [카드뉴스] 민주주의를 향한 불꽃으로 역사 속에 남은 ‘2.28민주... [카드뉴스] 답답한 일상 벗어나 ‘한달살이’ 결심했다면? 주의사항 체... 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 많이 본 뉴스 종합 시사 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1[카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 3서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 4[정책브리핑] 2022년 10월 11일 화요일 주요 정책 5[오늘의 사자성어] 한신포복[韓信匍匐] 6[카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 7[정책브리핑] 2022년 10월 10일 월요일 주요 정책 8[오늘의 사자성어] 피갈회옥[被褐懷玉] 9시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 102022년 10월 둘째 주 동물 관련 정책 CHECK! [정책브리핑, 동물] 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 서비스 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 서비스 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치 물회, 옥돔구이 서비스 곽종현 승인 2019.07.03 09:45 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도 하면 가장 먼저 떠오르는 것은 바로 한라산이다. 사실 제주가 한라산이고 한라산이 제주라 해도 과언이 아니다. 남한에서 가장 높은 한라산(1950m)은 제주 어디서나 보이고, 보는 방향에 따라 다르게 보인다. 제주를 가장 제주답게 만드는 한라산은 보는 곳에 따라 멀거나 가깝게 보인다. 서귀포는 따뜻한 기후와 뛰어난 자연 환경을 바탕으로 국제적인 관광지로 이름을 알리고 있다. 한라산을 기준으로 남쪽에 있는 서귀포 지역은 ‘산남 지역’이라고 불리기도 한다. 서귀포의 대표적인 산업은 감귤 농사와 관광 산업인데 서귀포는 기후가 따뜻하여 난대 식물인 감귤 재배 농가가 많다. 제주 감귤은 조선 시대에 이미 임금에게 바치는 귀한 물품이었고, 1960년대까지만 해도 재배 농가가 많지 않았다. 이후 1970년대부터 감귤 재배 농가가 많이 늘어나면서 서귀포의 감귤 생산량은 전국의 60%를 차지하고 있다. 서귀포에 가면 넓은 감귤 농원을 볼 수 있으며, 감귤 따기 체험도 가능하여 많은 관광객이 찾고 있다. 화산섬 제주는 해산물 요리가 발달한 곳이다. 이 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 제주산 생갈치에 천연 약초를 숙성한 양념을 사용한 해물갈치조림을 선보이고 있다. 실제 갈치 등의 해산물은 특유의 비린 냄새가 있어 이를 잡아야 고소한 맛을 느낄 수 있는데 기원뚝배기는 천연 약초를 통해 해산물 특유의 비린 냄새를 잡아 맛이 고소하고 담백하다. 양념은 천연 약초를 숙성하였기 때문에 건강에도 좋아 밥과 양념을 비벼 먹는 손님이 많은 것으로 알려졌다. 여름 휴가를 맞이하여 감사 이벤트로 제공하는 서비스 메뉴도 눈 여겨 볼만 하다. 제주도 맛집 기원뚝배기에서 해물갈치조림을 주문하면 여름철 별미인 한치 물회와 함께 옥돔구이, 성게국이 무료로 제공된다. 그리고 통갈치조림정식 A세트 혹은 B세트를 주문해도 한치 물회가 서비스로 제공되며, A세트 경우 기본 상차림에 나오는 옥돔구이와 성게국에 더해 추가로 옥돔구이와 성게국을 하나씩 더 서비스 제공한다. 제주 맛집 기원뚝배기의 해물갈치조림에는 수족관에 있는 싱싱한 문어와 새우, 생전복 등이 함께 요리되기 때문에 더욱 맛깔스런 맛을 즐길 수 있다. 그리고 이 업소의 한치 물회에는 오이, 배, 미나리, 파프리카 등 다양한 야채가 들어가고, 물회에는 5가지의 과일과 매실 효소를 숙성시킨 육수를 사용하기 때문에 맛이 독특하면서 아주 시원하다는 평이다. 제주도 맛집 기원뚝배기는 내 가족이 먹는다는 마음으로 요리뿐만 아니라 밑반찬에도 신경을 쓰고 있다. 매일 국내산 재료를 직접 구입하여 정성을 담아 밑반찬을 만들고 있어 한번 방문한 손님은 전라도 엄마의 손맛을 다시 맛보고자 다시 방문하고 있다. 기원뚝배기 상호는 방문한 손님들이 맛있게 식사할 수 있기를 바라는 마음을 담고 있듯이 항상 친절한 서비스를 제공하고 있다. 제주도 중문관광단지 맛집 기원뚝배기는 오랜 시간 끓여서 국물이 진한 각종 전골 메뉴와 아침식사 메뉴도 준비하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있다. 영업시간은 오전 7시부터 오후 10시까지로 연중 무휴이다. 그리고 무료 셔틀버스를 운행하고 있어 영업 시간 중 호텔 픽업서비스를 제공하며, 전용 주차장도 마련되어 있어 편리한 주차가 가능하다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 별미 한치 물회, 옥돔구이 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 별미 한치 물회, 옥돔구이 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 별미 한치 물회, 옥돔구이 제공 곽종현 승인 2019.07.06 08:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 본격적인 더위가 시작되면서 시원한 바다는 물론 몸과 마음을 치유하고자 숲길을 걷기 위해 제주를 방문하는 이들이 많다. 제주시 조천읍 교래리 비자림로에서 서귀포시 남원읍 한남리 사려니 오름까지 이어지는 사려니 숲길은 치유와 명상의 숲길로 각광을 받고 있다. 사려니 숲길은 해발 고도 500~600m에 위치하고 있으며, 완만한 평탄 지형으로 주변에는 물찻 오름, 말찻 오름, 괴평이 오름, 마은이 오름 등과 천미천 계곡, 서중천 계곡 등이 분포하고 있다. 숲을 걷다 보면 삼나무와 편백나무 숲, 4·3 주둔지, 표고 재배장 등 다양한 역사·인문·생태 자원을 만날 수 있다. 사려니 숲길은 느림의 미학과 산림 생태 문화를 경험할 수 있으며, 전형적인 온대 산지인 사려니 숲길에는 자연림으로 졸참나무, 서어나무 등이 있다. 또한 산딸나무, 때죽나무, 단풍나무 등이 자생하고 있으며, 오소리와 제주족제비를 비롯한 포유류, 팔색조와 참매를 비롯한 조류, 쇠살모사를 비롯한 파충류 등 다양한 동물도 서식하고 있어 자연을 만끽하려는 여행객들의 발길이 이어지고 있다. 더운 여름에는 역시 건강을 챙겨주는 먹거리를 찾게 된다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 해물갈치조림이 주력 메뉴다. 해물갈치조림은 천연 약초를 숙성한 양념을 사용하고 있어 맛은 물론 건강에도 좋아 현대인의 입맛을 사로잡고 있다. 실제 갈치 등의 해산물은 특유의 비린 냄새가 있어 이를 잡아야 맛이 고사한 법인데 이 업소는 천연 약초를 숙성한 양념을 사용하여 해산물 특유의 비린 냄새를 잡고 고소한 맛을 느낄 수 있다. 해물갈치조림에는 문어, 전복, 새우 등이 함께 들어가기 때문에 아주 푸짐하다. 특히 업소 입구에는 수족관이 있어 주문이 들어오면 수족관에 있는 살아 있는 싱싱한 해산물을 사용하는 것도 특징이다. 중문 맛집 기원뚝배기는 여름 휴가 맞이 감사 이벤트를 진행하고 있다. 먼저 해물갈치조림을 주문하면 여름철 별미인 한치 물회를 서비스로 제공하며, 옥돔구이, 성게국도 함께 무료 제공한다. 그리고 통갈치조림정식 A세트 혹은 B세트를 주문해도 한치 물회를 서비스로 맛볼 수 있고, 정식 A세트에는 기본 상차림에 나오는 옥돔구이와 성게국 외에도 옥돔구이와 성게국을 추가로 하나씩 더 제공하여 푸짐한 식사가 가능하다. 여름에는 역시 물회가 인기다. 이 업소의 한치 물회에는 오이, 배, 미나리, 파프리카 등 다양한 야채가 들어가고, 5가지의 과일과 매실 효소를 숙성시킨 육수를 사용하여 맛이 아주 시원하고 깔끔하다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 밑반찬을 직접 만들고 있다. 업소 대표는 내 가족이 먹는다는 마음으로 방문한 손님들이 맛있게 식사하기를 바라는 마음을 갖고 있으며, 이는 기원뚝배기 상호에서도 엿볼 수 있다. 실제 친절한 서비스와 전라도 엄마의 손맛이 담긴 요리를 먹고자 한번 방문한 손님들이 다시 방문하는 경우가 많다. 제주도 중문관광단지 맛집 기원뚝배기는 아침 식사 손님들도 많이 찾고 있다. 아침 식사 메뉴 중 전복뚝배기는 10가지 재료를 넣어 끓인 육수 맛이 얼큰하고 시원하여 아침 손님들의 해장 메뉴로 인기다. 영업시간은 오전 7시부터 오후 10시까지며, 연중무휴이다. 아울러 무료 셔틀버스를 통해 호텔 픽업서비스를 제공하고 있으며, 넓은 전용 주차장도 마련되어 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>진에어예약센터</t>
@@ -100,16 +376,16 @@
     <t>신세계백화점강남점 셀린느</t>
   </si>
   <si>
-    <t>한국관광공사가 제주도 야자수를 제거하는 이유는 ‘태풍’때문 - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 'SG골프 더매치 2022 챔피언십' 인천팀 7차 대회 결승 진출 청강문화산업대, 웹툰 ‘지금 우리 학교는’ 주동근 작가 초대전 열어 한밤중 만취해 경기 남양주서 물품 보관창고에 불 지른 40대 방화범 체포 外 [오늘의 주요뉴스] 비상주사무실 위드짚, 10월 무상지원 프로모션 진행 학생공모전 수상한 윤 대통령 풍자 그림, 만화 전시 찬반 논란 2022년 10월 첫째 주 육아 관련 정책 [육아 정책브리핑] 당치땡, 신메뉴 ‘텍사스 치베큐’ 출시’ 중소기업유통센터, 소상공인 지원하는 ‘벤자민권 시즌2’ 마무리 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 셀코스메트 셀맨, ‘울트라 바이탈 크림’ 등 신제품 10종 출시 가해자와 함께 있어 경찰에 도움 요청하기 어려울 때 ‘똑똑’ 보이는 112 [지식용어] [정책브리핑] 2022년 10월 04일 화요일 주요 정책 10월 04일 화요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] [오늘의 사자성어] 동행서주[東行西走] 한국열린사이버대학교 평생교육원 ‘10월 20일 개강’ 사회복지사 2급 교육 수강생 모집 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 한국관광공사가 제주도 야자수를 제거하는 이유는 ‘태풍’때문 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 이슈돋보기 한국관광공사가 제주도 야자수를 제거하는 이유는 ‘태풍’때문 보도본부 | 김정연 기자 승인 2019.07.17 07:47 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 16일 한국관광공사 제주지사에 따르면 안전사고 예방을 위해 지난 1982년부터 식재돼 35년 넘게 중문관광단지의 스카이라인을 구성하고 있는 야자수(워싱톤 야자수)들을 제거한다. 수목이 노후화와 지난해 추운 날씨와 강한 바람으로 야자수 상단부가 절단되고 또 태풍의 영향으로 약 100여 그루가 전도되거나 절단돼 보행자와 운전자의 안전사고 우려됐기 때문이다. 연합뉴스 제공 특히 작년 태풍 솔릭과 콩레이의 영향으로 약 100여 그루가 전도되거나 절단되는 등 보행자와 운전자의 안전사고 우려가 계속 높아진 상태다. 이에 한국관광공사 제주지사는 태풍이 오기전인 7월 말까지 야자수를 모두 제거하고 오는 9~10월 경 신규 야자수를 식재할 예정이다. 관계자는 "관광객의 안전을 우선 고려해 어려운 결정을 내렸다"며 "워싱턴 야자수가 제거된 곳에는 기존에 식재돼 있는 카나리아 야자수나 종려나무 등으로 대체해 이국적인 풍경을 유지할 것"이라며 "야자수 그루터기 활용방안에 대해도 검토할 계획"이라고 했다. Tag #야자수 #중문 #제주도 #솔릭 #콩레이 #제주 #워싱턴야자수 #카나리아야자수 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 한밤중 만취해 경기 남양주서 물품 보관창고에 불 지른 40대 방화범 체포 外 [오늘의 주요뉴스] 한밤중 만취해 경기 남양주서 물품 보관창고에 불 지른 40대 방화범 체포 外 [오늘의 주요뉴스] [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] [카드뉴스] 반려조류는 어떻게 키워야 할까 #십자매 #카나리아 #문조 北 위협에도 DMZ 찾은 해리스 미 부통령, 굳건한 안보 확인 "평화로운 한반도 추구" [글로벌이야기] 오늘의 주요뉴스 기사더보기 &gt; 김정연 기자 sisunnews@sisunnews.co.kr 청강문화산업대, 웹툰 ‘지금 우리 학교는’ 주동근 작가 초대전 열어 비상주사무실 위드짚, 10월 무상지원 프로모션 진행 학생공모전 수상한 윤 대통령 풍자 그림, 만화 전시 찬반 논란 오늘 이 영화 어때요? 1 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 2 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 1 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 2 [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ 많이 본 뉴스 종합 뉴스 1[오늘의 사자성어] 성의정심[誠意正心] 2[정책브리핑] 2022년 10월 03일 월요일 주요 정책 3[10년 전 오늘] 우리나라가 세워진 단기 4345년 개천절, 전국 곳곳서 경축행사 거행 4이번 주 별자리운세 '10월 03일~10월 09일' [인포그래픽] 5병역기피 논란 유승준, 명확한 ‘외국인과 재외국민’ 국적 요청 재판부 [지식용어] 62022년 10월 03일, 오늘의 띠별 운세 [인포그래픽] 7[무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 8車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 9[시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 10에듀윌, 경찰공무원 ‘김민현 경찰학 행정법 특강’ 무료 배포...“행정법 집중 학습” 1학생공모전 수상한 윤 대통령 풍자 그림, 만화 전시 찬반 논란 2씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 3이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 4제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 5엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 6브로드웨이의 전설, 스티븐 손드하임이 남긴 위대한 걸작 ‘스위니토드’가 돌아온다! 7돈스파이크 필로폰 투약 혐의로 경찰에 체포... 1000회분 소지 8종합 격투 예능 ‘다이다이’, 100만 조회수를 돌파..."간결하고 빠른 진행 특징" 9산다라박 공항패션, 크리스찬 루부탱 스니커즈-가방으로 포인트 10MBN '뷰티풀! 맘마미아', 뇌동맥류 극복한 엄마 김혜자편 방영 스타 인터뷰 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+    <t>제주도, 우수관광사업체 18개소 선정 menu 제주도, 우수관광사업체 18개소 선정 search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 제주 제주도, 우수관광사업체 18개소 선정 강태우 기자 승인 2019-07-02 22:54 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 제주도청 전경. (제공: 제주도청)ⓒ천지일보 2019.5.9 [천지일보 제주=강태우 기자] 제주도가 건전하고 품질 높은 관광서비스 제공 및 기업의 경쟁력 강화를 위해 우수관광사업체를 지정하고 있다. 이에 제주도는 올해 18개소를 선정 제주도 홈페이지에 지정 공고했다고 2일 밝혔다. 이번 공모에는 지난 5월 우수관광사업체 지정공모를 통해 영업신고(리모델링) 후 1년 이상 경과하고 도내에 본점을 둔 5개 분야(관광지, 교통, 숙박, 여행업, 음식 등) 관광사업체를 대상으로 신청 받은 결과 30개 업체가 접수했다. 이 가운데 서류심사를 통해 7개 업체(자격제한 1개, 자진포기 6개)를 제외했으며, 우수관광사업체평정위원회 심의를 거쳐 현장평가에서 부적합 평가받은 5개 업체를 제외한 18개 업체를 최종 선정했다. 분야별 지정업체 수는 관광 13개소(신규 1, 재지정12), 교통 3개소(신규2, 재지정 1), 숙박 1개소(신규), 음식 1개소(신규) 등 이다. 최종 심의에 앞서 .진행된 현장평가에서는 업종별 평가위원단이 신청업체의 적합여부를 심사했다. 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회공헌도 등 주요항목을 심사한 결과, 종합점수의 기준점(90점) 이상인 업체 18개소, 점수미달 업체 5개소로 평가됐다. 우수관광사업체로 지정되면 지정서 및 인증패 수여, 도 및 유관기관 홈페이지 게재, SNS 홍보, 리플릿, 지도제작 및 배포를 통한 홍보 인센티브 혜택과 홍보지원금이 지급된다. 또한, 우수관광사업체 종사자 대상의 서비스 교육도 받을 수 있다. 이번에 선정된 우수관광사업체 지정기간은 올해 7월부터 2021년 6월30일까지로 총 2년간이다. 한편, 우수관광사업체 지정사업은 지난 2008년부터 시행된 이래 현재 106개 업체가 우수관광사업체로 지정‧운영되고 있다. 강태우 기자 kby2489@newscj.com 다른기사 보기 관련기사 제주도에 최적화된 다목적 소방헬기 ‘한라매’가 떴다 제주도, 서민 주거지원 연·월세 저금리 자금대출 제주도, 청년에게 학자금 대출이자 전액 지원한다 제주 함덕해수욕장에 상어 출몰해 긴급피신 ‘소동’ #제주도 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 가로세로 퀴즈 가로세로 낱말 퀴즈&lt;37&gt;, &lt;36&gt; 답 및 당첨자 발표 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 사설 한국은행 빅스텝 결단은 과감해야 한다 사설 국정감사 이제부터라도 민생이 필요하다 칼럼 원자력발전 친환경 맞나 칼럼 연예인들이여, 성인이 됐으면 경제적으로 독립해야 한다 칼럼 국가안보는 국가존립의 핵심 칼럼 미국, 중국반도체 자립 자극 더했다 기획 [정치인사이드] ‘윤석열차’로 촉발된 대통령 풍자 논란… 과거 정부 땐 어땠나 [현대이야기&lt;22&gt;] 걸면 걸리는 ‘걸리버’ 기억 나시나요?… 추억이 된 현대전자 [한국인 이만희 평화실화 FOCUS│HWPL과 아프리카&lt;1&gt;] HWPL, 아프리카 각계각층에 “평화의 일 함께하자” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+  </si>
+  <si>
+    <t>한국관광공사가 제주도 야자수를 제거하는 이유는 ‘태풍’때문 - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 한국매버릭, '스마트 초인종 레이더벨' 2022 국제치안산업대전에서 선보여 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 한국관광공사가 제주도 야자수를 제거하는 이유는 ‘태풍’때문 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 이슈돋보기 한국관광공사가 제주도 야자수를 제거하는 이유는 ‘태풍’때문 보도본부 | 김정연 기자 승인 2019.07.17 07:47 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 16일 한국관광공사 제주지사에 따르면 안전사고 예방을 위해 지난 1982년부터 식재돼 35년 넘게 중문관광단지의 스카이라인을 구성하고 있는 야자수(워싱톤 야자수)들을 제거한다. 수목이 노후화와 지난해 추운 날씨와 강한 바람으로 야자수 상단부가 절단되고 또 태풍의 영향으로 약 100여 그루가 전도되거나 절단돼 보행자와 운전자의 안전사고 우려됐기 때문이다. 연합뉴스 제공 특히 작년 태풍 솔릭과 콩레이의 영향으로 약 100여 그루가 전도되거나 절단되는 등 보행자와 운전자의 안전사고 우려가 계속 높아진 상태다. 이에 한국관광공사 제주지사는 태풍이 오기전인 7월 말까지 야자수를 모두 제거하고 오는 9~10월 경 신규 야자수를 식재할 예정이다. 관계자는 "관광객의 안전을 우선 고려해 어려운 결정을 내렸다"며 "워싱턴 야자수가 제거된 곳에는 기존에 식재돼 있는 카나리아 야자수나 종려나무 등으로 대체해 이국적인 풍경을 유지할 것"이라며 "야자수 그루터기 활용방안에 대해도 검토할 계획"이라고 했다. Tag #야자수 #중문 #제주도 #솔릭 #콩레이 #제주 #워싱턴야자수 #카나리아야자수 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 김정연 기자 sisunnews@sisunnews.co.kr 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진... (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치... 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 많이 본 뉴스 종합 뉴스 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 2혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 3싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 4비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 5졸리 측, “피트가 아이들에게도 폭력 행사했다”... 기내 난투극 상황 상세히 공개 6MBN '우리들의 쇼10', 뉴트리 화장품 천수윤진 크림밤 소개 7박서준, 캘빈클라인 FW 캠페인 추가 공개 되며 다시 한번 ‘여심 저격’ 8‘비밀남녀’ 조이 무속인 정체 이후 실망스러운 전개 평가 나와 9가수 강태관이 신곡 ‘별’ 미디어파사드 뮤직비디오 선보여 10마약 투약 혐의 돈스파이크 구속 상태로 검찰에 넘겨져 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
   </si>
   <si>
     <t>일본의식품구성탑</t>
   </si>
   <si>
-    <t>SR타임스 모바일 사이트, [SR새상품] SKT, “제주도 관광지, T맵 켜고 할인쿠폰 받으세요” default_top_notch 메뉴 검색 검색 검색 메인화면으로 이동 뉴스 카테고리 전체기사 지배구조 소비자이슈 공정운영 인권 노동 환경 사회공헌 SR포커스/해외SR 경제/라이프 오피니언 지자체의 SR 그래픽뉴스 PC버전으로 보기 copyright ⓒSR타임스 all rights reserved. 검색 default_top default_news_top default_news_ad1 default_nd_ad1 홈새상품산업[SR새상품] SKT, “제주도 관광지, T맵 켜고 할인쿠폰 받으세요”기사승인 2019.07.10  09:48:44- 작게+ 크게 공유 공유하기 닫기 아래의 URL을 길게 누르면 복사하실수 있습니다. http://m.srtimes.kr/news/articleView.html?idxno=43166 icon 페이스북 icon 트위터 icon 구글+ icon 카스 icon 라인 icon 밴드 icon URL복사 default_news_ad2 ▲SK텔레콤 모델이 ‘T map x 스타쿠폰’ 서비스를 소개하는 모습 ⓒSK텔레콤 - 스타모빌리티와 제주도 주요 관광지 9개소 할인가 소개 서비스 출시 [SR(에스알)타임스 김수민 기자] SK텔레콤은 제주지역 차량공유 및 할인쿠폰 판매업체인 스타모빌리티와 함께 T맵을 통해 제주도의 주요 관광명소를 할인가로 이용할 수 있는 ‘T map x 스타쿠폰’ 서비스를 10일 출시했다고 밝혔다. T map x 스타쿠폰은 제주도 전역의 99개 주요 관광지와 음식점, 커피 전문점 등을 할인가로 구매할 수 있도록 소개하는 제주 관광객 특화서비스다. 이번 서비스는 T맵 이용자들이 제주 지역 관광지들을 편리하게 이용할 수 있도록 하기 위해 마련됐다. T map x 스타쿠폰은 ▲위치 기반 ▲목적지 검색 기반 2가지 방식으로 이용할 수 있다. 위치 기반으로 이용할 경우 T맵 내에서 T map X 스타쿠폰 배너를 클릭하거나, 제주도에서 T맵을 켜면 나오는 팝업창을 클릭하면 별도 페이지를 통해 T맵 사용자의 현 위치 기준 반경 10km 내 할인가로 이용 가능한 관광지를 가까운 거리 순으로 보여준다. T맵을 통해 검색한 목적지가 할인가 이용 가능한 관광지일 경우 상단에 할인을 위한 쿠폰 구매 여부를 팝업창 형태로 안내한다. SK텔레콤와 스타모빌리티는 T map X 스타쿠폰을 통해 관광객들이 사전에 할인 관광권을 구매하지 않았거나, 미리 방문할 장소를 정하지 않아도 T map X 스타쿠폰을 통해 다양한 할인 정보를 얻을 수 있어 관광객들의 편의가 대폭 제고될 것으로 기대했다. 양사는 이를 통해 중장기적으로 제주 관광산업의 발전과 지역 상권의 활성화에도 도움이 될 것으로 전망했다. SK텔레콤와 스타모빌리티는 향후 스타모빌리티 운전자를 대상으로 SK텔레콤의 운전점수를 활용한 안전운전 캠페인도 진행할 계획이다. 해당 서비스는 고객의 운전점수를 확인하여 안전운전 시 추가 혜택을 제공하는 방식으로 진행될 예정이다. 양사는 해당 캠페인을 통해 제주도 내에서의 교통사고 감소와 탄소배출량 절감 효과를 거둘 수 있을 것으로 기대했다. 장유성 SK텔레콤 모빌리티 사업단장은 “스타모빌리티와 진행하는 T map x 스타쿠폰 서비스는 T map 고객들의 제주도 관광 편의 제고는 물론, 제주도 관광산업과 지역경제의 활성화에 기여할 것으로 기대한다”며 “앞으로도 T맵 이용자들에게 도움이 될 다양한 서비스를 선보일 것”이라고 밝혔다. 김수민 기자 k8silver2@daum.net&lt;저작권자 © SR타임스 무단전재 및 재배포금지&gt; default_news_ad3 default_nd_ad5 페이스북 트위터 구글+ 카카오스토리 라인 밴드 URL복사 default_nd_ad3 default_news_ad5 default_side_ad1 default_nd_ad2 인기기사 1지자체의 SR수도권[단독] 이화영 킨텍스 사장, 옥중 사퇴결심 굳혀 2경제/라이프유통[SR유통] 8년 만에 돌아온 석촌호수 '러버덕' 3지자체의 SR충청[지자체의 SR] 세계여성평화그룹, 필리핀에 평화기념비 건립 4지자체의 SR충청[지자체의 SR] ‘들풀’의 꿈 ‘비단강살리기’ 닻 올려…“세종의 젖줄을 르네상스로” 5경제/라이프[SR주간브리핑] 한화그룹, 대우조선해양 인수…금융권 수장들 국감 '줄소환' 6경제/라이프자동차[SR자동차] 디지털 기술 중무장…볼보차코리아 'S60·V60CC' 동시 출격 7지배구조산업[SR기획-ESG 선두기업] &lt;30·끝&gt;정몽원 회장 "HL그룹 방향성은 성장…소처럼 우직하게" set_C1 default_side_ad2 포토 [SR문화] '인생은 아름다워', 김준석 음악감독 마스터 클래스 개최 [기자수첩] 우리은행 횡령, 이젠 ‘고양이’에게 ‘생선’을 맡겨야 하나 [2022국감] 안호영 국회의원, 국감서 'CJ 햇반' 미국산 쌀 사용 지적 [지자체의 SR] 파주시, 파주예총 임원진과 간담회 가져 [지자체의 SR] 경기도, '2022 경기 다독다독 축제' 개최 [지자체의 SR] 경기도, ‘면접수당 지급 문화’ 확산 나서 이전 1 2 3 다음 set_P1 default_side_ad3 최신기사 1문화로 만나는 SR세상[SR문화] '인생은 아름다워', 김준석 음악감독 마스터 클래스 개최 2오피니언기자수첩[기자수첩] 우리은행 횡령, 이젠 ‘고양이’에게 ‘생선’을 맡겨야 하나 3경제/라이프유통[2022국감] 안호영 국회의원, 국감서 'CJ 햇반' 미국산 쌀 사용 지적 4지자체의 SR수도권[지자체의 SR] 파주시, 파주예총 임원진과 간담회 가져 5지자체의 SR수도권[지자체의 SR] 경기도, '2022 경기 다독다독 축제' 개최 set_A2 섹션별 인기기사 및 최근기사 섹션별 최근기사 섹션별 인기기사 1지배구조산업[SR기획-ESG 선두기업] &lt;30·끝&gt;정몽원 회장 "HL그룹 방향성은 성장…소처럼 우직하게" set_new_S1N1 1소비자이슈기관 단체[단독] 가수 김호중 모델 '관절호강' 건강기능식품, 판매는 소속사? set_new_S1N2 1공정운영금융[SR공정운영] 하나증권, 현직임원 ‘48억원대’ 배임…“경찰수사” set_new_S1N3 1인권[SR인권] 현대두산인프라코어 부사장 '수행기사 갑질' 논란 set_new_S1N4 1노동산업[SR노동] 대우조선해양건설 노조, 경영진 규탄 집회 열어 set_new_S1N5 1환경기관 단체[지자체의 SR] 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 set_new_S1N6 1사회공헌산업[SR사회공헌] 볼보자동차코리아, 제주 올레길서 ‘클린 올레’ 플로깅 캠페인 set_new_S1N7 1SR포커스/해외SR[SR해외] 엘리자베스 여왕 서거…영국 화폐 달라진다 set_new_S1N19 1경제/라이프자동차[SR자동차] 쌍용차, 10월 차종별 구매혜택…"1.9%~6.9% 할부" set_new_S1N10 1오피니언기자수첩[기자수첩] 우리은행 횡령, 이젠 ‘고양이’에게 ‘생선’을 맡겨야 하나 set_new_S1N12 1지자체의 SR수도권[지자체의 SR] 파주시, 파주예총 임원진과 간담회 가져 set_new_S1N30 1지배구조산업[SR재계] 영국 간 이재용 부회장, ARM 인수 타진할까 set_hot_S1N1 set_hot_S1N2 1공정운영산업[SR공정운영] 공정위 "총수 일가, 3.7% 지분으로 그룹 장악" set_hot_S1N3 set_hot_S1N4 set_hot_S1N5 1환경기관 단체[지자체의 SR] 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 set_hot_S1N6 1사회공헌산업[SR사회공헌] 보람상조, 추석 맞아 소외이웃에 온정 나눠 set_hot_S1N7 1SR포커스/해외SR[SR해외] 엘리자베스 여왕 서거…영국 화폐 달라진다 set_hot_S1N19 1경제/라이프유통[SR유통] 하이트진로음료 ‘진로토닉워터 홍차’ 출시 기념 에디션 진행 set_hot_S1N10 1오피니언칼럼[서중권 칼럼] ‘꿈의 암 치료’ 준비한 최민호 세종시장의 혜안 set_hot_S1N12 1지자체의 SR수도권[단독] 이화영 킨텍스 사장, 옥중 사퇴결심 굳혀 set_hot_S1N30 default_side_ad4 default_nd_ad6 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. default_news_bottom default_nd_ad4 default_bottom PC버전으로 보기 Copyright ⓒSR타임스 all rights reserved. ndsoft #top default_bottom_notch</t>
-  </si>
-  <si>
-    <t>제주도, 우수관광사업체 18개소 선정 menu 제주도, 우수관광사업체 18개소 선정 search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 제주 제주도, 우수관광사업체 18개소 선정 강태우 기자 승인 2019-07-02 22:54 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 제주도청 전경. (제공: 제주도청)ⓒ천지일보 2019.5.9 [천지일보 제주=강태우 기자] 제주도가 건전하고 품질 높은 관광서비스 제공 및 기업의 경쟁력 강화를 위해 우수관광사업체를 지정하고 있다. 이에 제주도는 올해 18개소를 선정 제주도 홈페이지에 지정 공고했다고 2일 밝혔다. 이번 공모에는 지난 5월 우수관광사업체 지정공모를 통해 영업신고(리모델링) 후 1년 이상 경과하고 도내에 본점을 둔 5개 분야(관광지, 교통, 숙박, 여행업, 음식 등) 관광사업체를 대상으로 신청 받은 결과 30개 업체가 접수했다. 이 가운데 서류심사를 통해 7개 업체(자격제한 1개, 자진포기 6개)를 제외했으며, 우수관광사업체평정위원회 심의를 거쳐 현장평가에서 부적합 평가받은 5개 업체를 제외한 18개 업체를 최종 선정했다. 분야별 지정업체 수는 관광 13개소(신규 1, 재지정12), 교통 3개소(신규2, 재지정 1), 숙박 1개소(신규), 음식 1개소(신규) 등 이다. 최종 심의에 앞서 .진행된 현장평가에서는 업종별 평가위원단이 신청업체의 적합여부를 심사했다. 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회공헌도 등 주요항목을 심사한 결과, 종합점수의 기준점(90점) 이상인 업체 18개소, 점수미달 업체 5개소로 평가됐다. 우수관광사업체로 지정되면 지정서 및 인증패 수여, 도 및 유관기관 홈페이지 게재, SNS 홍보, 리플릿, 지도제작 및 배포를 통한 홍보 인센티브 혜택과 홍보지원금이 지급된다. 또한, 우수관광사업체 종사자 대상의 서비스 교육도 받을 수 있다. 이번에 선정된 우수관광사업체 지정기간은 올해 7월부터 2021년 6월30일까지로 총 2년간이다. 한편, 우수관광사업체 지정사업은 지난 2008년부터 시행된 이래 현재 106개 업체가 우수관광사업체로 지정‧운영되고 있다. 강태우 기자 kby2489@newscj.com 다른기사 보기 관련기사 제주도에 최적화된 다목적 소방헬기 ‘한라매’가 떴다 제주도, 서민 주거지원 연·월세 저금리 자금대출 제주도, 청년에게 학자금 대출이자 전액 지원한다 제주 함덕해수욕장에 상어 출몰해 긴급피신 ‘소동’ #제주도 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 칼럼 가보고 싶은 건축 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 천지시론 지금은 참 종교의 시대… 계시 받은 자 앞으로 나와야 하는 때 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 사설 무역수지 6개월 적자, 경상수지도 적자로 가나 사설 국정감사는 입법부 고유 권한이다 칼럼 가보고 싶은 건축 칼럼 기후 재난은 불평등 문제다 칼럼 “네가 좀 와서 들어줄래?” 아동성범죄자 김근식이 출소한다 칼럼 경제위기와 경제질서 기획 [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;5&gt;] HWPL과 약속 지킨 동유럽 수반들 “한반도 평화 통일지지” [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;4&gt;] 동유럽 민주주의 주역들도 “이만희 대표와 함께 하겠다” 손들어 [현대이야기&lt;21&gt;] “삼성을 잡아라”… 메모리 반도체 개발에 사활 걸었던 현대전자 연중기획 중소기업강국코리아 코리아스페이스㈜ 스페이스케어 “코로나 바이러스 99.99% 사멸로 청해부대 등 집단감염 막는다” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+    <t>[SR새상품] SKT, “제주도 관광지, T맵 켜고 할인쿠폰 받으세요” - SR타임스 2022.10.11 (화) 사회적 책임 이끄는 종합인터넷신문 HOME전체기사보기로그인회원가입 지배구조 Organizational governance 소비자이슈 Consumer issues 공정운영 Fair operating practices 인권 Human rights 노동 Labour practices 환경 The environment 사회공헌 Community involvement and development SR포커스/해외SR 경제/라이프 오피니언 지자체의 SR 기사검색 이전 다음 로고 [SR새상품] SKT, “제주도 관광지, T맵 켜고 할인쿠폰 받으세요” 페이스북 트위터 구글 카카오스토리 메일 HOME 새상품 산업 [SR새상품] SKT, “제주도 관광지, T맵 켜고 할인쿠폰 받으세요” 김수민 기자 승인 2019.07.10 09:48:44 댓글 0 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사(권장) 가나다라마바사 가나다라마바사 가나다라마바사 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 ▲SK텔레콤 모델이 ‘T map x 스타쿠폰’ 서비스를 소개하는 모습 ⓒSK텔레콤 - 스타모빌리티와 제주도 주요 관광지 9개소 할인가 소개 서비스 출시 [SR(에스알)타임스 김수민 기자] SK텔레콤은 제주지역 차량공유 및 할인쿠폰 판매업체인 스타모빌리티와 함께 T맵을 통해 제주도의 주요 관광명소를 할인가로 이용할 수 있는 ‘T map x 스타쿠폰’ 서비스를 10일 출시했다고 밝혔다. T map x 스타쿠폰은 제주도 전역의 99개 주요 관광지와 음식점, 커피 전문점 등을 할인가로 구매할 수 있도록 소개하는 제주 관광객 특화서비스다. 이번 서비스는 T맵 이용자들이 제주 지역 관광지들을 편리하게 이용할 수 있도록 하기 위해 마련됐다. T map x 스타쿠폰은 ▲위치 기반 ▲목적지 검색 기반 2가지 방식으로 이용할 수 있다. 위치 기반으로 이용할 경우 T맵 내에서 T map X 스타쿠폰 배너를 클릭하거나, 제주도에서 T맵을 켜면 나오는 팝업창을 클릭하면 별도 페이지를 통해 T맵 사용자의 현 위치 기준 반경 10km 내 할인가로 이용 가능한 관광지를 가까운 거리 순으로 보여준다. T맵을 통해 검색한 목적지가 할인가 이용 가능한 관광지일 경우 상단에 할인을 위한 쿠폰 구매 여부를 팝업창 형태로 안내한다. SK텔레콤와 스타모빌리티는 T map X 스타쿠폰을 통해 관광객들이 사전에 할인 관광권을 구매하지 않았거나, 미리 방문할 장소를 정하지 않아도 T map X 스타쿠폰을 통해 다양한 할인 정보를 얻을 수 있어 관광객들의 편의가 대폭 제고될 것으로 기대했다. 양사는 이를 통해 중장기적으로 제주 관광산업의 발전과 지역 상권의 활성화에도 도움이 될 것으로 전망했다. SK텔레콤와 스타모빌리티는 향후 스타모빌리티 운전자를 대상으로 SK텔레콤의 운전점수를 활용한 안전운전 캠페인도 진행할 계획이다. 해당 서비스는 고객의 운전점수를 확인하여 안전운전 시 추가 혜택을 제공하는 방식으로 진행될 예정이다. 양사는 해당 캠페인을 통해 제주도 내에서의 교통사고 감소와 탄소배출량 절감 효과를 거둘 수 있을 것으로 기대했다. 장유성 SK텔레콤 모빌리티 사업단장은 “스타모빌리티와 진행하는 T map x 스타쿠폰 서비스는 T map 고객들의 제주도 관광 편의 제고는 물론, 제주도 관광산업과 지역경제의 활성화에 기여할 것으로 기대한다”며 “앞으로도 T맵 이용자들에게 도움이 될 다양한 서비스를 선보일 것”이라고 밝혔다. 김수민 기자  k8silver2@daum.net&lt;저작권자 © SR타임스, 무단 전재 및 재배포 금지&gt; 메일보내기 인쇄하기 트윗하기 김수민 기자의 다른기사 보기 icon인기기사 “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 디즈니+ ‘안도르’·‘핑크 라이’...5일 공개 外 국힘, 세종시 의회 상병헌 의장 ‘불신임안’ 단독 기습 처리 부동산PF 대출 중단으로 유동성 위기감…삼성·LG전자, 3분기 수익성 악화 'LG카' 출시될까?…"가능성 충분" [지자체의 SR] “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작[지자체의 SR] “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. 여백 여백 소비자보호/이슈 김경만 의원 "안전 위반 어린이제품 수거율 32.2% 그쳐" 김경만 의원 "안전 위반 어린이제품 수거율 32.2% 그쳐" LG생활건강 '유아용 물티슈'서 가습기 살균제 성분 검출…'늦장 고지' 논란 LG생활건강 '유아용 물티슈'서 가습기 살균제 성분 검출…'늦장 고지' 논란 여백 지역사회와 함께 이봉창 의사 순국 90주기 추모식 거행 이봉창 의사 순국 90주기 추모식 거행 “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 여백 소중한 환경 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 세종에 오래전 사라졌던 반딧불이  출현…"되찾은 수질 등 환경 좋아진 탓" 세종에 오래전 사라졌던 반딧불이  출현…"되찾은 수질 등 환경 좋아진 탓" 여백 여백 신문사소개 언론윤리 신문윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 에스알미디어그룹  |   (우)04334 서울특별시 용산구 한강대로 102길 11-3 (용산구 동자동 41-6) 5층 SR타임스  |  대표전화 : 02-572-0451  |  팩스 : 02-572-0452 제호 : SR타임스  |  발행일 : 2014년 07월 07일  |  등록번호 : 서울 아 03041  |  등록일 : 2014년 03월 11일  |  편집인/발행인 : 장의식  |  편집국장 : 김두탁  |  청소년보호책임자 : 이정우 SR타임스의 모든 컨텐츠(기사)는 저작권법의 보호를 받습니다. 무단 전재·복사·배포 등을 금지합니다. Copyright © 2022 SR타임스. All rights reserved.  mailto : srtimes0311@daum.net Back to Top</t>
   </si>
 </sst>
 </file>
@@ -467,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,9 +764,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -500,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -533,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -544,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -555,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -566,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -576,9 +849,6 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -588,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -596,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -607,10 +877,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -618,10 +888,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -629,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -640,10 +907,603 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
         <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
